--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA5BCC9-1E95-49D4-908E-931328FA16E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15566DDA-49B5-464E-88CA-070E56A56B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Eng. Dean</t>
   </si>
   <si>
-    <t>Space Enterprise (SEB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">info@seb.berkeley.edu </t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>panos@berkeley.edu</t>
   </si>
   <si>
-    <t>Space Technologies and Rocketry (STAR)</t>
-  </si>
-  <si>
     <t>ucberkeleystar@gmail.com</t>
   </si>
   <si>
@@ -171,6 +165,300 @@
   </si>
   <si>
     <t>STAR</t>
+  </si>
+  <si>
+    <t>Aggie Propulsion Lab</t>
+  </si>
+  <si>
+    <t>UC Davis</t>
+  </si>
+  <si>
+    <t>apl@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Steve Dilbert</t>
+  </si>
+  <si>
+    <t>spdilbert@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Gaby Renteria</t>
+  </si>
+  <si>
+    <t>ggrenteria@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Ralph Aldredge</t>
+  </si>
+  <si>
+    <t>rcaldredge@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>ECLIPSE Rocketry</t>
+  </si>
+  <si>
+    <t>Rockets.ucdavis@gmail.com</t>
+  </si>
+  <si>
+    <t>APL</t>
+  </si>
+  <si>
+    <t>ECLIPSE</t>
+  </si>
+  <si>
+    <t>Rocket Project UCI</t>
+  </si>
+  <si>
+    <t>UC Irvine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucirocketprojectteam@gmail.com </t>
+  </si>
+  <si>
+    <t>Christian Ritter</t>
+  </si>
+  <si>
+    <t>crritter@uci.edu</t>
+  </si>
+  <si>
+    <t>Chris Taylor</t>
+  </si>
+  <si>
+    <t>cntaylor@uci.edu</t>
+  </si>
+  <si>
+    <t>Mark Walter, Xian Shi</t>
+  </si>
+  <si>
+    <t>m.walter@uci.edu, xianshi@uci.edu</t>
+  </si>
+  <si>
+    <t>Rocket Project UCLA</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocketproject@ucla.edu </t>
+  </si>
+  <si>
+    <t>Blake Spahr</t>
+  </si>
+  <si>
+    <t>bspahr@ucla.edu</t>
+  </si>
+  <si>
+    <t>Chris Kolodziej</t>
+  </si>
+  <si>
+    <t>ckolodziej@ehs.ucla.edu</t>
+  </si>
+  <si>
+    <t>Mitchell Spearrin</t>
+  </si>
+  <si>
+    <t>spearrin@g.ucla.edu</t>
+  </si>
+  <si>
+    <t>Rockets Academy – AIAA</t>
+  </si>
+  <si>
+    <t>UC Merced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aiaa@ucmerced.edu </t>
+  </si>
+  <si>
+    <t>Kyle Chun</t>
+  </si>
+  <si>
+    <t>kchun29@ucmerced.edu</t>
+  </si>
+  <si>
+    <t>Mal</t>
+  </si>
+  <si>
+    <t>Cindy Zimmerman</t>
+  </si>
+  <si>
+    <t>Highlander Space Program</t>
+  </si>
+  <si>
+    <t>UC Riverside</t>
+  </si>
+  <si>
+    <t>highlanderspaceprogram@gmail.com</t>
+  </si>
+  <si>
+    <t>Javen Dosanjh</t>
+  </si>
+  <si>
+    <t>javen.dosanjh@email.ucr.edu</t>
+  </si>
+  <si>
+    <t>Patrick Monning</t>
+  </si>
+  <si>
+    <t>patrick.monnig@ucr.edu</t>
+  </si>
+  <si>
+    <t>Ingrid Fahr</t>
+  </si>
+  <si>
+    <t>ingrid.fahr@ucr.edu</t>
+  </si>
+  <si>
+    <t>Sundararajan Venkatadriagaram</t>
+  </si>
+  <si>
+    <t>vsundar@engr.ucr.edu</t>
+  </si>
+  <si>
+    <t>Rocket Propulsion Laboratory</t>
+  </si>
+  <si>
+    <t>UC Santa Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -- No Data --</t>
+  </si>
+  <si>
+    <t>Jamie Bishop</t>
+  </si>
+  <si>
+    <t>Ron Betancourt</t>
+  </si>
+  <si>
+    <t>ron.betancourt@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Rocket Team</t>
+  </si>
+  <si>
+    <t>UC Santa Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ucscrocketclub@gmail.com </t>
+  </si>
+  <si>
+    <t>Tela Favaloro</t>
+  </si>
+  <si>
+    <t>tfavalor@ucsc.edu</t>
+  </si>
+  <si>
+    <t>Sue Carter</t>
+  </si>
+  <si>
+    <t>Students for the Exploration and Development of Space (SEDS)</t>
+  </si>
+  <si>
+    <t>UC San Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seds.ucsd@gmail.com </t>
+  </si>
+  <si>
+    <t>Setekh Karaismailoglu</t>
+  </si>
+  <si>
+    <t>nkaraism@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Darren Cannone</t>
+  </si>
+  <si>
+    <t>dcannone@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Bryce Besser</t>
+  </si>
+  <si>
+    <t>bbesser@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Rocket Propulsion Lab at UCSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rocket@ucsd.edu </t>
+  </si>
+  <si>
+    <t>Emily Deboer</t>
+  </si>
+  <si>
+    <t>edeboer@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Kris Morris</t>
+  </si>
+  <si>
+    <t>krmorris@ucsd.edu</t>
+  </si>
+  <si>
+    <t>SEDS</t>
+  </si>
+  <si>
+    <t>RPL</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>HSP</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Webpage</t>
+  </si>
+  <si>
+    <t>https://www.berkeleyse.org/</t>
+  </si>
+  <si>
+    <t>https://stars.berkeley.edu/</t>
+  </si>
+  <si>
+    <t>https://apropulsionlab.com/</t>
+  </si>
+  <si>
+    <t>https://eclipserockets.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://www.rocket.eng.uci.edu/</t>
+  </si>
+  <si>
+    <t>https://www.rocketproject.seas.ucla.edu/</t>
+  </si>
+  <si>
+    <t>https://www.aiaaucmerced.org/</t>
+  </si>
+  <si>
+    <t>https://aerospacesystems.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://slab.sites.ucsc.edu/rocketteam/</t>
+  </si>
+  <si>
+    <t>https://www.sedsucsd.org/</t>
+  </si>
+  <si>
+    <t>https://www.rocketproplab.org/</t>
+  </si>
+  <si>
+    <t>Space Enterprise</t>
+  </si>
+  <si>
+    <t>Space Technologies and Rocketry</t>
+  </si>
+  <si>
+    <t>RPUCI</t>
+  </si>
+  <si>
+    <t>RPUCLA</t>
+  </si>
+  <si>
+    <t>Sky Hargrove</t>
   </si>
 </sst>
 </file>
@@ -222,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -341,12 +629,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -367,6 +675,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -379,6 +691,36 @@
           <bgColor rgb="FFFF9F9F"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="medium">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -414,36 +756,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="medium">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -458,13 +770,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:X3" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="3" tableBorderDxfId="4" totalsRowBorderDxfId="2">
-  <autoFilter ref="A1:X3" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
-  <tableColumns count="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:Y13" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
+  <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{9AF61336-FEBD-4CDB-AF53-FEFE8075AC32}" name="Name"/>
     <tableColumn id="24" xr3:uid="{B42E2B9B-5C2B-4892-946B-83ADD5B8BF34}" name="ShortName"/>
     <tableColumn id="2" xr3:uid="{B51EA5E8-F8C9-4E73-92F8-459AD7ADA258}" name="Campus"/>
     <tableColumn id="3" xr3:uid="{5CF2F8EE-D2EE-4D11-BF33-DBFAD58F8DBD}" name="Contact"/>
+    <tableColumn id="25" xr3:uid="{C7D15342-32E1-4507-B528-EE95346F35C3}" name="Webpage"/>
     <tableColumn id="4" xr3:uid="{7B1F3B02-1D3C-4E9A-9399-C538DD42EDE3}" name="President"/>
     <tableColumn id="5" xr3:uid="{253ACB57-802C-42AF-A184-8F50BC841705}" name="P_Email"/>
     <tableColumn id="6" xr3:uid="{1DA0A583-3F95-40BD-9162-B510BA617AD6}" name="P_contact"/>
@@ -486,7 +799,7 @@
     <tableColumn id="22" xr3:uid="{1A74B24D-061B-40F8-9BF4-0E2CB3DEAB79}" name="D_Contact"/>
     <tableColumn id="23" xr3:uid="{C492C1EE-33A0-4ABD-B1C6-917A99AA0EF4}" name="D_Interview"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -787,46 +1100,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -835,208 +1149,708 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3">
+        <v>45175</v>
+      </c>
+      <c r="I2" s="3">
+        <v>45180</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3">
-        <v>45175</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3">
         <v>45180</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="3">
+        <v>45194</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3">
-        <v>45180</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3">
         <v>45194</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="3">
+        <v>45196</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="3">
-        <v>45194</v>
-      </c>
-      <c r="P2" s="3">
-        <v>45196</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="6"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="H3" s="13">
+        <v>45166</v>
+      </c>
+      <c r="I3" s="13">
+        <v>45175</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="13">
-        <v>45166</v>
-      </c>
-      <c r="H3" s="13">
-        <v>45175</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="13">
+        <v>45180</v>
+      </c>
+      <c r="M3" s="13">
+        <v>45194</v>
+      </c>
+      <c r="N3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="13">
-        <v>45180</v>
-      </c>
-      <c r="L3" s="13">
+      <c r="P3" s="13">
         <v>45194</v>
       </c>
-      <c r="M3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="13">
-        <v>45194</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="11"/>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
-      <c r="X3" s="15"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="18">
+        <v>45187</v>
+      </c>
+      <c r="I4" s="18">
+        <v>45200</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="18">
+        <v>45175</v>
+      </c>
+      <c r="M4" s="18">
+        <v>45187</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="18">
+        <v>45187</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>45188</v>
+      </c>
+      <c r="V4" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="18">
+        <v>45187</v>
+      </c>
+      <c r="I5" s="18">
+        <v>45204</v>
+      </c>
+      <c r="J5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="18">
+        <v>45175</v>
+      </c>
+      <c r="M5" s="18">
+        <v>45187</v>
+      </c>
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="18">
+        <v>45187</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>45188</v>
+      </c>
+      <c r="V5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="18">
+        <v>45176</v>
+      </c>
+      <c r="I6" s="18">
+        <v>45206</v>
+      </c>
+      <c r="J6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="18">
+        <v>45163</v>
+      </c>
+      <c r="M6" s="18">
+        <v>45166</v>
+      </c>
+      <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="18">
+        <v>45184</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>45187</v>
+      </c>
+      <c r="R6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="18">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="18">
+        <v>45189</v>
+      </c>
+      <c r="M7" s="18">
+        <v>45191</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="18">
+        <v>45163</v>
+      </c>
+      <c r="I8" s="18">
+        <v>45169</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="18">
+        <v>45191</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="18">
+        <v>45188</v>
+      </c>
+      <c r="M9" s="18">
+        <v>45191</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="18">
+        <v>45191</v>
+      </c>
+      <c r="R9" t="s">
+        <v>90</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="18">
+        <v>45191</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="P10" s="18">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="18">
+        <v>45169</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="R11" t="s">
+        <v>103</v>
+      </c>
+      <c r="T11" s="18">
+        <v>45187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="18">
+        <v>45187</v>
+      </c>
+      <c r="I12" s="18">
+        <v>45190</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="18">
+        <v>45180</v>
+      </c>
+      <c r="M12" s="18">
+        <v>45182</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="18">
+        <v>45180</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>45182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="18">
+        <v>45187</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="18">
+        <v>45180</v>
+      </c>
+      <c r="M13" s="18">
+        <v>45182</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:X3">
+  <conditionalFormatting sqref="F6:X6 R7:X12 F8:Q12 F13:X13 F7:P7">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E2))=0</formula>
+      <formula>LEN(TRIM(F6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="mailto:info@seb.berkeley.edu" xr:uid="{6C4F6428-292E-4A76-B676-9C059151E98C}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{BE8D79D0-F938-4AC6-AA17-85EE7BF038DC}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{99106F89-ECDC-4444-A4DA-C8146000A421}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{10D10C8D-4E3F-4DE2-B50D-37558805BAE8}"/>
-    <hyperlink ref="J3" r:id="rId5" xr:uid="{DB33C3D0-F4C0-49DC-BB83-46F350238FDC}"/>
-    <hyperlink ref="R2" r:id="rId6" xr:uid="{5E91850E-02EE-40A4-A720-805F324C8458}"/>
-    <hyperlink ref="N2" r:id="rId7" xr:uid="{31D66E5F-0E40-4D3A-B189-F41D50A431C0}"/>
-    <hyperlink ref="R3" r:id="rId8" xr:uid="{E5B70060-5576-4E95-86C8-47DA1AA6F3CD}"/>
-    <hyperlink ref="N3" r:id="rId9" xr:uid="{0922966D-E007-4B25-A954-7BE3B5D5B14A}"/>
+    <hyperlink ref="W4" r:id="rId1" xr:uid="{0CDCB812-3D7D-49A9-94EE-0ACC49DA122E}"/>
+    <hyperlink ref="O4" r:id="rId2" xr:uid="{C999AAB9-BD0A-422D-B36A-452F81B596CE}"/>
+    <hyperlink ref="W5" r:id="rId3" xr:uid="{2AF4488A-FD32-468C-AA69-D0689ABD1567}"/>
+    <hyperlink ref="K4" r:id="rId4" xr:uid="{7EE1460B-6EA0-49C2-826F-79F7B8DCBAB3}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{37ED720D-E62F-409B-9069-799CDEE24526}"/>
+    <hyperlink ref="K5" r:id="rId6" xr:uid="{BD6E4DFE-9AEC-4E78-ACBD-704B29A0E102}"/>
+    <hyperlink ref="O5" r:id="rId7" xr:uid="{057A103F-4963-44C2-8634-7C0AF3F6B641}"/>
+    <hyperlink ref="D5" r:id="rId8" display="mailto:Rockets.ucdavis@gmail.com" xr:uid="{535A74EF-251A-44A7-8D5B-4C066FC93622}"/>
+    <hyperlink ref="O3" r:id="rId9" xr:uid="{0922966D-E007-4B25-A954-7BE3B5D5B14A}"/>
+    <hyperlink ref="S3" r:id="rId10" xr:uid="{E5B70060-5576-4E95-86C8-47DA1AA6F3CD}"/>
+    <hyperlink ref="O2" r:id="rId11" xr:uid="{31D66E5F-0E40-4D3A-B189-F41D50A431C0}"/>
+    <hyperlink ref="S2" r:id="rId12" xr:uid="{5E91850E-02EE-40A4-A720-805F324C8458}"/>
+    <hyperlink ref="K3" r:id="rId13" xr:uid="{DB33C3D0-F4C0-49DC-BB83-46F350238FDC}"/>
+    <hyperlink ref="K2" r:id="rId14" xr:uid="{10D10C8D-4E3F-4DE2-B50D-37558805BAE8}"/>
+    <hyperlink ref="G2" r:id="rId15" xr:uid="{99106F89-ECDC-4444-A4DA-C8146000A421}"/>
+    <hyperlink ref="D3" r:id="rId16" xr:uid="{BE8D79D0-F938-4AC6-AA17-85EE7BF038DC}"/>
+    <hyperlink ref="D2" r:id="rId17" display="mailto:info@seb.berkeley.edu" xr:uid="{6C4F6428-292E-4A76-B676-9C059151E98C}"/>
+    <hyperlink ref="D6" r:id="rId18" display="mailto:ucirocketprojectteam@gmail.com" xr:uid="{94B09FDE-0C9E-418D-A442-213D46301151}"/>
+    <hyperlink ref="D7" r:id="rId19" display="mailto:rocketproject@ucla.edu" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
+    <hyperlink ref="D8" r:id="rId20" display="mailto:aiaa@ucmerced.edu" xr:uid="{B9122146-4EB9-4993-B247-89323CDDBE8F}"/>
+    <hyperlink ref="D9" r:id="rId21" display="mailto:highlanderspaceprogram@gmail.com" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
+    <hyperlink ref="D11" r:id="rId22" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
+    <hyperlink ref="D12" r:id="rId23" display="mailto:Seds.ucsd@gmail.com" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
+    <hyperlink ref="D13" r:id="rId24" display="mailto:rocket@ucsd.edu" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
+    <hyperlink ref="K11" r:id="rId25" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
+    <hyperlink ref="K6" r:id="rId26" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
+    <hyperlink ref="S6" r:id="rId27" display="m.walter@uci.edu, " xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
+    <hyperlink ref="O6" r:id="rId28" xr:uid="{7A0DD70F-C5D4-48C1-9663-180F546AFAF1}"/>
+    <hyperlink ref="G12" r:id="rId29" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
+    <hyperlink ref="G8" r:id="rId30" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
+    <hyperlink ref="O10" r:id="rId31" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
+    <hyperlink ref="K9" r:id="rId32" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
+    <hyperlink ref="G9" r:id="rId33" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
+    <hyperlink ref="G13" r:id="rId34" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
+    <hyperlink ref="K13" r:id="rId35" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
+    <hyperlink ref="K12" r:id="rId36" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
+    <hyperlink ref="O12" r:id="rId37" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
+    <hyperlink ref="G7" r:id="rId38" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
+    <hyperlink ref="S7" r:id="rId39" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
+    <hyperlink ref="O9" r:id="rId40" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
+    <hyperlink ref="S9" r:id="rId41" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
+    <hyperlink ref="K7" r:id="rId42" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
+    <hyperlink ref="E2" r:id="rId43" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
+    <hyperlink ref="E3" r:id="rId44" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
+    <hyperlink ref="E4" r:id="rId45" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
+    <hyperlink ref="E5" r:id="rId46" xr:uid="{8AA421A5-2CB2-4199-A0C3-6D88D3FE546E}"/>
+    <hyperlink ref="E6" r:id="rId47" xr:uid="{F2AE074E-2173-4259-A7D2-851003DE826E}"/>
+    <hyperlink ref="E7" r:id="rId48" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
+    <hyperlink ref="E8" r:id="rId49" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
+    <hyperlink ref="E9" r:id="rId50" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
+    <hyperlink ref="E11" r:id="rId51" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
+    <hyperlink ref="E12" r:id="rId52" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
+    <hyperlink ref="E13" r:id="rId53" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId54"/>
   </tableParts>
 </worksheet>
 </file>
--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15566DDA-49B5-464E-88CA-070E56A56B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A23A70-03F2-4321-8065-0EB9AD32109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="225">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +54,6 @@
     <t>P_Email</t>
   </si>
   <si>
-    <t>P_contact</t>
-  </si>
-  <si>
     <t>P_Interview</t>
   </si>
   <si>
@@ -248,12 +246,6 @@
     <t>bspahr@ucla.edu</t>
   </si>
   <si>
-    <t>Chris Kolodziej</t>
-  </si>
-  <si>
-    <t>ckolodziej@ehs.ucla.edu</t>
-  </si>
-  <si>
     <t>Mitchell Spearrin</t>
   </si>
   <si>
@@ -350,9 +342,6 @@
     <t>Sue Carter</t>
   </si>
   <si>
-    <t>Students for the Exploration and Development of Space (SEDS)</t>
-  </si>
-  <si>
     <t>UC San Diego</t>
   </si>
   <si>
@@ -459,6 +448,270 @@
   </si>
   <si>
     <t>Sky Hargrove</t>
+  </si>
+  <si>
+    <t>P_Contact</t>
+  </si>
+  <si>
+    <t>Dedicated Workspaces on Campus</t>
+  </si>
+  <si>
+    <t>Workspaces on UC Property</t>
+  </si>
+  <si>
+    <t>Shared Workspaces on UC Property</t>
+  </si>
+  <si>
+    <t>Workspaces on 3rd Party</t>
+  </si>
+  <si>
+    <t>Group Vehicles</t>
+  </si>
+  <si>
+    <t>Machine/Metalwork in Workspace</t>
+  </si>
+  <si>
+    <t>Fiberglass/resin in Workspace</t>
+  </si>
+  <si>
+    <t>Soldering in Workspace</t>
+  </si>
+  <si>
+    <t>Hazardous Materials in Workspace</t>
+  </si>
+  <si>
+    <t>Assembly in Workspace</t>
+  </si>
+  <si>
+    <t>New Member Safety Training Program</t>
+  </si>
+  <si>
+    <t>3rd Party Training</t>
+  </si>
+  <si>
+    <t>Leadership Safety Training</t>
+  </si>
+  <si>
+    <t># of Active Rockets</t>
+  </si>
+  <si>
+    <t>Solid Propellant</t>
+  </si>
+  <si>
+    <t>Bipropellant</t>
+  </si>
+  <si>
+    <t>Hybrid Propellant</t>
+  </si>
+  <si>
+    <t># of Active Engines</t>
+  </si>
+  <si>
+    <t>Fuel Storage On Campus</t>
+  </si>
+  <si>
+    <t>Fuel Transportation</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Space Enterprise Berkeley</t>
+  </si>
+  <si>
+    <t>info@seb.berkeley.edu</t>
+  </si>
+  <si>
+    <t>RSO</t>
+  </si>
+  <si>
+    <t>RSO/DSO/Dept</t>
+  </si>
+  <si>
+    <t>Use of Existing Campus Facilities</t>
+  </si>
+  <si>
+    <t>Estimated # of Launches/Yr</t>
+  </si>
+  <si>
+    <t>Estimated # of Static Fires/Yr</t>
+  </si>
+  <si>
+    <t>Estimated # of Competition Events/Yr</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Machine Shop, Computer Lab</t>
+  </si>
+  <si>
+    <t>Richmond Field Station</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>UCLC/EHS Safety Training</t>
+  </si>
+  <si>
+    <t>Black Powder</t>
+  </si>
+  <si>
+    <t>Launch Sites</t>
+  </si>
+  <si>
+    <t>FAR</t>
+  </si>
+  <si>
+    <t>Group Goal</t>
+  </si>
+  <si>
+    <t>First Liquid Rocket past the Karman Line</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>LOX, Propane</t>
+  </si>
+  <si>
+    <t>EUREKA, LAD, VLAD, CAP FILL, E-REG</t>
+  </si>
+  <si>
+    <t>Propane, Solid</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>SSEP2, ALULA, DAVE</t>
+  </si>
+  <si>
+    <t>Competition (Spaceport America, DPF)</t>
+  </si>
+  <si>
+    <t>AIAA Rocket Academy</t>
+  </si>
+  <si>
+    <t>Rocket Project @ UCLA</t>
+  </si>
+  <si>
+    <t>Dept</t>
+  </si>
+  <si>
+    <t>Chris Kolodziej, Claudia Ali</t>
+  </si>
+  <si>
+    <t>ckolodziej@ehs.ucla.edu, calli@ehs.ucla.edu</t>
+  </si>
+  <si>
+    <t>UC Irvine Rocket Project</t>
+  </si>
+  <si>
+    <t>Liquid Bipropellant and Competition Team (Solid)</t>
+  </si>
+  <si>
+    <t>LIQUID, SOLID</t>
+  </si>
+  <si>
+    <t>40ft Airstream Trailer</t>
+  </si>
+  <si>
+    <t>LOX, LNG, He (Pressurant)</t>
+  </si>
+  <si>
+    <t>Fuel at Launch</t>
+  </si>
+  <si>
+    <t>czimmerman3@ucmerced.edu</t>
+  </si>
+  <si>
+    <t>Rakesh Goel (c/o Karla Gonzalez)</t>
+  </si>
+  <si>
+    <t>kgonzalez34@ucmerced.edu</t>
+  </si>
+  <si>
+    <t>aiaa@ucmerced.edu</t>
+  </si>
+  <si>
+    <t>David Millet</t>
+  </si>
+  <si>
+    <t>Competition Team</t>
+  </si>
+  <si>
+    <t>Castle</t>
+  </si>
+  <si>
+    <t>Castle (MESA Lab/SAE)</t>
+  </si>
+  <si>
+    <t>Black Powder, Solid Motors</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>FAR, DelNorte  (Tripoli Central CA), Snow Ranch (LUNAR NAR)</t>
+  </si>
+  <si>
+    <t>Liquid Rocket to 30,000 ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RISE, Prometheus, Ares</t>
+  </si>
+  <si>
+    <t>Eng IV 14-118 Lab</t>
+  </si>
+  <si>
+    <t>Machine Shop</t>
+  </si>
+  <si>
+    <t>UCLA Mojave Testing Facility</t>
+  </si>
+  <si>
+    <t>Airstream Trailer</t>
+  </si>
+  <si>
+    <t>LOX, Ethanol</t>
+  </si>
+  <si>
+    <t>Students for the Exploration and Development of Space</t>
+  </si>
+  <si>
+    <t>Aditya Shah</t>
+  </si>
+  <si>
+    <t>DSO</t>
+  </si>
+  <si>
+    <t>Nephas, Halya, Lander, Colossus</t>
+  </si>
+  <si>
+    <t>NASA Safety Training</t>
+  </si>
+  <si>
+    <t>LOX, Methane</t>
+  </si>
+  <si>
+    <t>Trailer Mounted Static Test Fire</t>
+  </si>
+  <si>
+    <t>LNG</t>
   </si>
 </sst>
 </file>
@@ -654,7 +907,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -679,6 +932,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,7 +950,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9F9F"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -697,13 +959,6 @@
         <top style="thin">
           <color theme="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -718,6 +973,13 @@
           <color theme="1"/>
         </top>
         <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
           <color theme="1"/>
         </bottom>
       </border>
@@ -770,7 +1032,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
   <autoFilter ref="A1:Y13" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{9AF61336-FEBD-4CDB-AF53-FEFE8075AC32}" name="Name"/>
@@ -780,7 +1042,7 @@
     <tableColumn id="25" xr3:uid="{C7D15342-32E1-4507-B528-EE95346F35C3}" name="Webpage"/>
     <tableColumn id="4" xr3:uid="{7B1F3B02-1D3C-4E9A-9399-C538DD42EDE3}" name="President"/>
     <tableColumn id="5" xr3:uid="{253ACB57-802C-42AF-A184-8F50BC841705}" name="P_Email"/>
-    <tableColumn id="6" xr3:uid="{1DA0A583-3F95-40BD-9162-B510BA617AD6}" name="P_contact"/>
+    <tableColumn id="6" xr3:uid="{1DA0A583-3F95-40BD-9162-B510BA617AD6}" name="P_Contact"/>
     <tableColumn id="7" xr3:uid="{EC29D74F-4F3A-410D-9442-2D7EEA408B8D}" name="P_Interview"/>
     <tableColumn id="8" xr3:uid="{5508F68F-F922-4326-A824-A971B319D24B}" name="EH&amp;S "/>
     <tableColumn id="9" xr3:uid="{B8E5E815-A018-4C9A-8772-12BBD516E1AB}" name="E_Email"/>
@@ -1102,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,19 +1379,19 @@
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1140,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>1</v>
@@ -1149,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -1158,81 +1420,81 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="Y1" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H2" s="3">
         <v>45175</v>
@@ -1241,10 +1503,10 @@
         <v>45180</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="L2" s="3">
         <v>45180</v>
@@ -1253,10 +1515,10 @@
         <v>45194</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="3">
         <v>45194</v>
@@ -1265,10 +1527,10 @@
         <v>45196</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1279,25 +1541,25 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="H3" s="13">
         <v>45166</v>
@@ -1306,10 +1568,10 @@
         <v>45175</v>
       </c>
       <c r="J3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="13">
         <v>45180</v>
@@ -1318,20 +1580,22 @@
         <v>45194</v>
       </c>
       <c r="N3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>32</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>33</v>
       </c>
       <c r="P3" s="13">
         <v>45194</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="13">
+        <v>45196</v>
+      </c>
       <c r="R3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
@@ -1342,31 +1606,27 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="18">
-        <v>45187</v>
-      </c>
-      <c r="I4" s="18">
-        <v>45200</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="L4" s="18">
         <v>45175</v>
@@ -1375,10 +1635,10 @@
         <v>45187</v>
       </c>
       <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="O4" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="P4" s="18">
         <v>45187</v>
@@ -1387,39 +1647,35 @@
         <v>45188</v>
       </c>
       <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
       <c r="E5" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="18">
-        <v>45187</v>
-      </c>
-      <c r="I5" s="18">
-        <v>45204</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>47</v>
       </c>
       <c r="L5" s="18">
         <v>45175</v>
@@ -1428,10 +1684,10 @@
         <v>45187</v>
       </c>
       <c r="N5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="O5" s="17" t="s">
-        <v>49</v>
       </c>
       <c r="P5" s="18">
         <v>45187</v>
@@ -1440,42 +1696,40 @@
         <v>45188</v>
       </c>
       <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="W5" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H6" s="18">
         <v>45176</v>
       </c>
-      <c r="I6" s="18">
-        <v>45206</v>
-      </c>
+      <c r="I6" s="18"/>
       <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>59</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>60</v>
       </c>
       <c r="L6" s="18">
         <v>45163</v>
@@ -1484,10 +1738,10 @@
         <v>45166</v>
       </c>
       <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>62</v>
       </c>
       <c r="P6" s="18">
         <v>45184</v>
@@ -1496,10 +1750,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="S6" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="T6" s="18">
         <v>45169</v>
@@ -1507,31 +1761,31 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="L7" s="18">
         <v>45189</v>
@@ -1540,33 +1794,36 @@
         <v>45191</v>
       </c>
       <c r="R7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="T7" s="18">
+        <v>45195</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
         <v>74</v>
       </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="G8" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="H8" s="18">
         <v>45163</v>
@@ -1575,42 +1832,63 @@
         <v>45169</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="18">
+        <v>45195</v>
+      </c>
+      <c r="V8" t="s">
+        <v>200</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="X8" s="18">
+        <v>45195</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>45201</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="G9" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="H9" s="18">
         <v>45191</v>
       </c>
+      <c r="I9" s="18">
+        <v>45198</v>
+      </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L9" s="18">
         <v>45188</v>
@@ -1619,45 +1897,45 @@
         <v>45191</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O9" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P9" s="18">
         <v>45191</v>
       </c>
       <c r="R9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" t="s">
         <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" t="s">
-        <v>95</v>
       </c>
       <c r="L10" s="18">
         <v>45191</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P10" s="18">
         <v>45187</v>
@@ -1665,32 +1943,32 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="K11" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="D11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="L11" s="18">
         <v>45169</v>
       </c>
       <c r="M11" s="17"/>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T11" s="18">
         <v>45187</v>
@@ -1698,25 +1976,25 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="H12" s="18">
         <v>45187</v>
@@ -1725,10 +2003,10 @@
         <v>45190</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L12" s="18">
         <v>45180</v>
@@ -1737,10 +2015,10 @@
         <v>45182</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O12" s="17" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="P12" s="18">
         <v>45180</v>
@@ -1751,34 +2029,37 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" t="s">
-        <v>114</v>
+        <v>101</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H13" s="18">
         <v>45187</v>
       </c>
+      <c r="I13" s="18">
+        <v>45196</v>
+      </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L13" s="18">
         <v>45180</v>
@@ -1788,9 +2069,9 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F6:X6 R7:X12 F8:Q12 F13:X13 F7:P7">
+  <conditionalFormatting sqref="A2:Y13">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(F6))=0</formula>
+      <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -1801,7 +2082,7 @@
     <hyperlink ref="D4" r:id="rId5" xr:uid="{37ED720D-E62F-409B-9069-799CDEE24526}"/>
     <hyperlink ref="K5" r:id="rId6" xr:uid="{BD6E4DFE-9AEC-4E78-ACBD-704B29A0E102}"/>
     <hyperlink ref="O5" r:id="rId7" xr:uid="{057A103F-4963-44C2-8634-7C0AF3F6B641}"/>
-    <hyperlink ref="D5" r:id="rId8" display="mailto:Rockets.ucdavis@gmail.com" xr:uid="{535A74EF-251A-44A7-8D5B-4C066FC93622}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{535A74EF-251A-44A7-8D5B-4C066FC93622}"/>
     <hyperlink ref="O3" r:id="rId9" xr:uid="{0922966D-E007-4B25-A954-7BE3B5D5B14A}"/>
     <hyperlink ref="S3" r:id="rId10" xr:uid="{E5B70060-5576-4E95-86C8-47DA1AA6F3CD}"/>
     <hyperlink ref="O2" r:id="rId11" xr:uid="{31D66E5F-0E40-4D3A-B189-F41D50A431C0}"/>
@@ -1811,13 +2092,13 @@
     <hyperlink ref="G2" r:id="rId15" xr:uid="{99106F89-ECDC-4444-A4DA-C8146000A421}"/>
     <hyperlink ref="D3" r:id="rId16" xr:uid="{BE8D79D0-F938-4AC6-AA17-85EE7BF038DC}"/>
     <hyperlink ref="D2" r:id="rId17" display="mailto:info@seb.berkeley.edu" xr:uid="{6C4F6428-292E-4A76-B676-9C059151E98C}"/>
-    <hyperlink ref="D6" r:id="rId18" display="mailto:ucirocketprojectteam@gmail.com" xr:uid="{94B09FDE-0C9E-418D-A442-213D46301151}"/>
-    <hyperlink ref="D7" r:id="rId19" display="mailto:rocketproject@ucla.edu" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
+    <hyperlink ref="D6" r:id="rId18" xr:uid="{94B09FDE-0C9E-418D-A442-213D46301151}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
     <hyperlink ref="D8" r:id="rId20" display="mailto:aiaa@ucmerced.edu" xr:uid="{B9122146-4EB9-4993-B247-89323CDDBE8F}"/>
-    <hyperlink ref="D9" r:id="rId21" display="mailto:highlanderspaceprogram@gmail.com" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
+    <hyperlink ref="D9" r:id="rId21" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
     <hyperlink ref="D11" r:id="rId22" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
-    <hyperlink ref="D12" r:id="rId23" display="mailto:Seds.ucsd@gmail.com" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
-    <hyperlink ref="D13" r:id="rId24" display="mailto:rocket@ucsd.edu" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
+    <hyperlink ref="D12" r:id="rId23" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
     <hyperlink ref="K11" r:id="rId25" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
     <hyperlink ref="K6" r:id="rId26" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
     <hyperlink ref="S6" r:id="rId27" display="m.walter@uci.edu, " xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
@@ -1835,7 +2116,7 @@
     <hyperlink ref="S7" r:id="rId39" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
     <hyperlink ref="O9" r:id="rId40" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
     <hyperlink ref="S9" r:id="rId41" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
-    <hyperlink ref="K7" r:id="rId42" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
+    <hyperlink ref="K7" r:id="rId42" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
     <hyperlink ref="E2" r:id="rId43" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
     <hyperlink ref="E3" r:id="rId44" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
     <hyperlink ref="E4" r:id="rId45" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
@@ -1847,10 +2128,1170 @@
     <hyperlink ref="E11" r:id="rId51" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
     <hyperlink ref="E12" r:id="rId52" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
     <hyperlink ref="E13" r:id="rId53" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
+    <hyperlink ref="O8" r:id="rId54" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
+    <hyperlink ref="W8" r:id="rId55" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId54"/>
+    <tablePart r:id="rId56"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="20">
+        <v>80</v>
+      </c>
+      <c r="C8" s="20">
+        <v>30</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
+        <v>40</v>
+      </c>
+      <c r="G8" s="20">
+        <v>150</v>
+      </c>
+      <c r="H8" s="20">
+        <v>15</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <v>60</v>
+      </c>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="20">
+        <v>2</v>
+      </c>
+      <c r="C26" s="20">
+        <v>2</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20">
+        <v>2</v>
+      </c>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20">
+        <v>3</v>
+      </c>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" s="20">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20">
+        <v>1</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20">
+        <v>0</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="20">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20">
+        <v>3</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="20">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20">
+        <v>0</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20">
+        <v>0</v>
+      </c>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="20">
+        <v>2</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20">
+        <v>2</v>
+      </c>
+      <c r="H30" s="20">
+        <v>0</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20">
+        <v>3</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="20">
+        <v>2</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20">
+        <v>2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>0</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20">
+        <v>3</v>
+      </c>
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="20">
+        <v>0</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20">
+        <v>0</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20">
+        <v>0</v>
+      </c>
+      <c r="K32" s="20"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="K33" s="20"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" s="20"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K37" s="20"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="20">
+        <v>4</v>
+      </c>
+      <c r="C38" s="20">
+        <v>4</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20">
+        <v>4</v>
+      </c>
+      <c r="G38" s="20">
+        <v>4</v>
+      </c>
+      <c r="H38" s="20">
+        <v>4</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="20">
+        <v>4</v>
+      </c>
+      <c r="C39" s="20">
+        <v>4</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20">
+        <v>4</v>
+      </c>
+      <c r="G39" s="20">
+        <v>4</v>
+      </c>
+      <c r="H39" s="20">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="20">
+        <v>0</v>
+      </c>
+      <c r="C40" s="20">
+        <v>0</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="20">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{E17D1620-FCEF-447A-8535-02976B5016E6}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{61E40C38-615E-4981-9ED0-E9C14928FD3F}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{8BE6E030-73D5-415D-87EF-AD47B79991B7}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C953C00D-86A1-4D3D-95D5-68715AB52EAB}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{E5D4F5FC-CCD5-4FCC-8DD0-F02477E58CD8}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{C3D4706E-A302-4E0A-B5C7-83B5B4F5FD16}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{EA6937E3-3703-4B61-8357-CE9ECA924A73}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{08E56596-3E4F-42D3-88E8-4EE2BEA14CA6}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{6E7627F9-FC05-4F44-BBC8-73073562D9CD}"/>
+    <hyperlink ref="E5" r:id="rId10" xr:uid="{3C749E12-DF6E-4371-B45B-21E1B8A7BCA7}"/>
+    <hyperlink ref="D4" r:id="rId11" xr:uid="{4B5678E8-7C3C-44FC-B9FB-1E074FEB6AFD}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{B8335E59-BA55-499A-8D65-8AD71377238A}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{A649114B-92F5-4C5A-9C9A-E931516097A2}"/>
+    <hyperlink ref="I4" r:id="rId14" xr:uid="{1E731822-5132-4919-B64C-0E8CB2DF8DDD}"/>
+    <hyperlink ref="I5" r:id="rId15" xr:uid="{4BD48FC1-1D2A-4300-8A6F-C8B628AC5C86}"/>
+    <hyperlink ref="J5" r:id="rId16" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
+    <hyperlink ref="K5" r:id="rId17" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
+    <hyperlink ref="K4" r:id="rId18" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A23A70-03F2-4321-8065-0EB9AD32109D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269E374-4577-4958-837C-54262C16503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="11985" yWindow="2205" windowWidth="36555" windowHeight="14925" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="233">
   <si>
     <t>Name</t>
   </si>
@@ -489,9 +489,6 @@
     <t>3rd Party Training</t>
   </si>
   <si>
-    <t>Leadership Safety Training</t>
-  </si>
-  <si>
     <t># of Active Rockets</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
     <t>EUREKA, LAD, VLAD, CAP FILL, E-REG</t>
   </si>
   <si>
-    <t>Propane, Solid</t>
-  </si>
-  <si>
     <t>Short Name</t>
   </si>
   <si>
@@ -672,18 +666,9 @@
     <t>Liquid Rocket to 30,000 ft</t>
   </si>
   <si>
-    <t xml:space="preserve"> RISE, Prometheus, Ares</t>
-  </si>
-  <si>
-    <t>Eng IV 14-118 Lab</t>
-  </si>
-  <si>
     <t>Machine Shop</t>
   </si>
   <si>
-    <t>UCLA Mojave Testing Facility</t>
-  </si>
-  <si>
     <t>Airstream Trailer</t>
   </si>
   <si>
@@ -705,13 +690,52 @@
     <t>NASA Safety Training</t>
   </si>
   <si>
-    <t>LOX, Methane</t>
-  </si>
-  <si>
     <t>Trailer Mounted Static Test Fire</t>
   </si>
   <si>
     <t>LNG</t>
+  </si>
+  <si>
+    <t>Mentorship System</t>
+  </si>
+  <si>
+    <t>Eng IV 14-118 Lab (Capstone), Makerspace</t>
+  </si>
+  <si>
+    <t>RISE, Prometheus, Ares</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Makerspace</t>
+  </si>
+  <si>
+    <t>Pheonix, Hermes, Osiris, Daedulus, NMP</t>
+  </si>
+  <si>
+    <t>Black powder</t>
+  </si>
+  <si>
+    <t>LOX, LNG, Sugar</t>
+  </si>
+  <si>
+    <t>Competitions - FAR DPF, Spaceport America</t>
+  </si>
+  <si>
+    <t>Mojave Test Facility (UCLA Licence Agreement)</t>
+  </si>
+  <si>
+    <t>LOX, Propane, Solid</t>
+  </si>
+  <si>
+    <t>LOX, Ethanol, Solid</t>
+  </si>
+  <si>
+    <t>LOX, Ethanol, N2O</t>
+  </si>
+  <si>
+    <t>LOX,LNG, LOX, LNG, LOX, LNG</t>
   </si>
 </sst>
 </file>
@@ -1364,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1548,7 @@
         <v>45194</v>
       </c>
       <c r="Q2" s="3">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="R2" s="4" t="s">
         <v>24</v>
@@ -1589,7 +1613,7 @@
         <v>45194</v>
       </c>
       <c r="Q3" s="13">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>24</v>
@@ -1782,10 +1806,10 @@
         <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L7" s="18">
         <v>45189</v>
@@ -1801,6 +1825,9 @@
       </c>
       <c r="T7" s="18">
         <v>45195</v>
+      </c>
+      <c r="U7" s="18">
+        <v>45196</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -1838,16 +1865,19 @@
         <v>77</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P8" s="18">
         <v>45195</v>
       </c>
+      <c r="Q8" s="18">
+        <v>45201</v>
+      </c>
       <c r="V8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="W8" s="17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X8" s="18">
         <v>45195</v>
@@ -1931,6 +1961,9 @@
       <c r="L10" s="18">
         <v>45191</v>
       </c>
+      <c r="M10" s="18">
+        <v>45191</v>
+      </c>
       <c r="N10" t="s">
         <v>93</v>
       </c>
@@ -1939,6 +1972,9 @@
       </c>
       <c r="P10" s="18">
         <v>45187</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>45191</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -1976,7 +2012,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -2142,8 +2178,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,12 +2197,12 @@
     <col min="8" max="8" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>40</v>
@@ -2201,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>133</v>
@@ -2213,19 +2252,19 @@
         <v>51</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>109</v>
@@ -2268,7 +2307,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>121</v>
@@ -2303,10 +2342,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>26</v>
@@ -2324,7 +2363,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>80</v>
@@ -2355,7 +2394,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>81</v>
@@ -2364,47 +2403,47 @@
         <v>103</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B8" s="20">
         <v>80</v>
@@ -2427,456 +2466,492 @@
       <c r="J8" s="20">
         <v>60</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="20">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>179</v>
-      </c>
       <c r="C9" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="K10" s="20"/>
+        <v>215</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>138</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="20"/>
+        <v>209</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>139</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>140</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="K14" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="K15" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>142</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="K16" s="20"/>
+        <v>217</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>173</v>
-      </c>
       <c r="H17" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K17" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>144</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>173</v>
-      </c>
       <c r="H18" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>145</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>173</v>
       </c>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="K19" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>146</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>147</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I21" s="20"/>
       <c r="J21" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>148</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K22" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" s="20"/>
       <c r="J23" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K23" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>149</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I24" s="20"/>
       <c r="J24" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="K24" s="20"/>
+        <v>216</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G25" s="20" t="s">
         <v>172</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="20"/>
       <c r="J25" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" s="20"/>
+        <v>172</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" s="20">
         <v>2</v>
@@ -2899,11 +2974,13 @@
       <c r="J26" s="20">
         <v>3</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="20">
         <v>1</v>
@@ -2917,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="20">
         <v>1</v>
@@ -2926,11 +3003,13 @@
       <c r="J27" s="20">
         <v>0</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="20">
         <v>1</v>
@@ -2953,11 +3032,13 @@
       <c r="J28" s="20">
         <v>3</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B29" s="20">
         <v>0</v>
@@ -2980,11 +3061,13 @@
       <c r="J29" s="20">
         <v>0</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B30" s="20">
         <v>2</v>
@@ -3007,11 +3090,13 @@
       <c r="J30" s="20">
         <v>3</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="20">
         <v>2</v>
@@ -3025,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="20">
         <v>0</v>
@@ -3034,11 +3119,13 @@
       <c r="J31" s="20">
         <v>3</v>
       </c>
-      <c r="K31" s="20"/>
+      <c r="K31" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B32" s="20">
         <v>0</v>
@@ -3052,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="20">
         <v>0</v>
@@ -3061,144 +3148,152 @@
       <c r="J32" s="20">
         <v>0</v>
       </c>
-      <c r="K32" s="20"/>
+      <c r="K32" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>182</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="K33" s="20"/>
+        <v>232</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>172</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>172</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I35" s="20"/>
       <c r="J35" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K35" s="20"/>
+        <v>171</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I36" s="20"/>
       <c r="J36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="K36" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="K36" s="20" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>177</v>
-      </c>
       <c r="C37" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I37" s="20"/>
       <c r="J37" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="K37" s="20"/>
+        <v>176</v>
+      </c>
+      <c r="K37" s="20" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B38" s="20">
         <v>4</v>
@@ -3219,11 +3314,13 @@
       </c>
       <c r="I38" s="20"/>
       <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="20">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B39" s="20">
         <v>4</v>
@@ -3237,18 +3334,20 @@
         <v>4</v>
       </c>
       <c r="G39" s="20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H39" s="20">
         <v>0</v>
       </c>
       <c r="I39" s="20"/>
       <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" s="20">
         <v>0</v>
@@ -3262,14 +3361,16 @@
         <v>0</v>
       </c>
       <c r="G40" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="20">
         <v>0</v>
       </c>
       <c r="I40" s="20"/>
       <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="20">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269E374-4577-4958-837C-54262C16503C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEDDFB-6341-43DD-950E-5E536C8DD0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="2205" windowWidth="36555" windowHeight="14925" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="39090" windowHeight="20985" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="242">
   <si>
     <t>Name</t>
   </si>
@@ -736,6 +736,33 @@
   </si>
   <si>
     <t>LOX,LNG, LOX, LNG, LOX, LNG</t>
+  </si>
+  <si>
+    <t>Compete in FAR-OUT</t>
+  </si>
+  <si>
+    <t>Poseidon</t>
+  </si>
+  <si>
+    <t>CE-CERT</t>
+  </si>
+  <si>
+    <t>FLABOB</t>
+  </si>
+  <si>
+    <t>Winston Chung, Machine Shop, Makerspace</t>
+  </si>
+  <si>
+    <t>Solid Motors</t>
+  </si>
+  <si>
+    <t>HalfCat Rocketry</t>
+  </si>
+  <si>
+    <t>N2O, Ethanol</t>
+  </si>
+  <si>
+    <t>N20</t>
   </si>
 </sst>
 </file>
@@ -2179,10 +2206,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +2489,9 @@
       <c r="H8" s="20">
         <v>15</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="20">
+        <v>50</v>
+      </c>
       <c r="J8" s="20">
         <v>60</v>
       </c>
@@ -2491,7 +2520,9 @@
       <c r="H9" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>233</v>
+      </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
         <v>227</v>
@@ -2516,7 +2547,9 @@
         <v>221</v>
       </c>
       <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>234</v>
+      </c>
       <c r="J10" s="20" t="s">
         <v>215</v>
       </c>
@@ -2545,7 +2578,9 @@
       <c r="H11" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
         <v>222</v>
@@ -2572,7 +2607,9 @@
       <c r="H12" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>237</v>
+      </c>
       <c r="J12" s="20" t="s">
         <v>209</v>
       </c>
@@ -2601,7 +2638,9 @@
       <c r="H13" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>235</v>
+      </c>
       <c r="J13" s="20" t="s">
         <v>168</v>
       </c>
@@ -2630,7 +2669,9 @@
       <c r="H14" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="J14" s="20" t="s">
         <v>168</v>
       </c>
@@ -2659,7 +2700,9 @@
       <c r="H15" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>236</v>
+      </c>
       <c r="J15" s="20" t="s">
         <v>168</v>
       </c>
@@ -2688,7 +2731,9 @@
       <c r="H16" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="I16" s="20"/>
+      <c r="I16" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="J16" s="20" t="s">
         <v>217</v>
       </c>
@@ -2717,7 +2762,9 @@
       <c r="H17" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I17" s="20"/>
+      <c r="I17" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="J17" s="20" t="s">
         <v>171</v>
       </c>
@@ -2746,7 +2793,9 @@
       <c r="H18" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20" t="s">
         <v>172</v>
@@ -2773,7 +2822,9 @@
       <c r="H19" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I19" s="20"/>
+      <c r="I19" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20" t="s">
         <v>172</v>
@@ -2798,7 +2849,9 @@
       <c r="H20" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20" t="s">
+        <v>238</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20" t="s">
         <v>225</v>
@@ -2825,7 +2878,9 @@
       <c r="H21" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="J21" s="20" t="s">
         <v>172</v>
       </c>
@@ -2854,7 +2909,9 @@
       <c r="H22" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="J22" s="20" t="s">
         <v>172</v>
       </c>
@@ -2883,7 +2940,9 @@
       <c r="H23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="20" t="s">
+        <v>172</v>
+      </c>
       <c r="J23" s="20" t="s">
         <v>171</v>
       </c>
@@ -2912,7 +2971,9 @@
       <c r="H24" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I24" s="20"/>
+      <c r="I24" s="20" t="s">
+        <v>239</v>
+      </c>
       <c r="J24" s="20" t="s">
         <v>216</v>
       </c>
@@ -2941,7 +3002,9 @@
       <c r="H25" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I25" s="20"/>
+      <c r="I25" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="J25" s="20" t="s">
         <v>172</v>
       </c>
@@ -2970,7 +3033,9 @@
       <c r="H26" s="20">
         <v>1</v>
       </c>
-      <c r="I26" s="20"/>
+      <c r="I26" s="20">
+        <v>1</v>
+      </c>
       <c r="J26" s="20">
         <v>3</v>
       </c>
@@ -2999,7 +3064,9 @@
       <c r="H27" s="20">
         <v>1</v>
       </c>
-      <c r="I27" s="20"/>
+      <c r="I27" s="20">
+        <v>0</v>
+      </c>
       <c r="J27" s="20">
         <v>0</v>
       </c>
@@ -3028,7 +3095,9 @@
       <c r="H28" s="20">
         <v>0</v>
       </c>
-      <c r="I28" s="20"/>
+      <c r="I28" s="20">
+        <v>1</v>
+      </c>
       <c r="J28" s="20">
         <v>3</v>
       </c>
@@ -3057,7 +3126,9 @@
       <c r="H29" s="20">
         <v>0</v>
       </c>
-      <c r="I29" s="20"/>
+      <c r="I29" s="20">
+        <v>0</v>
+      </c>
       <c r="J29" s="20">
         <v>0</v>
       </c>
@@ -3086,7 +3157,9 @@
       <c r="H30" s="20">
         <v>0</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="20">
+        <v>1</v>
+      </c>
       <c r="J30" s="20">
         <v>3</v>
       </c>
@@ -3115,7 +3188,9 @@
       <c r="H31" s="20">
         <v>0</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="20">
+        <v>1</v>
+      </c>
       <c r="J31" s="20">
         <v>3</v>
       </c>
@@ -3144,7 +3219,9 @@
       <c r="H32" s="20">
         <v>0</v>
       </c>
-      <c r="I32" s="20"/>
+      <c r="I32" s="20">
+        <v>0</v>
+      </c>
       <c r="J32" s="20">
         <v>0</v>
       </c>
@@ -3171,7 +3248,9 @@
         <v>231</v>
       </c>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="J33" s="20" t="s">
         <v>232</v>
       </c>
@@ -3198,7 +3277,9 @@
       <c r="H34" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I34" s="20"/>
+      <c r="I34" s="20" t="s">
+        <v>241</v>
+      </c>
       <c r="J34" s="20" t="s">
         <v>171</v>
       </c>
@@ -3225,7 +3306,9 @@
       <c r="H35" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I35" s="20"/>
+      <c r="I35" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="J35" s="20" t="s">
         <v>171</v>
       </c>
@@ -3254,7 +3337,9 @@
       <c r="H36" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="J36" s="20" t="s">
         <v>218</v>
       </c>
@@ -3283,7 +3368,9 @@
       <c r="H37" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="20"/>
+      <c r="I37" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="J37" s="20" t="s">
         <v>176</v>
       </c>
@@ -3312,7 +3399,9 @@
       <c r="H38" s="20">
         <v>4</v>
       </c>
-      <c r="I38" s="20"/>
+      <c r="I38" s="20">
+        <v>2</v>
+      </c>
       <c r="J38" s="20"/>
       <c r="K38" s="20">
         <v>0</v>
@@ -3339,7 +3428,9 @@
       <c r="H39" s="20">
         <v>0</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="20">
+        <v>1</v>
+      </c>
       <c r="J39" s="20"/>
       <c r="K39" s="20">
         <v>1</v>
@@ -3366,7 +3457,9 @@
       <c r="H40" s="20">
         <v>0</v>
       </c>
-      <c r="I40" s="20"/>
+      <c r="I40" s="20">
+        <v>1</v>
+      </c>
       <c r="J40" s="20"/>
       <c r="K40" s="20">
         <v>0</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEDDFB-6341-43DD-950E-5E536C8DD0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCFD25-F234-4B06-B790-7228D57C66B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="39090" windowHeight="20985" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="11355" yWindow="4620" windowWidth="36555" windowHeight="14925" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
   <si>
     <t>Name</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>N20</t>
+  </si>
+  <si>
+    <t>Richard Butcher</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1419,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1723,12 @@
       <c r="E5" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="F5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H5" s="18">
+        <v>45198</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" t="s">
         <v>45</v>
@@ -2206,10 +2214,10 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,9 +2422,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>136</v>
-      </c>
+      <c r="F6" s="20"/>
       <c r="G6" s="20" t="s">
         <v>67</v>
       </c>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FCFD25-F234-4B06-B790-7228D57C66B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A6544-D0F3-4889-AD4D-381938B77BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="4620" windowWidth="36555" windowHeight="14925" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="4455" yWindow="630" windowWidth="44655" windowHeight="18930" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="242">
   <si>
     <t>Name</t>
   </si>
@@ -445,9 +445,6 @@
   </si>
   <si>
     <t>RPUCLA</t>
-  </si>
-  <si>
-    <t>Sky Hargrove</t>
   </si>
   <si>
     <t>P_Contact</t>
@@ -1418,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1471,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>5</v>
@@ -1724,7 +1721,7 @@
         <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H5" s="18">
         <v>45198</v>
@@ -1777,13 +1774,12 @@
       <c r="E6" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F6" t="s">
-        <v>136</v>
-      </c>
       <c r="H6" s="18">
         <v>45176</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>45211</v>
+      </c>
       <c r="J6" t="s">
         <v>58</v>
       </c>
@@ -1816,6 +1812,9 @@
       </c>
       <c r="T6" s="18">
         <v>45169</v>
+      </c>
+      <c r="U6" s="18">
+        <v>45211</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1840,11 +1839,14 @@
       <c r="G7" s="17" t="s">
         <v>68</v>
       </c>
+      <c r="H7" s="18">
+        <v>45202</v>
+      </c>
       <c r="J7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="17" t="s">
         <v>189</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>190</v>
       </c>
       <c r="L7" s="18">
         <v>45189</v>
@@ -1900,7 +1902,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P8" s="18">
         <v>45195</v>
@@ -1909,10 +1911,10 @@
         <v>45201</v>
       </c>
       <c r="V8" t="s">
+        <v>197</v>
+      </c>
+      <c r="W8" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="X8" s="18">
         <v>45195</v>
@@ -2047,7 +2049,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -2136,6 +2138,18 @@
         <v>45180</v>
       </c>
       <c r="M13" s="18">
+        <v>45182</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" s="18">
+        <v>45180</v>
+      </c>
+      <c r="Q13" s="18">
         <v>45182</v>
       </c>
     </row>
@@ -2201,10 +2215,11 @@
     <hyperlink ref="E13" r:id="rId53" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
     <hyperlink ref="O8" r:id="rId54" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
     <hyperlink ref="W8" r:id="rId55" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
+    <hyperlink ref="O13" r:id="rId56" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId57"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2213,7 +2228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2237,7 +2252,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>40</v>
@@ -2275,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>133</v>
@@ -2287,19 +2302,19 @@
         <v>51</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>109</v>
@@ -2342,7 +2357,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>121</v>
@@ -2377,10 +2392,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>26</v>
@@ -2398,7 +2413,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>80</v>
@@ -2427,7 +2442,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I6" s="20" t="s">
         <v>81</v>
@@ -2436,47 +2451,47 @@
         <v>103</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B8" s="20">
         <v>80</v>
@@ -2507,520 +2522,520 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>178</v>
-      </c>
       <c r="C9" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K15" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="H17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="H18" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I18" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="I19" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>172</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K21" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K22" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="J23" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="G25" s="20" t="s">
-        <v>172</v>
-      </c>
       <c r="H25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="K25" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="20">
         <v>2</v>
@@ -3051,7 +3066,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="20">
         <v>1</v>
@@ -3082,7 +3097,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="20">
         <v>1</v>
@@ -3113,7 +3128,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="20">
         <v>0</v>
@@ -3144,7 +3159,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B30" s="20">
         <v>2</v>
@@ -3175,7 +3190,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B31" s="20">
         <v>2</v>
@@ -3206,7 +3221,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="20">
         <v>0</v>
@@ -3237,156 +3252,156 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>181</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H33" s="20"/>
       <c r="I33" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J33" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>171</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="20" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G35" s="20"/>
       <c r="H35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>229</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>230</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J36" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>176</v>
-      </c>
       <c r="C37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B38" s="20">
         <v>4</v>
@@ -3415,7 +3430,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B39" s="20">
         <v>4</v>
@@ -3444,7 +3459,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B40" s="20">
         <v>0</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A6544-D0F3-4889-AD4D-381938B77BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972C41B-7631-4F25-B7DD-DFF00AA5369F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="630" windowWidth="44655" windowHeight="18930" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="4455" yWindow="630" windowWidth="17910" windowHeight="18930" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -1415,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -2228,11 +2228,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9972C41B-7631-4F25-B7DD-DFF00AA5369F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB9A65C-2053-4FEC-B402-C0C22CBD697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="630" windowWidth="17910" windowHeight="18930" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="8160" yWindow="2595" windowWidth="37425" windowHeight="14925" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="245">
   <si>
     <t>Name</t>
   </si>
@@ -763,6 +763,15 @@
   </si>
   <si>
     <t>Richard Butcher</t>
+  </si>
+  <si>
+    <t>John Mitchell (RFS)</t>
+  </si>
+  <si>
+    <t>jmitchell@berkeley.edu</t>
+  </si>
+  <si>
+    <t>bishop@ucsb.edu</t>
   </si>
 </sst>
 </file>
@@ -958,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -967,7 +976,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -992,6 +1000,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1415,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,90 +1453,90 @@
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1585,75 +1595,83 @@
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="6"/>
+      <c r="V2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="X2" s="3">
+        <v>45202</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>45215</v>
+      </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>45166</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="12">
         <v>45175</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>45180</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>45194</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="12">
         <v>45194</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="12">
         <v>45197</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="15"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="14"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1665,42 +1683,42 @@
       <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
       <c r="J4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>45175</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>45187</v>
       </c>
       <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <v>45187</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>45188</v>
       </c>
       <c r="V4" t="s">
         <v>49</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1714,47 +1732,47 @@
       <c r="C5" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>124</v>
       </c>
       <c r="F5" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>45198</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="17"/>
       <c r="J5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="18">
+      <c r="L5" s="17">
         <v>45175</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>45187</v>
       </c>
       <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <v>45187</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="17">
         <v>45188</v>
       </c>
       <c r="V5" t="s">
         <v>49</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1768,52 +1786,52 @@
       <c r="C6" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>45176</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>45211</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <v>45163</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>45166</v>
       </c>
       <c r="N6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <v>45184</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <v>45187</v>
       </c>
       <c r="R6" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="17" t="s">
+      <c r="S6" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="17">
         <v>45169</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="17">
         <v>45211</v>
       </c>
     </row>
@@ -1827,43 +1845,46 @@
       <c r="C7" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>126</v>
       </c>
       <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>45202</v>
+      </c>
+      <c r="I7" s="17">
+        <v>45205</v>
       </c>
       <c r="J7" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="17">
         <v>45189</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="17">
         <v>45191</v>
       </c>
       <c r="R7" t="s">
         <v>69</v>
       </c>
-      <c r="S7" s="17" t="s">
+      <c r="S7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="17">
         <v>45195</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="17">
         <v>45196</v>
       </c>
     </row>
@@ -1880,19 +1901,19 @@
       <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>127</v>
       </c>
       <c r="F8" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>45163</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>45169</v>
       </c>
       <c r="J8" t="s">
@@ -1901,25 +1922,25 @@
       <c r="N8" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <v>45195</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <v>45201</v>
       </c>
       <c r="V8" t="s">
         <v>197</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="17">
         <v>45195</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="17">
         <v>45201</v>
       </c>
     </row>
@@ -1933,49 +1954,49 @@
       <c r="C9" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="16" t="s">
         <v>128</v>
       </c>
       <c r="F9" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>45191</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="17">
         <v>45198</v>
       </c>
       <c r="J9" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="17">
         <v>45188</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>45191</v>
       </c>
       <c r="N9" t="s">
         <v>85</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <v>45191</v>
       </c>
       <c r="R9" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="16" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1995,22 +2016,25 @@
       <c r="J10" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="18">
+      <c r="K10" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="17">
         <v>45191</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>45191</v>
       </c>
       <c r="N10" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <v>45187</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <v>45191</v>
       </c>
     </row>
@@ -2027,23 +2051,23 @@
       <c r="D11" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>129</v>
       </c>
       <c r="J11" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>45169</v>
       </c>
-      <c r="M11" s="17"/>
+      <c r="M11" s="16"/>
       <c r="R11" t="s">
         <v>100</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="17">
         <v>45187</v>
       </c>
     </row>
@@ -2057,46 +2081,46 @@
       <c r="C12" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>130</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>45187</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <v>45190</v>
       </c>
       <c r="J12" t="s">
         <v>105</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>45180</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>45182</v>
       </c>
       <c r="N12" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <v>45180</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="17">
         <v>45182</v>
       </c>
     </row>
@@ -2110,46 +2134,46 @@
       <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>45187</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>45196</v>
       </c>
       <c r="J13" t="s">
         <v>113</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="17">
         <v>45180</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <v>45182</v>
       </c>
       <c r="N13" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="17">
         <v>45180</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="17">
         <v>45182</v>
       </c>
     </row>
@@ -2216,10 +2240,12 @@
     <hyperlink ref="O8" r:id="rId54" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
     <hyperlink ref="W8" r:id="rId55" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
     <hyperlink ref="O13" r:id="rId56" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
+    <hyperlink ref="W2" r:id="rId57" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
+    <hyperlink ref="K10" r:id="rId58" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId57"/>
+    <tablePart r:id="rId59"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2228,8 +2254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
@@ -2254,34 +2280,34 @@
       <c r="A1" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2289,34 +2315,34 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="K2" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2324,34 +2350,34 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2359,34 +2385,34 @@
       <c r="A4" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2394,34 +2420,34 @@
       <c r="A5" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="20" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2429,28 +2455,28 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2458,34 +2484,34 @@
       <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2493,30 +2519,30 @@
       <c r="A8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="19">
         <v>80</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>30</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20">
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19">
         <v>40</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>150</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>15</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>50</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="19">
         <v>60</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="19">
         <v>160</v>
       </c>
     </row>
@@ -2524,28 +2550,28 @@
       <c r="A9" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="19"/>
+      <c r="K9" s="19" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2553,28 +2579,28 @@
       <c r="A10" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2582,28 +2608,28 @@
       <c r="A11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="J11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2611,30 +2637,30 @@
       <c r="A12" t="s">
         <v>163</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2642,30 +2668,30 @@
       <c r="A13" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2673,30 +2699,30 @@
       <c r="A14" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2704,30 +2730,30 @@
       <c r="A15" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2735,30 +2761,30 @@
       <c r="A16" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20" t="s">
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2766,30 +2792,30 @@
       <c r="A17" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="B17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K17" s="20" t="s">
+      <c r="H17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2797,28 +2823,28 @@
       <c r="A18" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="20" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20" t="s">
+      <c r="I18" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2826,28 +2852,28 @@
       <c r="A19" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="20" t="s">
+      <c r="B19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20" t="s">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2855,26 +2881,26 @@
       <c r="A20" t="s">
         <v>145</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20" t="s">
+      <c r="C20" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="20" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20" t="s">
+      <c r="J20" s="19"/>
+      <c r="K20" s="19" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2882,30 +2908,30 @@
       <c r="A21" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2913,30 +2939,30 @@
       <c r="A22" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2944,30 +2970,30 @@
       <c r="A23" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I23" s="20" t="s">
+      <c r="H23" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="20" t="s">
+      <c r="J23" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2975,30 +3001,30 @@
       <c r="A24" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="20" t="s">
+      <c r="B24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3006,30 +3032,30 @@
       <c r="A25" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="20" t="s">
+      <c r="B25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="20" t="s">
+      <c r="H25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J25" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3037,30 +3063,30 @@
       <c r="A26" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>2</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>2</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19">
         <v>2</v>
       </c>
-      <c r="G26" s="20">
+      <c r="G26" s="19">
         <v>2</v>
       </c>
-      <c r="H26" s="20">
+      <c r="H26" s="19">
         <v>1</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="19">
         <v>1</v>
       </c>
-      <c r="J26" s="20">
+      <c r="J26" s="19">
         <v>3</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3068,30 +3094,30 @@
       <c r="A27" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="19">
         <v>1</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <v>1</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19">
         <v>1</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <v>0</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <v>1</v>
       </c>
-      <c r="I27" s="20">
+      <c r="I27" s="19">
         <v>0</v>
       </c>
-      <c r="J27" s="20">
+      <c r="J27" s="19">
         <v>0</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3099,30 +3125,30 @@
       <c r="A28" t="s">
         <v>151</v>
       </c>
-      <c r="B28" s="20">
+      <c r="B28" s="19">
         <v>1</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="19">
         <v>1</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20">
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19">
         <v>1</v>
       </c>
-      <c r="G28" s="20">
+      <c r="G28" s="19">
         <v>1</v>
       </c>
-      <c r="H28" s="20">
+      <c r="H28" s="19">
         <v>0</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="19">
         <v>1</v>
       </c>
-      <c r="J28" s="20">
+      <c r="J28" s="19">
         <v>3</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3130,30 +3156,30 @@
       <c r="A29" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>0</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="19">
         <v>0</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19">
         <v>0</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G29" s="19">
         <v>1</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29" s="19">
         <v>0</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="19">
         <v>0</v>
       </c>
-      <c r="J29" s="20">
+      <c r="J29" s="19">
         <v>0</v>
       </c>
-      <c r="K29" s="20">
+      <c r="K29" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3161,30 +3187,30 @@
       <c r="A30" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="20">
+      <c r="B30" s="19">
         <v>2</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="19">
         <v>1</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20">
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19">
         <v>1</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="19">
         <v>2</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="19">
         <v>0</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="19">
         <v>1</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="19">
         <v>3</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="19">
         <v>2</v>
       </c>
     </row>
@@ -3192,30 +3218,30 @@
       <c r="A31" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="19">
         <v>2</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="19">
         <v>1</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19">
         <v>1</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="19">
         <v>1</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H31" s="19">
         <v>0</v>
       </c>
-      <c r="I31" s="20">
+      <c r="I31" s="19">
         <v>1</v>
       </c>
-      <c r="J31" s="20">
+      <c r="J31" s="19">
         <v>3</v>
       </c>
-      <c r="K31" s="20">
+      <c r="K31" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3223,30 +3249,30 @@
       <c r="A32" t="s">
         <v>152</v>
       </c>
-      <c r="B32" s="20">
+      <c r="B32" s="19">
         <v>0</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="19">
         <v>0</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20">
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19">
         <v>0</v>
       </c>
-      <c r="G32" s="20">
+      <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="H32" s="20">
+      <c r="H32" s="19">
         <v>0</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="19">
         <v>0</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="19">
         <v>0</v>
       </c>
-      <c r="K32" s="20">
+      <c r="K32" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3254,28 +3280,28 @@
       <c r="A33" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20" t="s">
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20" t="s">
+      <c r="H33" s="19"/>
+      <c r="I33" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="J33" s="20" t="s">
+      <c r="J33" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="20" t="s">
+      <c r="K33" s="19" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3283,28 +3309,28 @@
       <c r="A34" t="s">
         <v>154</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="20" t="s">
+      <c r="B34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="J34" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K34" s="20" t="s">
+      <c r="J34" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K34" s="19" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3312,28 +3338,28 @@
       <c r="A35" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="K35" s="20" t="s">
+      <c r="B35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" s="19" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3341,30 +3367,30 @@
       <c r="A36" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20" t="s">
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="J36" s="20" t="s">
+      <c r="J36" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="K36" s="20" t="s">
+      <c r="K36" s="19" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3372,30 +3398,30 @@
       <c r="A37" t="s">
         <v>174</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20" t="s">
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="I37" s="20" t="s">
+      <c r="I37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="J37" s="20" t="s">
+      <c r="J37" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K37" s="20" t="s">
+      <c r="K37" s="19" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3403,28 +3429,28 @@
       <c r="A38" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="20">
+      <c r="B38" s="19">
         <v>4</v>
       </c>
-      <c r="C38" s="20">
+      <c r="C38" s="19">
         <v>4</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19">
         <v>4</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="19">
         <v>4</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="19">
         <v>4</v>
       </c>
-      <c r="I38" s="20">
+      <c r="I38" s="19">
         <v>2</v>
       </c>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3432,28 +3458,28 @@
       <c r="A39" t="s">
         <v>165</v>
       </c>
-      <c r="B39" s="20">
+      <c r="B39" s="19">
         <v>4</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="19">
         <v>4</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19">
         <v>4</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G39" s="19">
         <v>8</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="19">
         <v>0</v>
       </c>
-      <c r="I39" s="20">
+      <c r="I39" s="19">
         <v>1</v>
       </c>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20">
+      <c r="J39" s="19"/>
+      <c r="K39" s="19">
         <v>1</v>
       </c>
     </row>
@@ -3461,28 +3487,28 @@
       <c r="A40" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="20">
+      <c r="B40" s="19">
         <v>0</v>
       </c>
-      <c r="C40" s="20">
+      <c r="C40" s="19">
         <v>0</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19">
         <v>0</v>
       </c>
-      <c r="G40" s="20">
+      <c r="G40" s="19">
         <v>1</v>
       </c>
-      <c r="H40" s="20">
+      <c r="H40" s="19">
         <v>0</v>
       </c>
-      <c r="I40" s="20">
+      <c r="I40" s="19">
         <v>1</v>
       </c>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20">
+      <c r="J40" s="19"/>
+      <c r="K40" s="19">
         <v>0</v>
       </c>
     </row>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB9A65C-2053-4FEC-B402-C0C22CBD697A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9CF77-F0E1-4201-B54B-A037EAB7DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="2595" windowWidth="37425" windowHeight="14925" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="810" yWindow="795" windowWidth="45555" windowHeight="18930" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="247">
   <si>
     <t>Name</t>
   </si>
@@ -772,6 +772,12 @@
   </si>
   <si>
     <t>bishop@ucsb.edu</t>
+  </si>
+  <si>
+    <t>YangQuan Chen</t>
+  </si>
+  <si>
+    <t>In Flammables Cabinet</t>
   </si>
 </sst>
 </file>
@@ -1425,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1867,7 @@
         <v>45202</v>
       </c>
       <c r="I7" s="17">
-        <v>45205</v>
+        <v>45204</v>
       </c>
       <c r="J7" t="s">
         <v>188</v>
@@ -1930,6 +1936,15 @@
       </c>
       <c r="Q8" s="17">
         <v>45201</v>
+      </c>
+      <c r="R8" t="s">
+        <v>245</v>
+      </c>
+      <c r="T8" s="17">
+        <v>45203</v>
+      </c>
+      <c r="U8" s="17">
+        <v>45203</v>
       </c>
       <c r="V8" t="s">
         <v>197</v>
@@ -2254,11 +2269,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,7 +2907,9 @@
       <c r="F20" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="21"/>
+      <c r="G20" s="21" t="s">
+        <v>246</v>
+      </c>
       <c r="H20" s="19" t="s">
         <v>204</v>
       </c>
@@ -3320,7 +3337,9 @@
       <c r="F34" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="H34" s="19" t="s">
         <v>170</v>
       </c>
@@ -3349,7 +3368,9 @@
       <c r="F35" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19" t="s">
+        <v>171</v>
+      </c>
       <c r="H35" s="19" t="s">
         <v>170</v>
       </c>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC9CF77-F0E1-4201-B54B-A037EAB7DFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682735E7-CB9F-43DD-8B5A-8BF88034703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="795" windowWidth="45555" windowHeight="18930" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="256">
   <si>
     <t>Name</t>
   </si>
@@ -450,57 +450,18 @@
     <t>P_Contact</t>
   </si>
   <si>
-    <t>Dedicated Workspaces on Campus</t>
-  </si>
-  <si>
-    <t>Workspaces on UC Property</t>
-  </si>
-  <si>
-    <t>Shared Workspaces on UC Property</t>
-  </si>
-  <si>
-    <t>Workspaces on 3rd Party</t>
-  </si>
-  <si>
     <t>Group Vehicles</t>
   </si>
   <si>
-    <t>Machine/Metalwork in Workspace</t>
-  </si>
-  <si>
-    <t>Fiberglass/resin in Workspace</t>
-  </si>
-  <si>
-    <t>Soldering in Workspace</t>
-  </si>
-  <si>
-    <t>Hazardous Materials in Workspace</t>
-  </si>
-  <si>
-    <t>Assembly in Workspace</t>
-  </si>
-  <si>
-    <t>New Member Safety Training Program</t>
-  </si>
-  <si>
     <t>3rd Party Training</t>
   </si>
   <si>
-    <t># of Active Rockets</t>
-  </si>
-  <si>
-    <t>Solid Propellant</t>
-  </si>
-  <si>
     <t>Bipropellant</t>
   </si>
   <si>
     <t>Hybrid Propellant</t>
   </si>
   <si>
-    <t># of Active Engines</t>
-  </si>
-  <si>
     <t>Fuel Storage On Campus</t>
   </si>
   <si>
@@ -528,18 +489,12 @@
     <t>RSO/DSO/Dept</t>
   </si>
   <si>
-    <t>Use of Existing Campus Facilities</t>
-  </si>
-  <si>
     <t>Estimated # of Launches/Yr</t>
   </si>
   <si>
     <t>Estimated # of Static Fires/Yr</t>
   </si>
   <si>
-    <t>Estimated # of Competition Events/Yr</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -576,15 +531,6 @@
     <t>Projects</t>
   </si>
   <si>
-    <t>Fuel</t>
-  </si>
-  <si>
-    <t>LOX, Propane</t>
-  </si>
-  <si>
-    <t>EUREKA, LAD, VLAD, CAP FILL, E-REG</t>
-  </si>
-  <si>
     <t>Short Name</t>
   </si>
   <si>
@@ -621,9 +567,6 @@
     <t>40ft Airstream Trailer</t>
   </si>
   <si>
-    <t>LOX, LNG, He (Pressurant)</t>
-  </si>
-  <si>
     <t>Fuel at Launch</t>
   </si>
   <si>
@@ -651,9 +594,6 @@
     <t>Castle (MESA Lab/SAE)</t>
   </si>
   <si>
-    <t>Black Powder, Solid Motors</t>
-  </si>
-  <si>
     <t>Solid</t>
   </si>
   <si>
@@ -669,9 +609,6 @@
     <t>Airstream Trailer</t>
   </si>
   <si>
-    <t>LOX, Ethanol</t>
-  </si>
-  <si>
     <t>Students for the Exploration and Development of Space</t>
   </si>
   <si>
@@ -687,36 +624,18 @@
     <t>NASA Safety Training</t>
   </si>
   <si>
-    <t>Trailer Mounted Static Test Fire</t>
-  </si>
-  <si>
     <t>LNG</t>
   </si>
   <si>
-    <t>Mentorship System</t>
-  </si>
-  <si>
-    <t>Eng IV 14-118 Lab (Capstone), Makerspace</t>
-  </si>
-  <si>
     <t>RISE, Prometheus, Ares</t>
   </si>
   <si>
-    <t>Franklin</t>
-  </si>
-  <si>
     <t>Makerspace</t>
   </si>
   <si>
     <t>Pheonix, Hermes, Osiris, Daedulus, NMP</t>
   </si>
   <si>
-    <t>Black powder</t>
-  </si>
-  <si>
-    <t>LOX, LNG, Sugar</t>
-  </si>
-  <si>
     <t>Competitions - FAR DPF, Spaceport America</t>
   </si>
   <si>
@@ -732,9 +651,6 @@
     <t>LOX, Ethanol, N2O</t>
   </si>
   <si>
-    <t>LOX,LNG, LOX, LNG, LOX, LNG</t>
-  </si>
-  <si>
     <t>Compete in FAR-OUT</t>
   </si>
   <si>
@@ -777,7 +693,118 @@
     <t>YangQuan Chen</t>
   </si>
   <si>
-    <t>In Flammables Cabinet</t>
+    <t>Eng IV 14-118 Lab (Capstone)</t>
+  </si>
+  <si>
+    <t>Sole Occupant workspace on Campus</t>
+  </si>
+  <si>
+    <t>Shared Assigned workspace on Campus</t>
+  </si>
+  <si>
+    <t>Utilize Existing Campus Facilities</t>
+  </si>
+  <si>
+    <t>Sole Occupant Workspaces at other UC property</t>
+  </si>
+  <si>
+    <t>Shared Assigned Workspaces on UC Property</t>
+  </si>
+  <si>
+    <t>Any Workspaces on 3rd Party</t>
+  </si>
+  <si>
+    <t>Soldering in Assigned Workspaces</t>
+  </si>
+  <si>
+    <t>Fiberglass/resin Layout in Assigned Workspaces</t>
+  </si>
+  <si>
+    <t>Machine Work (cutting, drilling, grinding, sanding, welding) in Assigned Workspaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assembly (Hand tools) in Assigned Workspaces </t>
+  </si>
+  <si>
+    <t>3D Printing in Assigned Workspaces</t>
+  </si>
+  <si>
+    <t>Hazardous Material Storage in Assigned Workspaces</t>
+  </si>
+  <si>
+    <t>Flammables Cabinet</t>
+  </si>
+  <si>
+    <t>Solid Motors/Fuel Grains</t>
+  </si>
+  <si>
+    <t>New Member Safety Onboarding</t>
+  </si>
+  <si>
+    <t>Quarter/Year Mentorship System</t>
+  </si>
+  <si>
+    <t># of Active Rockets to Launch</t>
+  </si>
+  <si>
+    <t># of Active Engines in Dev (static)</t>
+  </si>
+  <si>
+    <t>Solid Propellant (single stage)</t>
+  </si>
+  <si>
+    <t>Solid Propellant (multi-stage)</t>
+  </si>
+  <si>
+    <t>EUREKA, LAD, VLAD, TVC</t>
+  </si>
+  <si>
+    <t>Liquid/Hybrid Fuel</t>
+  </si>
+  <si>
+    <t>Oxidizer</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>LOX</t>
+  </si>
+  <si>
+    <t>Ethanol</t>
+  </si>
+  <si>
+    <t>LOX, He (Pressurant)</t>
+  </si>
+  <si>
+    <t>LOX, N2O</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>LNG, Sugar</t>
+  </si>
+  <si>
+    <t>Truck/Trailer Mounted Static Test Fire</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Personal cars</t>
+  </si>
+  <si>
+    <t>Uhaul Rental</t>
+  </si>
+  <si>
+    <t>Travel to National/International Competition</t>
+  </si>
+  <si>
+    <t>FAR-Mars, TVC</t>
+  </si>
+  <si>
+    <t>rjbutcher@ucdavis.edu</t>
   </si>
 </sst>
 </file>
@@ -1431,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,10 +1629,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1745,12 +1772,17 @@
         <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>213</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="H5" s="17">
         <v>45198</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="17">
+        <v>45215</v>
+      </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
@@ -1870,10 +1902,10 @@
         <v>45204</v>
       </c>
       <c r="J7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="L7" s="17">
         <v>45189</v>
@@ -1929,7 +1961,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="P8" s="17">
         <v>45195</v>
@@ -1938,7 +1970,7 @@
         <v>45201</v>
       </c>
       <c r="R8" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="T8" s="17">
         <v>45203</v>
@@ -1947,10 +1979,10 @@
         <v>45203</v>
       </c>
       <c r="V8" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="X8" s="17">
         <v>45195</v>
@@ -2032,7 +2064,7 @@
         <v>92</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="L10" s="17">
         <v>45191</v>
@@ -2088,7 +2120,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -2257,28 +2289,29 @@
     <hyperlink ref="O13" r:id="rId56" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
     <hyperlink ref="W2" r:id="rId57" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
     <hyperlink ref="K10" r:id="rId58" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
+    <hyperlink ref="G5" r:id="rId59" xr:uid="{AC806780-9930-4D5A-90A1-B6776DE010F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId59"/>
+    <tablePart r:id="rId60"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
@@ -2293,7 +2326,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>40</v>
@@ -2331,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>133</v>
@@ -2343,19 +2376,19 @@
         <v>51</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>109</v>
@@ -2398,7 +2431,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B4" s="20" t="s">
         <v>121</v>
@@ -2433,10 +2466,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>26</v>
@@ -2454,7 +2487,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>80</v>
@@ -2483,7 +2516,7 @@
         <v>67</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>81</v>
@@ -2492,47 +2525,47 @@
         <v>103</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B8" s="19">
         <v>80</v>
@@ -2563,646 +2596,617 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="J9" s="19"/>
+        <v>204</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>254</v>
+      </c>
       <c r="K9" s="19" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>181</v>
+        <v>239</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19" t="s">
-        <v>221</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>168</v>
-      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>222</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>221</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>224</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>170</v>
+        <v>249</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>156</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="K18" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="K19" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>246</v>
+        <v>155</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="J20" s="19"/>
+        <v>155</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>156</v>
+      </c>
       <c r="K20" s="19" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>225</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B22" s="19"/>
       <c r="C22" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>171</v>
-      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>171</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>171</v>
+        <v>230</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>170</v>
+        <v>152</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>231</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>170</v>
+        <v>209</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>170</v>
+        <v>158</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>170</v>
-      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>218</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>170</v>
+        <v>232</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>155</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>170</v>
+      <c r="F25" s="19"/>
+      <c r="G25" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="19">
-        <v>2</v>
-      </c>
-      <c r="C26" s="19">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="19">
-        <v>2</v>
-      </c>
-      <c r="G26" s="19">
-        <v>2</v>
-      </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>1</v>
-      </c>
-      <c r="J26" s="19">
-        <v>3</v>
-      </c>
-      <c r="K26" s="19">
-        <v>2</v>
+      <c r="F26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>0</v>
-      </c>
-      <c r="K27" s="19">
-        <v>1</v>
+      <c r="F27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B28" s="19">
-        <v>1</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="19">
-        <v>1</v>
-      </c>
-      <c r="J28" s="19">
-        <v>3</v>
-      </c>
-      <c r="K28" s="19">
-        <v>1</v>
+      <c r="F28" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="19">
-        <v>0</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="19">
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>0</v>
-      </c>
-      <c r="J29" s="19">
-        <v>0</v>
-      </c>
-      <c r="K29" s="19">
-        <v>0</v>
+      <c r="F29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="B30" s="19">
         <v>2</v>
@@ -3213,13 +3217,13 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="19">
         <v>2</v>
       </c>
       <c r="H30" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="19">
         <v>1</v>
@@ -3233,13 +3237,13 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="B31" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3247,16 +3251,16 @@
         <v>1</v>
       </c>
       <c r="G31" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="19">
         <v>0</v>
       </c>
       <c r="I31" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K31" s="19">
         <v>1</v>
@@ -3264,24 +3268,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>238</v>
       </c>
       <c r="B32" s="19">
         <v>0</v>
       </c>
       <c r="C32" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19">
         <v>0</v>
       </c>
-      <c r="G32" s="19">
+      <c r="H32" s="19">
         <v>1</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
@@ -3295,241 +3297,464 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>210</v>
+        <v>139</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J33" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>225</v>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <v>1</v>
+      </c>
+      <c r="J33" s="19">
+        <v>3</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>170</v>
+        <v>140</v>
+      </c>
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19">
+        <v>0</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="J34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>171</v>
+      <c r="F34" s="19">
+        <v>0</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>170</v>
+        <v>236</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="19">
+        <v>1</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>170</v>
+      <c r="F35" s="19">
+        <v>1</v>
+      </c>
+      <c r="G35" s="19">
+        <v>2</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1</v>
+      </c>
+      <c r="J35" s="19">
+        <v>3</v>
+      </c>
+      <c r="K35" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>229</v>
+        <v>139</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="19">
+        <v>1</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J36" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>217</v>
+      <c r="F36" s="19">
+        <v>1</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="I36" s="19">
+        <v>1</v>
+      </c>
+      <c r="J36" s="19">
+        <v>3</v>
+      </c>
+      <c r="K36" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="B37" s="19">
+        <v>0</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>175</v>
+      <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="19">
-        <v>4</v>
-      </c>
-      <c r="C38" s="19">
-        <v>4</v>
+        <v>240</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19">
-        <v>4</v>
-      </c>
-      <c r="G38" s="19">
-        <v>4</v>
-      </c>
-      <c r="H38" s="19">
-        <v>4</v>
-      </c>
-      <c r="I38" s="19">
-        <v>2</v>
-      </c>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19">
-        <v>0</v>
+      <c r="F38" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="19">
-        <v>4</v>
-      </c>
-      <c r="C39" s="19">
-        <v>4</v>
+        <v>241</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>243</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="19">
-        <v>4</v>
-      </c>
-      <c r="G39" s="19">
-        <v>8</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0</v>
-      </c>
-      <c r="I39" s="19">
-        <v>1</v>
-      </c>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19">
-        <v>1</v>
+      <c r="F39" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="K39" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="19">
-        <v>0</v>
-      </c>
-      <c r="C40" s="19">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
-      <c r="F40" s="19">
+      <c r="F40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="19">
+        <v>4</v>
+      </c>
+      <c r="C45" s="19">
+        <v>3</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19">
+        <v>4</v>
+      </c>
+      <c r="G45" s="19">
+        <v>4</v>
+      </c>
+      <c r="H45" s="19">
+        <v>2</v>
+      </c>
+      <c r="I45" s="19">
+        <v>2</v>
+      </c>
+      <c r="J45" s="19">
+        <v>1</v>
+      </c>
+      <c r="K45" s="19">
         <v>0</v>
       </c>
-      <c r="G40" s="19">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="19">
+        <v>4</v>
+      </c>
+      <c r="C46" s="19">
+        <v>2</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19">
+        <v>4</v>
+      </c>
+      <c r="G46" s="19">
+        <v>6</v>
+      </c>
+      <c r="H46" s="19">
+        <v>0</v>
+      </c>
+      <c r="I46" s="19">
         <v>1</v>
       </c>
-      <c r="H40" s="19">
+      <c r="J46" s="19">
+        <v>1</v>
+      </c>
+      <c r="K46" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="19">
         <v>0</v>
       </c>
-      <c r="I40" s="19">
+      <c r="C47" s="19">
         <v>1</v>
       </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19">
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19">
+        <v>0</v>
+      </c>
+      <c r="G47" s="19">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19">
+        <v>1</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="19">
+        <v>0</v>
+      </c>
+      <c r="K47" s="19">
         <v>0</v>
       </c>
     </row>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682735E7-CB9F-43DD-8B5A-8BF88034703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F748D-C0FF-4DC9-86A1-70A5E7651244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="11835" yWindow="855" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="259">
   <si>
     <t>Name</t>
   </si>
@@ -513,9 +513,6 @@
     <t>UCLC/EHS Safety Training</t>
   </si>
   <si>
-    <t>Black Powder</t>
-  </si>
-  <si>
     <t>Launch Sites</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
     <t>Flammables Cabinet</t>
   </si>
   <si>
-    <t>Solid Motors/Fuel Grains</t>
-  </si>
-  <si>
     <t>New Member Safety Onboarding</t>
   </si>
   <si>
@@ -795,9 +789,6 @@
     <t>Personal cars</t>
   </si>
   <si>
-    <t>Uhaul Rental</t>
-  </si>
-  <si>
     <t>Travel to National/International Competition</t>
   </si>
   <si>
@@ -805,6 +796,24 @@
   </si>
   <si>
     <t>rjbutcher@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Waiver and Release of Liability</t>
+  </si>
+  <si>
+    <t>Basement of Eng. Tower, Storage Shed</t>
+  </si>
+  <si>
+    <t>Black Powder (on campus storage)</t>
+  </si>
+  <si>
+    <t>Solid Motors/Fuel Grains (on campus storage)</t>
+  </si>
+  <si>
+    <t>Uhaul Rental, Personal Cars</t>
+  </si>
+  <si>
+    <t>Noelle, Preston</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1629,10 +1638,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>215</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1772,10 +1781,10 @@
         <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H5" s="17">
         <v>45198</v>
@@ -1902,10 +1911,10 @@
         <v>45204</v>
       </c>
       <c r="J7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>170</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>171</v>
       </c>
       <c r="L7" s="17">
         <v>45189</v>
@@ -1961,7 +1970,7 @@
         <v>77</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P8" s="17">
         <v>45195</v>
@@ -1970,7 +1979,7 @@
         <v>45201</v>
       </c>
       <c r="R8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="T8" s="17">
         <v>45203</v>
@@ -1979,10 +1988,10 @@
         <v>45203</v>
       </c>
       <c r="V8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W8" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="X8" s="17">
         <v>45195</v>
@@ -2064,7 +2073,7 @@
         <v>92</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L10" s="17">
         <v>45191</v>
@@ -2120,7 +2129,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>115</v>
@@ -2300,13 +2309,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,7 +2335,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>40</v>
@@ -2376,19 +2385,19 @@
         <v>51</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>78</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>109</v>
@@ -2487,7 +2496,7 @@
         <v>66</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>80</v>
@@ -2511,12 +2520,14 @@
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>258</v>
+      </c>
       <c r="G6" s="19" t="s">
         <v>67</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>81</v>
@@ -2525,7 +2536,7 @@
         <v>103</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2539,19 +2550,19 @@
         <v>148</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>148</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>148</v>
@@ -2596,67 +2607,67 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>162</v>
-      </c>
       <c r="C9" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>152</v>
@@ -2682,7 +2693,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>152</v>
@@ -2692,9 +2703,11 @@
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>254</v>
+      </c>
       <c r="G12" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
@@ -2703,7 +2716,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>153</v>
@@ -2717,24 +2730,24 @@
         <v>153</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>153</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>154</v>
@@ -2751,10 +2764,10 @@
         <v>152</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>152</v>
@@ -2765,7 +2778,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>152</v>
@@ -2779,10 +2792,10 @@
         <v>152</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>152</v>
@@ -2796,7 +2809,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>152</v>
@@ -2816,7 +2829,7 @@
         <v>152</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>152</v>
@@ -2838,10 +2851,10 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>152</v>
@@ -2850,7 +2863,7 @@
         <v>152</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>152</v>
@@ -2858,7 +2871,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>156</v>
@@ -2889,7 +2902,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>155</v>
@@ -2920,7 +2933,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>156</v>
@@ -2951,7 +2964,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>155</v>
@@ -2982,7 +2995,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19" t="s">
@@ -2990,7 +3003,9 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -3001,10 +3016,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>230</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>231</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>155</v>
@@ -3015,24 +3030,24 @@
         <v>152</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J23" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>255</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>156</v>
@@ -3042,7 +3057,9 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="G24" s="21" t="s">
         <v>156</v>
       </c>
@@ -3053,7 +3070,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>155</v>
@@ -3082,7 +3099,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>156</v>
@@ -3113,7 +3130,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>155</v>
@@ -3195,10 +3212,10 @@
         <v>155</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>155</v>
@@ -3206,84 +3223,74 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="19">
-        <v>2</v>
-      </c>
-      <c r="C30" s="19">
-        <v>1</v>
+        <v>253</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19" t="s">
+        <v>156</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
-      <c r="F30" s="19">
-        <v>2</v>
-      </c>
-      <c r="G30" s="19">
-        <v>2</v>
-      </c>
-      <c r="H30" s="19">
-        <v>1</v>
-      </c>
-      <c r="I30" s="19">
-        <v>1</v>
-      </c>
-      <c r="J30" s="19">
-        <v>3</v>
-      </c>
-      <c r="K30" s="19">
-        <v>2</v>
-      </c>
+      <c r="F30" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B31" s="19">
+        <v>2</v>
+      </c>
+      <c r="C31" s="19">
         <v>1</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19">
+        <v>2</v>
+      </c>
+      <c r="G31" s="19">
+        <v>2</v>
+      </c>
+      <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
       <c r="I31" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B32" s="19">
+        <v>1</v>
+      </c>
+      <c r="C32" s="19">
         <v>0</v>
-      </c>
-      <c r="C32" s="19">
-        <v>1</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
       <c r="G32" s="19">
         <v>0</v>
       </c>
       <c r="H32" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="19">
         <v>0</v>
@@ -3292,46 +3299,46 @@
         <v>0</v>
       </c>
       <c r="K32" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="B33" s="19">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19">
         <v>1</v>
-      </c>
-      <c r="C33" s="19">
-        <v>0</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19">
+        <v>0</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
         <v>1</v>
       </c>
-      <c r="G33" s="19">
-        <v>1</v>
-      </c>
-      <c r="H33" s="19">
+      <c r="I33" s="19">
         <v>0</v>
       </c>
-      <c r="I33" s="19">
-        <v>1</v>
-      </c>
       <c r="J33" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="19">
         <v>0</v>
@@ -3339,7 +3346,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="19">
         <v>1</v>
@@ -3348,49 +3355,49 @@
         <v>0</v>
       </c>
       <c r="I34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
       <c r="B35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
         <v>1</v>
-      </c>
-      <c r="G35" s="19">
-        <v>2</v>
       </c>
       <c r="H35" s="19">
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="B36" s="19">
         <v>1</v>
@@ -3404,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H36" s="19">
         <v>0</v>
@@ -3416,23 +3423,23 @@
         <v>3</v>
       </c>
       <c r="K36" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="19">
         <v>1</v>
@@ -3441,111 +3448,111 @@
         <v>0</v>
       </c>
       <c r="I37" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>244</v>
+        <v>140</v>
+      </c>
+      <c r="B38" s="19">
+        <v>0</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I38" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="J38" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>248</v>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H39" s="19" t="s">
         <v>152</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19" t="s">
-        <v>155</v>
+        <v>243</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>156</v>
+        <v>244</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>155</v>
+        <v>241</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="19" t="s">
         <v>155</v>
@@ -3565,146 +3572,148 @@
         <v>155</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>155</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="F44" s="19" t="s">
+        <v>159</v>
+      </c>
       <c r="G44" s="19" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="19">
-        <v>4</v>
-      </c>
-      <c r="C45" s="19">
-        <v>3</v>
+        <v>248</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="19">
-        <v>4</v>
-      </c>
-      <c r="G45" s="19">
-        <v>4</v>
-      </c>
-      <c r="H45" s="19">
-        <v>2</v>
-      </c>
-      <c r="I45" s="19">
-        <v>2</v>
-      </c>
-      <c r="J45" s="19">
-        <v>1</v>
-      </c>
-      <c r="K45" s="19">
-        <v>0</v>
+      <c r="F45" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="19">
         <v>4</v>
       </c>
       <c r="C46" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
@@ -3712,49 +3721,80 @@
         <v>4</v>
       </c>
       <c r="G46" s="19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H46" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="19">
         <v>1</v>
       </c>
       <c r="K46" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="B47" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C47" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19">
+        <v>4</v>
+      </c>
+      <c r="G47" s="19">
+        <v>6</v>
+      </c>
+      <c r="H47" s="19">
         <v>0</v>
       </c>
-      <c r="G47" s="19">
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
+      <c r="J47" s="19">
+        <v>1</v>
+      </c>
+      <c r="K47" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>250</v>
+      </c>
+      <c r="B48" s="19">
         <v>0</v>
       </c>
-      <c r="H47" s="19">
+      <c r="C48" s="19">
         <v>1</v>
       </c>
-      <c r="I47" s="19">
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19">
         <v>0</v>
       </c>
-      <c r="J47" s="19">
+      <c r="G48" s="19">
         <v>0</v>
       </c>
-      <c r="K47" s="19">
+      <c r="H48" s="19">
+        <v>1</v>
+      </c>
+      <c r="I48" s="19">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19">
+        <v>0</v>
+      </c>
+      <c r="K48" s="19">
         <v>0</v>
       </c>
     </row>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F748D-C0FF-4DC9-86A1-70A5E7651244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD525F-CF41-46D8-A954-7719C2BD495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="855" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="277">
   <si>
     <t>Name</t>
   </si>
@@ -204,9 +204,6 @@
     <t>ECLIPSE</t>
   </si>
   <si>
-    <t>Rocket Project UCI</t>
-  </si>
-  <si>
     <t>UC Irvine</t>
   </si>
   <si>
@@ -225,12 +222,6 @@
     <t>cntaylor@uci.edu</t>
   </si>
   <si>
-    <t>Mark Walter, Xian Shi</t>
-  </si>
-  <si>
-    <t>m.walter@uci.edu, xianshi@uci.edu</t>
-  </si>
-  <si>
     <t>Rocket Project UCLA</t>
   </si>
   <si>
@@ -441,9 +432,6 @@
     <t>Space Technologies and Rocketry</t>
   </si>
   <si>
-    <t>RPUCI</t>
-  </si>
-  <si>
     <t>RPUCLA</t>
   </si>
   <si>
@@ -552,15 +540,6 @@
     <t>ckolodziej@ehs.ucla.edu, calli@ehs.ucla.edu</t>
   </si>
   <si>
-    <t>UC Irvine Rocket Project</t>
-  </si>
-  <si>
-    <t>Liquid Bipropellant and Competition Team (Solid)</t>
-  </si>
-  <si>
-    <t>LIQUID, SOLID</t>
-  </si>
-  <si>
     <t>40ft Airstream Trailer</t>
   </si>
   <si>
@@ -753,9 +732,6 @@
     <t>EUREKA, LAD, VLAD, TVC</t>
   </si>
   <si>
-    <t>Liquid/Hybrid Fuel</t>
-  </si>
-  <si>
     <t>Oxidizer</t>
   </si>
   <si>
@@ -768,18 +744,12 @@
     <t>Ethanol</t>
   </si>
   <si>
-    <t>LOX, He (Pressurant)</t>
-  </si>
-  <si>
     <t>LOX, N2O</t>
   </si>
   <si>
     <t>N2O</t>
   </si>
   <si>
-    <t>LNG, Sugar</t>
-  </si>
-  <si>
     <t>Truck/Trailer Mounted Static Test Fire</t>
   </si>
   <si>
@@ -813,7 +783,91 @@
     <t>Uhaul Rental, Personal Cars</t>
   </si>
   <si>
-    <t>Noelle, Preston</t>
+    <t>Other Liquid/Gas</t>
+  </si>
+  <si>
+    <t>Liquid Fuel</t>
+  </si>
+  <si>
+    <t>COTS</t>
+  </si>
+  <si>
+    <t>HTPB</t>
+  </si>
+  <si>
+    <t>He</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>RPUCIL</t>
+  </si>
+  <si>
+    <t>UC Irvine Rocket Project - Liquid</t>
+  </si>
+  <si>
+    <t>RPUCIS</t>
+  </si>
+  <si>
+    <t>Noelle</t>
+  </si>
+  <si>
+    <t>Preston</t>
+  </si>
+  <si>
+    <t>Liquid Bipropellant</t>
+  </si>
+  <si>
+    <t>Competition Team Solid Motor</t>
+  </si>
+  <si>
+    <t>LIQUID</t>
+  </si>
+  <si>
+    <t>SOLID</t>
+  </si>
+  <si>
+    <t>LOX, Propane</t>
+  </si>
+  <si>
+    <t>UC Irvine Rocket Project - Solid</t>
+  </si>
+  <si>
+    <t>Rocket Project UCI - Solid</t>
+  </si>
+  <si>
+    <t>Rocket Project UCI - Liquid</t>
+  </si>
+  <si>
+    <t>Preston Wiryadinata</t>
+  </si>
+  <si>
+    <t>pwiryadi@uci.edu</t>
+  </si>
+  <si>
+    <t>Noelle Camanyag</t>
+  </si>
+  <si>
+    <t>ncamanya@uci.edu</t>
+  </si>
+  <si>
+    <t>Xian Shi</t>
+  </si>
+  <si>
+    <t>Mark Walter</t>
+  </si>
+  <si>
+    <t>xianshi@uci.edu</t>
+  </si>
+  <si>
+    <t>m.walter@uci.edu</t>
+  </si>
+  <si>
+    <t>ychen53@ucmerced.edu</t>
+  </si>
+  <si>
+    <t>Solid Fuels</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1189,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y13" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:Y13" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y14" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:Y14" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{9AF61336-FEBD-4CDB-AF53-FEFE8075AC32}" name="Name"/>
     <tableColumn id="24" xr3:uid="{B42E2B9B-5C2B-4892-946B-83ADD5B8BF34}" name="ShortName"/>
@@ -1465,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1532,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
@@ -1491,7 +1545,7 @@
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="30.5703125" bestFit="1" customWidth="1"/>
@@ -1514,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -1523,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>5</v>
@@ -1579,7 +1633,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -1591,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -1638,10 +1692,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1652,7 +1706,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
@@ -1664,7 +1718,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>27</v>
@@ -1729,7 +1783,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
@@ -1778,13 +1832,13 @@
         <v>52</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H5" s="17">
         <v>45198</v>
@@ -1825,19 +1879,25 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="E6" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>270</v>
       </c>
       <c r="H6" s="17">
         <v>45176</v>
@@ -1846,10 +1906,10 @@
         <v>45211</v>
       </c>
       <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>58</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>59</v>
       </c>
       <c r="L6" s="17">
         <v>45163</v>
@@ -1858,10 +1918,10 @@
         <v>45166</v>
       </c>
       <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="P6" s="17">
         <v>45184</v>
@@ -1870,10 +1930,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="T6" s="17">
         <v>45169</v>
@@ -1884,335 +1944,350 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="H7" s="17">
-        <v>45202</v>
+        <v>45211</v>
       </c>
       <c r="I7" s="17">
-        <v>45204</v>
+        <v>45217</v>
       </c>
       <c r="J7" t="s">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="L7" s="17">
-        <v>45189</v>
+        <v>45163</v>
       </c>
       <c r="M7" s="17">
-        <v>45191</v>
+        <v>45166</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="17">
+        <v>45184</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>45187</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>70</v>
+        <v>274</v>
       </c>
       <c r="T7" s="17">
-        <v>45195</v>
+        <v>45169</v>
       </c>
       <c r="U7" s="17">
-        <v>45196</v>
+        <v>45211</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="H8" s="17">
-        <v>45163</v>
+        <v>45202</v>
       </c>
       <c r="I8" s="17">
-        <v>45169</v>
+        <v>45204</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="P8" s="17">
+        <v>165</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="17">
+        <v>45189</v>
+      </c>
+      <c r="M8" s="17">
+        <v>45191</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="17">
         <v>45195</v>
       </c>
-      <c r="Q8" s="17">
-        <v>45201</v>
-      </c>
-      <c r="R8" t="s">
-        <v>216</v>
-      </c>
-      <c r="T8" s="17">
-        <v>45203</v>
-      </c>
       <c r="U8" s="17">
-        <v>45203</v>
-      </c>
-      <c r="V8" t="s">
-        <v>177</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="X8" s="17">
-        <v>45195</v>
-      </c>
-      <c r="Y8" s="17">
-        <v>45201</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H9" s="17">
-        <v>45191</v>
+        <v>45163</v>
       </c>
       <c r="I9" s="17">
-        <v>45198</v>
+        <v>45169</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="L9" s="17">
-        <v>45188</v>
-      </c>
-      <c r="M9" s="17">
-        <v>45191</v>
+        <v>73</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="P9" s="17">
-        <v>45191</v>
+        <v>45195</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>45201</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>88</v>
+        <v>275</v>
+      </c>
+      <c r="T9" s="17">
+        <v>45203</v>
+      </c>
+      <c r="U9" s="17">
+        <v>45203</v>
+      </c>
+      <c r="V9" t="s">
+        <v>170</v>
+      </c>
+      <c r="W9" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X9" s="17">
+        <v>45195</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>45201</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="17">
+        <v>45191</v>
+      </c>
+      <c r="I10" s="17">
+        <v>45198</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>215</v>
+        <v>81</v>
       </c>
       <c r="L10" s="17">
-        <v>45191</v>
+        <v>45188</v>
       </c>
       <c r="M10" s="17">
         <v>45191</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="P10" s="17">
-        <v>45187</v>
-      </c>
-      <c r="Q10" s="17">
         <v>45191</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="L11" s="17">
-        <v>45169</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="R11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" s="17">
+        <v>45191</v>
+      </c>
+      <c r="M11" s="17">
+        <v>45191</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="P11" s="17">
         <v>45187</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>45191</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="17">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="17">
+        <v>45169</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="R12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T12" s="17">
         <v>45187</v>
-      </c>
-      <c r="I12" s="17">
-        <v>45190</v>
-      </c>
-      <c r="J12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="L12" s="17">
-        <v>45180</v>
-      </c>
-      <c r="M12" s="17">
-        <v>45182</v>
-      </c>
-      <c r="N12" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="P12" s="17">
-        <v>45180</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>45182</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>112</v>
       </c>
       <c r="H13" s="17">
         <v>45187</v>
       </c>
       <c r="I13" s="17">
-        <v>45196</v>
+        <v>45190</v>
       </c>
       <c r="J13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L13" s="17">
         <v>45180</v>
@@ -2221,10 +2296,10 @@
         <v>45182</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P13" s="17">
         <v>45180</v>
@@ -2233,8 +2308,61 @@
         <v>45182</v>
       </c>
     </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="17">
+        <v>45187</v>
+      </c>
+      <c r="I14" s="17">
+        <v>45196</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="17">
+        <v>45180</v>
+      </c>
+      <c r="M14" s="17">
+        <v>45182</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="17">
+        <v>45180</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>45182</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Y13">
+  <conditionalFormatting sqref="A2:Y14">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
@@ -2258,64 +2386,72 @@
     <hyperlink ref="D3" r:id="rId16" xr:uid="{BE8D79D0-F938-4AC6-AA17-85EE7BF038DC}"/>
     <hyperlink ref="D2" r:id="rId17" display="mailto:info@seb.berkeley.edu" xr:uid="{6C4F6428-292E-4A76-B676-9C059151E98C}"/>
     <hyperlink ref="D6" r:id="rId18" xr:uid="{94B09FDE-0C9E-418D-A442-213D46301151}"/>
-    <hyperlink ref="D7" r:id="rId19" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
-    <hyperlink ref="D8" r:id="rId20" display="mailto:aiaa@ucmerced.edu" xr:uid="{B9122146-4EB9-4993-B247-89323CDDBE8F}"/>
-    <hyperlink ref="D9" r:id="rId21" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
-    <hyperlink ref="D11" r:id="rId22" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
-    <hyperlink ref="D12" r:id="rId23" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
-    <hyperlink ref="K11" r:id="rId25" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
+    <hyperlink ref="D9" r:id="rId20" display="mailto:aiaa@ucmerced.edu" xr:uid="{B9122146-4EB9-4993-B247-89323CDDBE8F}"/>
+    <hyperlink ref="D10" r:id="rId21" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
+    <hyperlink ref="D12" r:id="rId22" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
+    <hyperlink ref="K12" r:id="rId25" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
     <hyperlink ref="K6" r:id="rId26" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
-    <hyperlink ref="S6" r:id="rId27" display="m.walter@uci.edu, " xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
+    <hyperlink ref="S6" r:id="rId27" xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
     <hyperlink ref="O6" r:id="rId28" xr:uid="{7A0DD70F-C5D4-48C1-9663-180F546AFAF1}"/>
-    <hyperlink ref="G12" r:id="rId29" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
-    <hyperlink ref="G8" r:id="rId30" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
-    <hyperlink ref="O10" r:id="rId31" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
-    <hyperlink ref="K9" r:id="rId32" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
-    <hyperlink ref="G9" r:id="rId33" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
-    <hyperlink ref="G13" r:id="rId34" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
-    <hyperlink ref="K13" r:id="rId35" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
-    <hyperlink ref="K12" r:id="rId36" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
-    <hyperlink ref="O12" r:id="rId37" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
-    <hyperlink ref="G7" r:id="rId38" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
-    <hyperlink ref="S7" r:id="rId39" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
-    <hyperlink ref="O9" r:id="rId40" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
-    <hyperlink ref="S9" r:id="rId41" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
-    <hyperlink ref="K7" r:id="rId42" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
+    <hyperlink ref="G9" r:id="rId30" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
+    <hyperlink ref="O11" r:id="rId31" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
+    <hyperlink ref="K10" r:id="rId32" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
+    <hyperlink ref="G10" r:id="rId33" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
+    <hyperlink ref="G14" r:id="rId34" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
+    <hyperlink ref="K14" r:id="rId35" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
+    <hyperlink ref="K13" r:id="rId36" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
+    <hyperlink ref="O13" r:id="rId37" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
+    <hyperlink ref="G8" r:id="rId38" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
+    <hyperlink ref="S8" r:id="rId39" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
+    <hyperlink ref="O10" r:id="rId40" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
+    <hyperlink ref="S10" r:id="rId41" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
+    <hyperlink ref="K8" r:id="rId42" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
     <hyperlink ref="E2" r:id="rId43" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
     <hyperlink ref="E3" r:id="rId44" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
     <hyperlink ref="E4" r:id="rId45" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
     <hyperlink ref="E5" r:id="rId46" xr:uid="{8AA421A5-2CB2-4199-A0C3-6D88D3FE546E}"/>
     <hyperlink ref="E6" r:id="rId47" xr:uid="{F2AE074E-2173-4259-A7D2-851003DE826E}"/>
-    <hyperlink ref="E7" r:id="rId48" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
-    <hyperlink ref="E8" r:id="rId49" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
-    <hyperlink ref="E9" r:id="rId50" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
-    <hyperlink ref="E11" r:id="rId51" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
-    <hyperlink ref="E12" r:id="rId52" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
-    <hyperlink ref="E13" r:id="rId53" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
-    <hyperlink ref="O8" r:id="rId54" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
-    <hyperlink ref="W8" r:id="rId55" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
-    <hyperlink ref="O13" r:id="rId56" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
+    <hyperlink ref="E8" r:id="rId48" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
+    <hyperlink ref="E9" r:id="rId49" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
+    <hyperlink ref="E10" r:id="rId50" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
+    <hyperlink ref="E12" r:id="rId51" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
+    <hyperlink ref="E13" r:id="rId52" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
+    <hyperlink ref="E14" r:id="rId53" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
+    <hyperlink ref="O9" r:id="rId54" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
+    <hyperlink ref="W9" r:id="rId55" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
+    <hyperlink ref="O14" r:id="rId56" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
     <hyperlink ref="W2" r:id="rId57" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
-    <hyperlink ref="K10" r:id="rId58" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
+    <hyperlink ref="K11" r:id="rId58" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
     <hyperlink ref="G5" r:id="rId59" xr:uid="{AC806780-9930-4D5A-90A1-B6776DE010F1}"/>
+    <hyperlink ref="D7" r:id="rId60" xr:uid="{63D9B215-71F0-41D1-B390-B5E84D3AB6F7}"/>
+    <hyperlink ref="E7" r:id="rId61" xr:uid="{75A5AC05-D2F0-42DE-B22A-7BF6FFDD8BA3}"/>
+    <hyperlink ref="G7" r:id="rId62" xr:uid="{D47C2868-7BED-405F-967B-8FC9B1D7F53A}"/>
+    <hyperlink ref="G6" r:id="rId63" xr:uid="{181822E4-72DD-4002-BFEA-D7DE855D17FF}"/>
+    <hyperlink ref="K7" r:id="rId64" xr:uid="{F58A1DE0-A631-4B3F-B15F-08AA6B19C023}"/>
+    <hyperlink ref="O7" r:id="rId65" xr:uid="{4F094DC1-7253-482C-9FB1-24C5D6FBC779}"/>
+    <hyperlink ref="S7" r:id="rId66" xr:uid="{78D873E5-0B34-442C-8D45-7E07BDEDC8C5}"/>
+    <hyperlink ref="S9" r:id="rId67" xr:uid="{B2C000C9-37C0-4B5D-8331-8CC695827563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId60"/>
+    <tablePart r:id="rId68"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,16 +2462,17 @@
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" customWidth="1"/>
+    <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>40</v>
@@ -2350,33 +2487,36 @@
         <v>54</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>115</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>42</v>
@@ -2385,25 +2525,28 @@
         <v>51</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>189</v>
+        <v>75</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2420,65 +2563,71 @@
         <v>43</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>26</v>
@@ -2490,25 +2639,28 @@
         <v>52</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>179</v>
+        <v>63</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2521,62 +2673,68 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>67</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>180</v>
+        <v>64</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>191</v>
+        <v>144</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B8" s="19">
         <v>80</v>
@@ -2590,659 +2748,728 @@
         <v>40</v>
       </c>
       <c r="G8" s="19">
+        <v>27</v>
+      </c>
+      <c r="H8" s="19">
         <v>150</v>
       </c>
-      <c r="H8" s="19">
+      <c r="I8" s="19">
         <v>15</v>
       </c>
-      <c r="I8" s="19">
+      <c r="J8" s="19">
         <v>50</v>
       </c>
-      <c r="J8" s="19">
+      <c r="K8" s="19">
         <v>60</v>
       </c>
-      <c r="K8" s="19">
+      <c r="L8" s="19">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>161</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19" t="s">
-        <v>204</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="19"/>
       <c r="J10" s="19" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>152</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="19"/>
+        <v>244</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>210</v>
+      </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
       <c r="F19" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G22" s="19"/>
+        <v>151</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>151</v>
+      </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" s="19"/>
+      <c r="K22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>230</v>
+        <v>148</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" s="21" t="s">
-        <v>230</v>
+        <v>223</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>201</v>
       </c>
       <c r="K23" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="21"/>
+        <v>151</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="19"/>
       <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="21" t="s">
-        <v>156</v>
-      </c>
+      <c r="F25" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="19"/>
       <c r="H25" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="L26" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="G30" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B31" s="19">
         <v>2</v>
@@ -3253,27 +3480,30 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="19">
         <v>2</v>
-      </c>
-      <c r="G31" s="19">
-        <v>2</v>
-      </c>
-      <c r="H31" s="19">
-        <v>1</v>
       </c>
       <c r="I31" s="19">
         <v>1</v>
       </c>
       <c r="J31" s="19">
+        <v>1</v>
+      </c>
+      <c r="K31" s="19">
         <v>3</v>
       </c>
-      <c r="K31" s="19">
+      <c r="L31" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B32" s="19">
         <v>1</v>
@@ -3284,11 +3514,11 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
         <v>1</v>
       </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
       <c r="H32" s="19">
         <v>0</v>
       </c>
@@ -3299,12 +3529,15 @@
         <v>0</v>
       </c>
       <c r="K32" s="19">
+        <v>0</v>
+      </c>
+      <c r="L32" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B33" s="19">
         <v>0</v>
@@ -3321,21 +3554,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
         <v>1</v>
       </c>
-      <c r="I33" s="19">
-        <v>0</v>
-      </c>
       <c r="J33" s="19">
         <v>0</v>
       </c>
       <c r="K33" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B34" s="19">
         <v>1</v>
@@ -3349,24 +3585,27 @@
         <v>1</v>
       </c>
       <c r="G34" s="19">
+        <v>0</v>
+      </c>
+      <c r="H34" s="19">
         <v>1</v>
       </c>
-      <c r="H34" s="19">
-        <v>0</v>
-      </c>
       <c r="I34" s="19">
+        <v>0</v>
+      </c>
+      <c r="J34" s="19">
         <v>1</v>
       </c>
-      <c r="J34" s="19">
+      <c r="K34" s="19">
         <v>3</v>
       </c>
-      <c r="K34" s="19">
+      <c r="L34" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B35" s="19">
         <v>0</v>
@@ -3380,11 +3619,11 @@
         <v>0</v>
       </c>
       <c r="G35" s="19">
+        <v>0</v>
+      </c>
+      <c r="H35" s="19">
         <v>1</v>
       </c>
-      <c r="H35" s="19">
-        <v>0</v>
-      </c>
       <c r="I35" s="19">
         <v>0</v>
       </c>
@@ -3394,10 +3633,13 @@
       <c r="K35" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B36" s="19">
         <v>1</v>
@@ -3411,24 +3653,27 @@
         <v>1</v>
       </c>
       <c r="G36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="19">
         <v>2</v>
       </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
       <c r="I36" s="19">
+        <v>0</v>
+      </c>
+      <c r="J36" s="19">
         <v>1</v>
       </c>
-      <c r="J36" s="19">
+      <c r="K36" s="19">
         <v>3</v>
       </c>
-      <c r="K36" s="19">
+      <c r="L36" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B37" s="19">
         <v>1</v>
@@ -3442,24 +3687,27 @@
         <v>1</v>
       </c>
       <c r="G37" s="19">
+        <v>0</v>
+      </c>
+      <c r="H37" s="19">
         <v>1</v>
       </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
       <c r="I37" s="19">
+        <v>0</v>
+      </c>
+      <c r="J37" s="19">
         <v>1</v>
       </c>
-      <c r="J37" s="19">
+      <c r="K37" s="19">
         <v>3</v>
       </c>
-      <c r="K37" s="19">
+      <c r="L37" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -3473,11 +3721,11 @@
         <v>0</v>
       </c>
       <c r="G38" s="19">
+        <v>0</v>
+      </c>
+      <c r="H38" s="19">
         <v>1</v>
       </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
       <c r="I38" s="19">
         <v>0</v>
       </c>
@@ -3487,314 +3735,415 @@
       <c r="K38" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H39" s="19" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L39" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19" t="s">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H41" s="19" t="s">
-        <v>155</v>
+        <v>235</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H42" s="19" t="s">
-        <v>155</v>
+        <v>252</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="K43" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="K44" s="19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="H45" s="19" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="K45" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="19">
-        <v>4</v>
-      </c>
-      <c r="C46" s="19">
-        <v>3</v>
+        <v>154</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>155</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19"/>
-      <c r="F46" s="19">
-        <v>4</v>
-      </c>
-      <c r="G46" s="19">
-        <v>4</v>
-      </c>
-      <c r="H46" s="19">
-        <v>2</v>
-      </c>
-      <c r="I46" s="19">
-        <v>2</v>
-      </c>
-      <c r="J46" s="19">
-        <v>1</v>
-      </c>
-      <c r="K46" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="19">
-        <v>4</v>
-      </c>
-      <c r="C47" s="19">
-        <v>2</v>
+        <v>238</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="19">
+      <c r="F47" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="19">
         <v>4</v>
       </c>
-      <c r="G47" s="19">
-        <v>6</v>
-      </c>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="19">
-        <v>1</v>
-      </c>
-      <c r="J47" s="19">
-        <v>1</v>
-      </c>
-      <c r="K47" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>250</v>
-      </c>
-      <c r="B48" s="19">
-        <v>0</v>
-      </c>
       <c r="C48" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G48" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48" s="19">
+        <v>4</v>
+      </c>
+      <c r="I48" s="19">
+        <v>2</v>
+      </c>
+      <c r="J48" s="19">
+        <v>2</v>
+      </c>
+      <c r="K48" s="19">
         <v>1</v>
       </c>
-      <c r="I48" s="19">
-        <v>0</v>
-      </c>
-      <c r="J48" s="19">
-        <v>0</v>
-      </c>
-      <c r="K48" s="19">
+      <c r="L48" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="19">
+        <v>4</v>
+      </c>
+      <c r="C49" s="19">
+        <v>2</v>
+      </c>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19">
+        <v>4</v>
+      </c>
+      <c r="G49" s="19">
+        <v>4</v>
+      </c>
+      <c r="H49" s="19">
+        <v>6</v>
+      </c>
+      <c r="I49" s="19">
+        <v>0</v>
+      </c>
+      <c r="J49" s="19">
+        <v>1</v>
+      </c>
+      <c r="K49" s="19">
+        <v>1</v>
+      </c>
+      <c r="L49" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="19">
+        <v>0</v>
+      </c>
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19">
+        <v>0</v>
+      </c>
+      <c r="G50" s="19">
+        <v>0</v>
+      </c>
+      <c r="H50" s="19">
+        <v>0</v>
+      </c>
+      <c r="I50" s="19">
+        <v>1</v>
+      </c>
+      <c r="J50" s="19">
+        <v>0</v>
+      </c>
+      <c r="K50" s="19">
+        <v>0</v>
+      </c>
+      <c r="L50" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3806,18 +4155,20 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{C953C00D-86A1-4D3D-95D5-68715AB52EAB}"/>
     <hyperlink ref="F4" r:id="rId5" xr:uid="{E5D4F5FC-CCD5-4FCC-8DD0-F02477E58CD8}"/>
     <hyperlink ref="F5" r:id="rId6" xr:uid="{C3D4706E-A302-4E0A-B5C7-83B5B4F5FD16}"/>
-    <hyperlink ref="G4" r:id="rId7" xr:uid="{EA6937E3-3703-4B61-8357-CE9ECA924A73}"/>
-    <hyperlink ref="H4" r:id="rId8" xr:uid="{08E56596-3E4F-42D3-88E8-4EE2BEA14CA6}"/>
-    <hyperlink ref="H5" r:id="rId9" xr:uid="{6E7627F9-FC05-4F44-BBC8-73073562D9CD}"/>
+    <hyperlink ref="H4" r:id="rId7" xr:uid="{EA6937E3-3703-4B61-8357-CE9ECA924A73}"/>
+    <hyperlink ref="I4" r:id="rId8" xr:uid="{08E56596-3E4F-42D3-88E8-4EE2BEA14CA6}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{6E7627F9-FC05-4F44-BBC8-73073562D9CD}"/>
     <hyperlink ref="E5" r:id="rId10" xr:uid="{3C749E12-DF6E-4371-B45B-21E1B8A7BCA7}"/>
     <hyperlink ref="D4" r:id="rId11" xr:uid="{4B5678E8-7C3C-44FC-B9FB-1E074FEB6AFD}"/>
     <hyperlink ref="E4" r:id="rId12" xr:uid="{B8335E59-BA55-499A-8D65-8AD71377238A}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{A649114B-92F5-4C5A-9C9A-E931516097A2}"/>
-    <hyperlink ref="I4" r:id="rId14" xr:uid="{1E731822-5132-4919-B64C-0E8CB2DF8DDD}"/>
-    <hyperlink ref="I5" r:id="rId15" xr:uid="{4BD48FC1-1D2A-4300-8A6F-C8B628AC5C86}"/>
-    <hyperlink ref="J5" r:id="rId16" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
-    <hyperlink ref="K5" r:id="rId17" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
-    <hyperlink ref="K4" r:id="rId18" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
+    <hyperlink ref="J4" r:id="rId14" xr:uid="{1E731822-5132-4919-B64C-0E8CB2DF8DDD}"/>
+    <hyperlink ref="J5" r:id="rId15" xr:uid="{4BD48FC1-1D2A-4300-8A6F-C8B628AC5C86}"/>
+    <hyperlink ref="K5" r:id="rId16" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
+    <hyperlink ref="L5" r:id="rId17" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
+    <hyperlink ref="L4" r:id="rId18" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
+    <hyperlink ref="G4" r:id="rId19" xr:uid="{6652E533-19FE-455A-8F1B-6E845F0A6D9E}"/>
+    <hyperlink ref="G5" r:id="rId20" xr:uid="{779E50B1-CDC9-44F8-8467-9E3AB3C4136B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBD525F-CF41-46D8-A954-7719C2BD495F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44751C81-0D3E-4CC8-9447-C64017FDC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="286">
   <si>
     <t>Name</t>
   </si>
@@ -171,9 +171,6 @@
     <t>UC Davis</t>
   </si>
   <si>
-    <t>apl@ucdavis.edu</t>
-  </si>
-  <si>
     <t>Steve Dilbert</t>
   </si>
   <si>
@@ -192,18 +189,6 @@
     <t>rcaldredge@ucdavis.edu</t>
   </si>
   <si>
-    <t>ECLIPSE Rocketry</t>
-  </si>
-  <si>
-    <t>Rockets.ucdavis@gmail.com</t>
-  </si>
-  <si>
-    <t>APL</t>
-  </si>
-  <si>
-    <t>ECLIPSE</t>
-  </si>
-  <si>
     <t>UC Irvine</t>
   </si>
   <si>
@@ -402,9 +387,6 @@
     <t>https://apropulsionlab.com/</t>
   </si>
   <si>
-    <t>https://eclipserockets.weebly.com/</t>
-  </si>
-  <si>
     <t>https://www.rocket.eng.uci.edu/</t>
   </si>
   <si>
@@ -868,6 +850,51 @@
   </si>
   <si>
     <t>Solid Fuels</t>
+  </si>
+  <si>
+    <t>APRL</t>
+  </si>
+  <si>
+    <t>Competition (DPF)</t>
+  </si>
+  <si>
+    <t>Liquid, subscale solid</t>
+  </si>
+  <si>
+    <t>ESDC</t>
+  </si>
+  <si>
+    <t>Private Residence</t>
+  </si>
+  <si>
+    <t>Kerosene</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>LOX, Kerosene</t>
+  </si>
+  <si>
+    <t>Personal Cars, Uhaul</t>
+  </si>
+  <si>
+    <t>aprl@ucdavis.edu</t>
+  </si>
+  <si>
+    <t>Cold flow testing on Campus</t>
+  </si>
+  <si>
+    <t>**Needs Update**</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Makerspace, Machine Shop</t>
+  </si>
+  <si>
+    <t>MESA (SRE)</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1130,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1189,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y14" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:Y14" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}" name="Table1" displayName="Table1" ref="A1:Y13" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
+  <autoFilter ref="A1:Y13" xr:uid="{7CEA71A8-CAEB-4DB7-AC41-510292240691}"/>
   <tableColumns count="25">
     <tableColumn id="1" xr3:uid="{9AF61336-FEBD-4CDB-AF53-FEFE8075AC32}" name="Name"/>
     <tableColumn id="24" xr3:uid="{B42E2B9B-5C2B-4892-946B-83ADD5B8BF34}" name="ShortName"/>
@@ -1519,9 +1556,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
@@ -1568,7 +1605,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -1577,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>5</v>
@@ -1633,7 +1670,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -1645,7 +1682,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -1692,10 +1729,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1706,7 +1743,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
@@ -1718,7 +1755,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>27</v>
@@ -1774,24 +1811,34 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="H4" s="17">
+        <v>45198</v>
+      </c>
+      <c r="I4" s="17">
+        <v>45215</v>
+      </c>
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" t="s">
+      <c r="K4" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="L4" s="17">
         <v>45175</v>
@@ -1800,10 +1847,10 @@
         <v>45187</v>
       </c>
       <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>48</v>
       </c>
       <c r="P4" s="17">
         <v>45187</v>
@@ -1812,104 +1859,110 @@
         <v>45188</v>
       </c>
       <c r="V4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="W4" s="16" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" s="17">
+        <v>45176</v>
+      </c>
+      <c r="I5" s="17">
+        <v>45211</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="17">
+        <v>45163</v>
+      </c>
+      <c r="M5" s="17">
+        <v>45166</v>
+      </c>
+      <c r="N5" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="H5" s="17">
-        <v>45198</v>
-      </c>
-      <c r="I5" s="17">
-        <v>45215</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="17">
-        <v>45175</v>
-      </c>
-      <c r="M5" s="17">
+      <c r="O5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="17">
+        <v>45184</v>
+      </c>
+      <c r="Q5" s="17">
         <v>45187</v>
       </c>
-      <c r="N5" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="17">
-        <v>45187</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>45188</v>
-      </c>
-      <c r="V5" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>50</v>
+      <c r="R5" t="s">
+        <v>265</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="T5" s="17">
+        <v>45169</v>
+      </c>
+      <c r="U5" s="17">
+        <v>45211</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H6" s="17">
-        <v>45176</v>
+        <v>45211</v>
       </c>
       <c r="I6" s="17">
-        <v>45211</v>
+        <v>45217</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L6" s="17">
         <v>45163</v>
@@ -1918,10 +1971,10 @@
         <v>45166</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P6" s="17">
         <v>45184</v>
@@ -1930,10 +1983,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="T6" s="17">
         <v>45169</v>
@@ -1944,350 +1997,338 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>59</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>268</v>
+        <v>60</v>
       </c>
       <c r="H7" s="17">
-        <v>45211</v>
+        <v>45202</v>
       </c>
       <c r="I7" s="17">
-        <v>45217</v>
+        <v>45204</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="L7" s="17">
-        <v>45163</v>
+        <v>45189</v>
       </c>
       <c r="M7" s="17">
-        <v>45166</v>
-      </c>
-      <c r="N7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="17">
-        <v>45184</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>45187</v>
+        <v>45191</v>
       </c>
       <c r="R7" t="s">
-        <v>272</v>
+        <v>61</v>
       </c>
       <c r="S7" s="16" t="s">
-        <v>274</v>
+        <v>62</v>
       </c>
       <c r="T7" s="17">
-        <v>45169</v>
+        <v>45195</v>
       </c>
       <c r="U7" s="17">
-        <v>45211</v>
+        <v>45196</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="17">
+        <v>45163</v>
+      </c>
+      <c r="I8" s="17">
+        <v>45169</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="P8" s="17">
+        <v>45195</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>45201</v>
+      </c>
+      <c r="R8" t="s">
+        <v>203</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="T8" s="17">
         <v>45202</v>
       </c>
-      <c r="I8" s="17">
-        <v>45204</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="U8" s="17">
+        <v>45203</v>
+      </c>
+      <c r="V8" t="s">
+        <v>164</v>
+      </c>
+      <c r="W8" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="L8" s="17">
-        <v>45189</v>
-      </c>
-      <c r="M8" s="17">
-        <v>45191</v>
-      </c>
-      <c r="R8" t="s">
-        <v>66</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="17">
+      <c r="X8" s="17">
         <v>45195</v>
       </c>
-      <c r="U8" s="17">
-        <v>45196</v>
+      <c r="Y8" s="17">
+        <v>45201</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H9" s="17">
-        <v>45163</v>
+        <v>45191</v>
       </c>
       <c r="I9" s="17">
-        <v>45169</v>
+        <v>45198</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="17">
+        <v>45188</v>
+      </c>
+      <c r="M9" s="17">
+        <v>45191</v>
       </c>
       <c r="N9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="P9" s="17">
-        <v>45195</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>45201</v>
+        <v>45191</v>
       </c>
       <c r="R9" t="s">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c r="S9" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="T9" s="17">
-        <v>45203</v>
-      </c>
-      <c r="U9" s="17">
-        <v>45203</v>
-      </c>
-      <c r="V9" t="s">
-        <v>170</v>
-      </c>
-      <c r="W9" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="X9" s="17">
-        <v>45195</v>
-      </c>
-      <c r="Y9" s="17">
-        <v>45201</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="17">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="17">
         <v>45191</v>
-      </c>
-      <c r="I10" s="17">
-        <v>45198</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="17">
-        <v>45188</v>
       </c>
       <c r="M10" s="17">
         <v>45191</v>
       </c>
       <c r="N10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P10" s="17">
+        <v>45187</v>
+      </c>
+      <c r="Q10" s="17">
         <v>45191</v>
-      </c>
-      <c r="R10" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>208</v>
+        <v>91</v>
       </c>
       <c r="L11" s="17">
-        <v>45191</v>
-      </c>
-      <c r="M11" s="17">
-        <v>45191</v>
-      </c>
-      <c r="N11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="P11" s="17">
+        <v>45169</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="R11" t="s">
+        <v>92</v>
+      </c>
+      <c r="T11" s="17">
         <v>45187</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>45191</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>94</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="F12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="17">
+        <v>45187</v>
+      </c>
+      <c r="I12" s="17">
+        <v>45190</v>
       </c>
       <c r="J12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L12" s="17">
-        <v>45169</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="R12" t="s">
-        <v>97</v>
-      </c>
-      <c r="T12" s="17">
-        <v>45187</v>
+        <v>45180</v>
+      </c>
+      <c r="M12" s="17">
+        <v>45182</v>
+      </c>
+      <c r="N12" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="P12" s="17">
+        <v>45180</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>45182</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H13" s="17">
         <v>45187</v>
       </c>
       <c r="I13" s="17">
-        <v>45190</v>
+        <v>45196</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L13" s="17">
         <v>45180</v>
@@ -2296,10 +2337,10 @@
         <v>45182</v>
       </c>
       <c r="N13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P13" s="17">
         <v>45180</v>
@@ -2308,150 +2349,92 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="17">
-        <v>45187</v>
-      </c>
-      <c r="I14" s="17">
-        <v>45196</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="17">
-        <v>45180</v>
-      </c>
-      <c r="M14" s="17">
-        <v>45182</v>
-      </c>
-      <c r="N14" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P14" s="17">
-        <v>45180</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>45182</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Y14">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:Y13">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="W4" r:id="rId1" xr:uid="{0CDCB812-3D7D-49A9-94EE-0ACC49DA122E}"/>
     <hyperlink ref="O4" r:id="rId2" xr:uid="{C999AAB9-BD0A-422D-B36A-452F81B596CE}"/>
-    <hyperlink ref="W5" r:id="rId3" xr:uid="{2AF4488A-FD32-468C-AA69-D0689ABD1567}"/>
-    <hyperlink ref="K4" r:id="rId4" xr:uid="{7EE1460B-6EA0-49C2-826F-79F7B8DCBAB3}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{37ED720D-E62F-409B-9069-799CDEE24526}"/>
-    <hyperlink ref="K5" r:id="rId6" xr:uid="{BD6E4DFE-9AEC-4E78-ACBD-704B29A0E102}"/>
-    <hyperlink ref="O5" r:id="rId7" xr:uid="{057A103F-4963-44C2-8634-7C0AF3F6B641}"/>
-    <hyperlink ref="D5" r:id="rId8" xr:uid="{535A74EF-251A-44A7-8D5B-4C066FC93622}"/>
-    <hyperlink ref="O3" r:id="rId9" xr:uid="{0922966D-E007-4B25-A954-7BE3B5D5B14A}"/>
-    <hyperlink ref="S3" r:id="rId10" xr:uid="{E5B70060-5576-4E95-86C8-47DA1AA6F3CD}"/>
-    <hyperlink ref="O2" r:id="rId11" xr:uid="{31D66E5F-0E40-4D3A-B189-F41D50A431C0}"/>
-    <hyperlink ref="S2" r:id="rId12" xr:uid="{5E91850E-02EE-40A4-A720-805F324C8458}"/>
-    <hyperlink ref="K3" r:id="rId13" xr:uid="{DB33C3D0-F4C0-49DC-BB83-46F350238FDC}"/>
-    <hyperlink ref="K2" r:id="rId14" xr:uid="{10D10C8D-4E3F-4DE2-B50D-37558805BAE8}"/>
-    <hyperlink ref="G2" r:id="rId15" xr:uid="{99106F89-ECDC-4444-A4DA-C8146000A421}"/>
-    <hyperlink ref="D3" r:id="rId16" xr:uid="{BE8D79D0-F938-4AC6-AA17-85EE7BF038DC}"/>
-    <hyperlink ref="D2" r:id="rId17" display="mailto:info@seb.berkeley.edu" xr:uid="{6C4F6428-292E-4A76-B676-9C059151E98C}"/>
-    <hyperlink ref="D6" r:id="rId18" xr:uid="{94B09FDE-0C9E-418D-A442-213D46301151}"/>
-    <hyperlink ref="D8" r:id="rId19" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
-    <hyperlink ref="D9" r:id="rId20" display="mailto:aiaa@ucmerced.edu" xr:uid="{B9122146-4EB9-4993-B247-89323CDDBE8F}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
-    <hyperlink ref="D12" r:id="rId22" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
-    <hyperlink ref="D14" r:id="rId24" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
-    <hyperlink ref="K12" r:id="rId25" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
-    <hyperlink ref="K6" r:id="rId26" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
-    <hyperlink ref="S6" r:id="rId27" xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
-    <hyperlink ref="O6" r:id="rId28" xr:uid="{7A0DD70F-C5D4-48C1-9663-180F546AFAF1}"/>
-    <hyperlink ref="G13" r:id="rId29" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
-    <hyperlink ref="G9" r:id="rId30" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
-    <hyperlink ref="O11" r:id="rId31" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
-    <hyperlink ref="K10" r:id="rId32" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
-    <hyperlink ref="G10" r:id="rId33" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
-    <hyperlink ref="G14" r:id="rId34" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
-    <hyperlink ref="K14" r:id="rId35" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
-    <hyperlink ref="K13" r:id="rId36" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
-    <hyperlink ref="O13" r:id="rId37" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
-    <hyperlink ref="G8" r:id="rId38" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
-    <hyperlink ref="S8" r:id="rId39" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
-    <hyperlink ref="O10" r:id="rId40" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
-    <hyperlink ref="S10" r:id="rId41" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
-    <hyperlink ref="K8" r:id="rId42" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
-    <hyperlink ref="E2" r:id="rId43" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
-    <hyperlink ref="E3" r:id="rId44" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
-    <hyperlink ref="E4" r:id="rId45" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
-    <hyperlink ref="E5" r:id="rId46" xr:uid="{8AA421A5-2CB2-4199-A0C3-6D88D3FE546E}"/>
-    <hyperlink ref="E6" r:id="rId47" xr:uid="{F2AE074E-2173-4259-A7D2-851003DE826E}"/>
-    <hyperlink ref="E8" r:id="rId48" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
-    <hyperlink ref="E9" r:id="rId49" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
-    <hyperlink ref="E10" r:id="rId50" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
-    <hyperlink ref="E12" r:id="rId51" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
-    <hyperlink ref="E13" r:id="rId52" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
-    <hyperlink ref="E14" r:id="rId53" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
-    <hyperlink ref="O9" r:id="rId54" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
-    <hyperlink ref="W9" r:id="rId55" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
-    <hyperlink ref="O14" r:id="rId56" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
-    <hyperlink ref="W2" r:id="rId57" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
-    <hyperlink ref="K11" r:id="rId58" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
-    <hyperlink ref="G5" r:id="rId59" xr:uid="{AC806780-9930-4D5A-90A1-B6776DE010F1}"/>
-    <hyperlink ref="D7" r:id="rId60" xr:uid="{63D9B215-71F0-41D1-B390-B5E84D3AB6F7}"/>
-    <hyperlink ref="E7" r:id="rId61" xr:uid="{75A5AC05-D2F0-42DE-B22A-7BF6FFDD8BA3}"/>
-    <hyperlink ref="G7" r:id="rId62" xr:uid="{D47C2868-7BED-405F-967B-8FC9B1D7F53A}"/>
-    <hyperlink ref="G6" r:id="rId63" xr:uid="{181822E4-72DD-4002-BFEA-D7DE855D17FF}"/>
-    <hyperlink ref="K7" r:id="rId64" xr:uid="{F58A1DE0-A631-4B3F-B15F-08AA6B19C023}"/>
-    <hyperlink ref="O7" r:id="rId65" xr:uid="{4F094DC1-7253-482C-9FB1-24C5D6FBC779}"/>
-    <hyperlink ref="S7" r:id="rId66" xr:uid="{78D873E5-0B34-442C-8D45-7E07BDEDC8C5}"/>
-    <hyperlink ref="S9" r:id="rId67" xr:uid="{B2C000C9-37C0-4B5D-8331-8CC695827563}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{7EE1460B-6EA0-49C2-826F-79F7B8DCBAB3}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{37ED720D-E62F-409B-9069-799CDEE24526}"/>
+    <hyperlink ref="O3" r:id="rId5" xr:uid="{0922966D-E007-4B25-A954-7BE3B5D5B14A}"/>
+    <hyperlink ref="S3" r:id="rId6" xr:uid="{E5B70060-5576-4E95-86C8-47DA1AA6F3CD}"/>
+    <hyperlink ref="O2" r:id="rId7" xr:uid="{31D66E5F-0E40-4D3A-B189-F41D50A431C0}"/>
+    <hyperlink ref="S2" r:id="rId8" xr:uid="{5E91850E-02EE-40A4-A720-805F324C8458}"/>
+    <hyperlink ref="K3" r:id="rId9" xr:uid="{DB33C3D0-F4C0-49DC-BB83-46F350238FDC}"/>
+    <hyperlink ref="K2" r:id="rId10" xr:uid="{10D10C8D-4E3F-4DE2-B50D-37558805BAE8}"/>
+    <hyperlink ref="G2" r:id="rId11" xr:uid="{99106F89-ECDC-4444-A4DA-C8146000A421}"/>
+    <hyperlink ref="D3" r:id="rId12" xr:uid="{BE8D79D0-F938-4AC6-AA17-85EE7BF038DC}"/>
+    <hyperlink ref="D2" r:id="rId13" display="mailto:info@seb.berkeley.edu" xr:uid="{6C4F6428-292E-4A76-B676-9C059151E98C}"/>
+    <hyperlink ref="D5" r:id="rId14" xr:uid="{94B09FDE-0C9E-418D-A442-213D46301151}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{B6D0E1C8-3A09-45BA-A6EA-D29C2BF82A26}"/>
+    <hyperlink ref="D8" r:id="rId16" display="mailto:aiaa@ucmerced.edu" xr:uid="{B9122146-4EB9-4993-B247-89323CDDBE8F}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{C3DC0AAD-C2D2-479C-AD6E-7A093418CFB8}"/>
+    <hyperlink ref="D11" r:id="rId18" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
+    <hyperlink ref="K11" r:id="rId21" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
+    <hyperlink ref="K5" r:id="rId22" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
+    <hyperlink ref="S5" r:id="rId23" xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
+    <hyperlink ref="O5" r:id="rId24" xr:uid="{7A0DD70F-C5D4-48C1-9663-180F546AFAF1}"/>
+    <hyperlink ref="G12" r:id="rId25" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
+    <hyperlink ref="G8" r:id="rId26" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
+    <hyperlink ref="O10" r:id="rId27" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
+    <hyperlink ref="K9" r:id="rId28" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
+    <hyperlink ref="G9" r:id="rId29" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
+    <hyperlink ref="G13" r:id="rId30" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
+    <hyperlink ref="K13" r:id="rId31" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
+    <hyperlink ref="K12" r:id="rId32" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
+    <hyperlink ref="O12" r:id="rId33" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
+    <hyperlink ref="G7" r:id="rId34" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
+    <hyperlink ref="S7" r:id="rId35" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
+    <hyperlink ref="O9" r:id="rId36" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
+    <hyperlink ref="S9" r:id="rId37" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
+    <hyperlink ref="K7" r:id="rId38" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
+    <hyperlink ref="E2" r:id="rId39" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
+    <hyperlink ref="E3" r:id="rId40" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
+    <hyperlink ref="E4" r:id="rId41" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
+    <hyperlink ref="E5" r:id="rId42" xr:uid="{F2AE074E-2173-4259-A7D2-851003DE826E}"/>
+    <hyperlink ref="E7" r:id="rId43" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
+    <hyperlink ref="E8" r:id="rId44" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
+    <hyperlink ref="E9" r:id="rId45" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
+    <hyperlink ref="E11" r:id="rId46" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
+    <hyperlink ref="E12" r:id="rId47" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
+    <hyperlink ref="E13" r:id="rId48" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
+    <hyperlink ref="O8" r:id="rId49" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
+    <hyperlink ref="W8" r:id="rId50" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
+    <hyperlink ref="O13" r:id="rId51" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
+    <hyperlink ref="W2" r:id="rId52" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
+    <hyperlink ref="K10" r:id="rId53" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
+    <hyperlink ref="G4" r:id="rId54" xr:uid="{AC806780-9930-4D5A-90A1-B6776DE010F1}"/>
+    <hyperlink ref="D6" r:id="rId55" xr:uid="{63D9B215-71F0-41D1-B390-B5E84D3AB6F7}"/>
+    <hyperlink ref="E6" r:id="rId56" xr:uid="{75A5AC05-D2F0-42DE-B22A-7BF6FFDD8BA3}"/>
+    <hyperlink ref="G6" r:id="rId57" xr:uid="{D47C2868-7BED-405F-967B-8FC9B1D7F53A}"/>
+    <hyperlink ref="G5" r:id="rId58" xr:uid="{181822E4-72DD-4002-BFEA-D7DE855D17FF}"/>
+    <hyperlink ref="K6" r:id="rId59" xr:uid="{F58A1DE0-A631-4B3F-B15F-08AA6B19C023}"/>
+    <hyperlink ref="O6" r:id="rId60" xr:uid="{4F094DC1-7253-482C-9FB1-24C5D6FBC779}"/>
+    <hyperlink ref="S6" r:id="rId61" xr:uid="{78D873E5-0B34-442C-8D45-7E07BDEDC8C5}"/>
+    <hyperlink ref="S8" r:id="rId62" xr:uid="{B2C000C9-37C0-4B5D-8331-8CC695827563}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId68"/>
+    <tablePart r:id="rId63"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2460,19 +2443,18 @@
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.85546875" customWidth="1"/>
-    <col min="8" max="8" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.85546875" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>40</v>
@@ -2481,72 +2463,66 @@
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>256</v>
+        <v>125</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2560,107 +2536,98 @@
         <v>43</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2670,71 +2637,69 @@
       <c r="C6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>251</v>
+      </c>
       <c r="F6" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>258</v>
+        <v>59</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B8" s="19">
         <v>80</v>
@@ -2742,847 +2707,924 @@
       <c r="C8" s="19">
         <v>30</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="D8" s="19">
+        <v>60</v>
+      </c>
+      <c r="E8" s="19">
+        <v>40</v>
+      </c>
       <c r="F8" s="19">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G8" s="19">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="H8" s="19">
+        <v>15</v>
+      </c>
+      <c r="I8" s="19">
+        <v>50</v>
+      </c>
+      <c r="J8" s="19">
+        <v>60</v>
+      </c>
+      <c r="K8" s="19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="19">
-        <v>15</v>
-      </c>
-      <c r="J8" s="19">
-        <v>50</v>
-      </c>
-      <c r="K8" s="19">
-        <v>60</v>
-      </c>
-      <c r="L8" s="19">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>156</v>
-      </c>
       <c r="B9" s="19" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="J9" s="19" t="s">
+      <c r="F17" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="19" t="s">
+      <c r="J30" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="19" t="s">
+      <c r="K30" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>237</v>
       </c>
-      <c r="L17" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B31" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L19" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L21" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B32" s="19">
+        <v>2</v>
+      </c>
+      <c r="C32" s="19">
+        <v>1</v>
+      </c>
+      <c r="D32" s="19">
+        <v>1</v>
+      </c>
+      <c r="E32" s="19">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19">
+        <v>1</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2</v>
+      </c>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
+      <c r="J32" s="19">
+        <v>3</v>
+      </c>
+      <c r="K32" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+      <c r="F33" s="19">
+        <v>1</v>
+      </c>
+      <c r="G33" s="19">
+        <v>0</v>
+      </c>
+      <c r="H33" s="19">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
+        <v>0</v>
+      </c>
+      <c r="J33" s="19">
+        <v>0</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="I23" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>245</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>246</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I25" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="J26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="L27" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="19">
-        <v>2</v>
-      </c>
-      <c r="C31" s="19">
+      <c r="B34" s="19">
+        <v>0</v>
+      </c>
+      <c r="C34" s="19">
         <v>1</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19">
-        <v>1</v>
-      </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="19">
-        <v>2</v>
-      </c>
-      <c r="I31" s="19">
-        <v>1</v>
-      </c>
-      <c r="J31" s="19">
-        <v>1</v>
-      </c>
-      <c r="K31" s="19">
-        <v>3</v>
-      </c>
-      <c r="L31" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="19">
-        <v>1</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0</v>
-      </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19">
-        <v>0</v>
-      </c>
-      <c r="J32" s="19">
-        <v>0</v>
-      </c>
-      <c r="K32" s="19">
-        <v>0</v>
-      </c>
-      <c r="L32" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B33" s="19">
-        <v>0</v>
-      </c>
-      <c r="C33" s="19">
-        <v>1</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="19">
-        <v>1</v>
-      </c>
-      <c r="J33" s="19">
-        <v>0</v>
-      </c>
-      <c r="K33" s="19">
-        <v>0</v>
-      </c>
-      <c r="L33" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="19">
-        <v>1</v>
-      </c>
-      <c r="C34" s="19">
-        <v>0</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
       <c r="F34" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="19">
         <v>0</v>
@@ -3594,86 +3636,85 @@
         <v>0</v>
       </c>
       <c r="J34" s="19">
+        <v>0</v>
+      </c>
+      <c r="K34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="19">
         <v>1</v>
       </c>
-      <c r="K34" s="19">
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19">
+        <v>0</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>1</v>
+      </c>
+      <c r="J35" s="19">
         <v>3</v>
       </c>
-      <c r="L34" s="19">
+      <c r="K35" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B35" s="19">
-        <v>0</v>
-      </c>
-      <c r="C35" s="19">
-        <v>0</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="19">
+        <v>0</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0</v>
+      </c>
+      <c r="G36" s="19">
         <v>1</v>
       </c>
-      <c r="I35" s="19">
-        <v>0</v>
-      </c>
-      <c r="J35" s="19">
-        <v>0</v>
-      </c>
-      <c r="K35" s="19">
-        <v>0</v>
-      </c>
-      <c r="L35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>227</v>
-      </c>
-      <c r="B36" s="19">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19">
-        <v>1</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19">
-        <v>1</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0</v>
-      </c>
       <c r="H36" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" s="19">
         <v>0</v>
       </c>
       <c r="J36" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="19">
-        <v>3</v>
-      </c>
-      <c r="L36" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="B37" s="19">
         <v>1</v>
@@ -3681,416 +3722,432 @@
       <c r="C37" s="19">
         <v>1</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="19">
+        <v>1</v>
+      </c>
+      <c r="E37" s="19">
+        <v>1</v>
+      </c>
       <c r="F37" s="19">
+        <v>0</v>
+      </c>
+      <c r="G37" s="19">
+        <v>2</v>
+      </c>
+      <c r="H37" s="19">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
         <v>1</v>
       </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-      <c r="H37" s="19">
+      <c r="J37" s="19">
+        <v>3</v>
+      </c>
+      <c r="K37" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="19">
         <v>1</v>
       </c>
-      <c r="I37" s="19">
-        <v>0</v>
-      </c>
-      <c r="J37" s="19">
+      <c r="C38" s="19">
         <v>1</v>
       </c>
-      <c r="K37" s="19">
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
+      <c r="J38" s="19">
         <v>3</v>
       </c>
-      <c r="L37" s="19">
+      <c r="K38" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="19">
-        <v>0</v>
-      </c>
-      <c r="C38" s="19">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="19">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="19">
+        <v>0</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
         <v>1</v>
       </c>
-      <c r="I38" s="19">
-        <v>0</v>
-      </c>
-      <c r="J38" s="19">
-        <v>0</v>
-      </c>
-      <c r="K38" s="19">
-        <v>0</v>
-      </c>
-      <c r="L38" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>270</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>243</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="B39" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19" t="s">
+      <c r="E41" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>148</v>
       </c>
-      <c r="G39" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="J39" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L39" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>249</v>
-      </c>
-      <c r="B40" s="19" t="s">
+      <c r="B47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>231</v>
-      </c>
-      <c r="B41" s="19" t="s">
+      <c r="B48" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C48" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19" t="s">
+      <c r="D48" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="G41" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="K41" s="19" t="s">
+      <c r="I48" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="L41" s="19" t="s">
+      <c r="J48" s="19" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>248</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="L42" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>168</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="L46" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="L47" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="19">
-        <v>4</v>
-      </c>
-      <c r="C48" s="19">
-        <v>3</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19">
-        <v>4</v>
-      </c>
-      <c r="G48" s="19">
-        <v>4</v>
-      </c>
-      <c r="H48" s="19">
-        <v>4</v>
-      </c>
-      <c r="I48" s="19">
-        <v>2</v>
-      </c>
-      <c r="J48" s="19">
-        <v>2</v>
-      </c>
-      <c r="K48" s="19">
-        <v>1</v>
-      </c>
-      <c r="L48" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K48" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B49" s="19">
         <v>4</v>
       </c>
       <c r="C49" s="19">
-        <v>2</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="D49" s="19">
+        <v>1</v>
+      </c>
+      <c r="E49" s="19">
+        <v>4</v>
+      </c>
       <c r="F49" s="19">
         <v>4</v>
       </c>
@@ -4098,38 +4155,39 @@
         <v>4</v>
       </c>
       <c r="H49" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I49" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" s="19">
         <v>1</v>
       </c>
       <c r="K49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="19">
+        <v>4</v>
+      </c>
+      <c r="C50" s="19">
+        <v>2</v>
+      </c>
+      <c r="D50" s="19">
         <v>1</v>
       </c>
-      <c r="L49" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" s="19">
-        <v>0</v>
-      </c>
-      <c r="C50" s="19">
-        <v>1</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="E50" s="19">
+        <v>4</v>
+      </c>
       <c r="F50" s="19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H50" s="19">
         <v>0</v>
@@ -4138,37 +4196,72 @@
         <v>1</v>
       </c>
       <c r="J50" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="19">
-        <v>0</v>
-      </c>
-      <c r="L50" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="19">
+        <v>0</v>
+      </c>
+      <c r="C51" s="19">
+        <v>1</v>
+      </c>
+      <c r="D51" s="19">
+        <v>0</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0</v>
+      </c>
+      <c r="F51" s="19">
+        <v>0</v>
+      </c>
+      <c r="G51" s="19">
+        <v>0</v>
+      </c>
+      <c r="H51" s="19">
+        <v>1</v>
+      </c>
+      <c r="I51" s="19">
+        <v>0</v>
+      </c>
+      <c r="J51" s="19">
+        <v>0</v>
+      </c>
+      <c r="K51" s="19">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:K51">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="**Needs Update**">
+      <formula>NOT(ISERROR(SEARCH("**Needs Update**",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{E17D1620-FCEF-447A-8535-02976B5016E6}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{61E40C38-615E-4981-9ED0-E9C14928FD3F}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{8BE6E030-73D5-415D-87EF-AD47B79991B7}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{C953C00D-86A1-4D3D-95D5-68715AB52EAB}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{E5D4F5FC-CCD5-4FCC-8DD0-F02477E58CD8}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{C3D4706E-A302-4E0A-B5C7-83B5B4F5FD16}"/>
-    <hyperlink ref="H4" r:id="rId7" xr:uid="{EA6937E3-3703-4B61-8357-CE9ECA924A73}"/>
-    <hyperlink ref="I4" r:id="rId8" xr:uid="{08E56596-3E4F-42D3-88E8-4EE2BEA14CA6}"/>
-    <hyperlink ref="I5" r:id="rId9" xr:uid="{6E7627F9-FC05-4F44-BBC8-73073562D9CD}"/>
-    <hyperlink ref="E5" r:id="rId10" xr:uid="{3C749E12-DF6E-4371-B45B-21E1B8A7BCA7}"/>
-    <hyperlink ref="D4" r:id="rId11" xr:uid="{4B5678E8-7C3C-44FC-B9FB-1E074FEB6AFD}"/>
-    <hyperlink ref="E4" r:id="rId12" xr:uid="{B8335E59-BA55-499A-8D65-8AD71377238A}"/>
-    <hyperlink ref="D5" r:id="rId13" xr:uid="{A649114B-92F5-4C5A-9C9A-E931516097A2}"/>
-    <hyperlink ref="J4" r:id="rId14" xr:uid="{1E731822-5132-4919-B64C-0E8CB2DF8DDD}"/>
-    <hyperlink ref="J5" r:id="rId15" xr:uid="{4BD48FC1-1D2A-4300-8A6F-C8B628AC5C86}"/>
-    <hyperlink ref="K5" r:id="rId16" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
-    <hyperlink ref="L5" r:id="rId17" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
-    <hyperlink ref="L4" r:id="rId18" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
-    <hyperlink ref="G4" r:id="rId19" xr:uid="{6652E533-19FE-455A-8F1B-6E845F0A6D9E}"/>
-    <hyperlink ref="G5" r:id="rId20" xr:uid="{779E50B1-CDC9-44F8-8467-9E3AB3C4136B}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{E5D4F5FC-CCD5-4FCC-8DD0-F02477E58CD8}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{C3D4706E-A302-4E0A-B5C7-83B5B4F5FD16}"/>
+    <hyperlink ref="G4" r:id="rId7" xr:uid="{EA6937E3-3703-4B61-8357-CE9ECA924A73}"/>
+    <hyperlink ref="H4" r:id="rId8" xr:uid="{08E56596-3E4F-42D3-88E8-4EE2BEA14CA6}"/>
+    <hyperlink ref="H5" r:id="rId9" xr:uid="{6E7627F9-FC05-4F44-BBC8-73073562D9CD}"/>
+    <hyperlink ref="D4" r:id="rId10" xr:uid="{4B5678E8-7C3C-44FC-B9FB-1E074FEB6AFD}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{A649114B-92F5-4C5A-9C9A-E931516097A2}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{1E731822-5132-4919-B64C-0E8CB2DF8DDD}"/>
+    <hyperlink ref="I5" r:id="rId13" xr:uid="{4BD48FC1-1D2A-4300-8A6F-C8B628AC5C86}"/>
+    <hyperlink ref="J5" r:id="rId14" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
+    <hyperlink ref="K5" r:id="rId15" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
+    <hyperlink ref="K4" r:id="rId16" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
+    <hyperlink ref="F4" r:id="rId17" xr:uid="{6652E533-19FE-455A-8F1B-6E845F0A6D9E}"/>
+    <hyperlink ref="F5" r:id="rId18" xr:uid="{779E50B1-CDC9-44F8-8467-9E3AB3C4136B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44751C81-0D3E-4CC8-9447-C64017FDC203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEB8EB-6C03-4B3E-99B9-E57EEEC3207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="24480" yWindow="90" windowWidth="20010" windowHeight="20235" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="287">
   <si>
     <t>Name</t>
   </si>
@@ -522,9 +522,6 @@
     <t>ckolodziej@ehs.ucla.edu, calli@ehs.ucla.edu</t>
   </si>
   <si>
-    <t>40ft Airstream Trailer</t>
-  </si>
-  <si>
     <t>Fuel at Launch</t>
   </si>
   <si>
@@ -895,6 +892,12 @@
   </si>
   <si>
     <t>MESA (SRE)</t>
+  </si>
+  <si>
+    <t>40ft Airstream Trailer (unused)</t>
+  </si>
+  <si>
+    <t>FAR, ROC</t>
   </si>
 </sst>
 </file>
@@ -1558,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
@@ -1729,10 +1732,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>200</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1811,22 +1814,22 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="17">
         <v>45198</v>
@@ -1867,10 +1870,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1882,10 +1885,10 @@
         <v>116</v>
       </c>
       <c r="F5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>264</v>
       </c>
       <c r="H5" s="17">
         <v>45176</v>
@@ -1918,10 +1921,10 @@
         <v>45187</v>
       </c>
       <c r="R5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T5" s="17">
         <v>45169</v>
@@ -1932,10 +1935,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1947,10 +1950,10 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>262</v>
       </c>
       <c r="H6" s="17">
         <v>45211</v>
@@ -1983,10 +1986,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T6" s="17">
         <v>45169</v>
@@ -2083,7 +2086,7 @@
         <v>69</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P8" s="17">
         <v>45195</v>
@@ -2092,10 +2095,10 @@
         <v>45201</v>
       </c>
       <c r="R8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T8" s="17">
         <v>45202</v>
@@ -2104,10 +2107,10 @@
         <v>45203</v>
       </c>
       <c r="V8" t="s">
+        <v>163</v>
+      </c>
+      <c r="W8" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="W8" s="16" t="s">
-        <v>165</v>
       </c>
       <c r="X8" s="17">
         <v>45195</v>
@@ -2189,7 +2192,7 @@
         <v>84</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L10" s="17">
         <v>45191</v>
@@ -2245,7 +2248,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" t="s">
         <v>107</v>
@@ -2430,11 +2433,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41:XFD41"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2463,13 +2466,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>125</v>
@@ -2501,10 +2504,10 @@
         <v>42</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>157</v>
@@ -2516,7 +2519,7 @@
         <v>70</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>101</v>
@@ -2603,7 +2606,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>51</v>
@@ -2615,7 +2618,7 @@
         <v>58</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>72</v>
@@ -2638,19 +2641,19 @@
         <v>27</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>252</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>73</v>
@@ -2659,7 +2662,7 @@
         <v>95</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2673,7 +2676,7 @@
         <v>138</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>158</v>
@@ -2685,7 +2688,7 @@
         <v>138</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>138</v>
@@ -2743,28 +2746,28 @@
         <v>155</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>254</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2772,39 +2775,39 @@
         <v>152</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>256</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>142</v>
@@ -2816,10 +2819,10 @@
         <v>142</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>142</v>
@@ -2831,15 +2834,15 @@
         <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>142</v>
@@ -2851,30 +2854,30 @@
         <v>142</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>283</v>
-      </c>
       <c r="K12" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>143</v>
@@ -2883,7 +2886,7 @@
         <v>143</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>143</v>
@@ -2892,24 +2895,24 @@
         <v>143</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>143</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>144</v>
@@ -2930,10 +2933,10 @@
         <v>142</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>142</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>142</v>
@@ -2962,10 +2965,10 @@
         <v>142</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I15" s="19" t="s">
         <v>142</v>
@@ -2979,7 +2982,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>142</v>
@@ -2988,7 +2991,7 @@
         <v>142</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>142</v>
@@ -3003,7 +3006,7 @@
         <v>142</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>142</v>
@@ -3026,13 +3029,13 @@
         <v>142</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>142</v>
@@ -3041,7 +3044,7 @@
         <v>142</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>142</v>
@@ -3049,7 +3052,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>146</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>145</v>
@@ -3119,7 +3122,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>146</v>
@@ -3154,7 +3157,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>146</v>
@@ -3189,7 +3192,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>145</v>
@@ -3224,10 +3227,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>145</v>
@@ -3242,28 +3245,28 @@
         <v>145</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>145</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>145</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>217</v>
-      </c>
       <c r="C24" s="19" t="s">
         <v>145</v>
       </c>
@@ -3271,30 +3274,30 @@
         <v>145</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>142</v>
+        <v>216</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>146</v>
@@ -3309,27 +3312,27 @@
         <v>145</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>146</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>145</v>
@@ -3344,7 +3347,7 @@
         <v>145</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>146</v>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>146</v>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>145</v>
@@ -3493,10 +3496,10 @@
         <v>145</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>145</v>
@@ -3504,10 +3507,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>146</v>
@@ -3522,24 +3525,24 @@
         <v>146</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="19">
         <v>2</v>
@@ -3574,7 +3577,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B33" s="19">
         <v>1</v>
@@ -3589,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="19">
         <v>0</v>
@@ -3609,7 +3612,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B34" s="19">
         <v>0</v>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B37" s="19">
         <v>1</v>
@@ -3819,28 +3822,28 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>245</v>
-      </c>
       <c r="H40" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I40" s="19" t="s">
         <v>142</v>
@@ -3849,82 +3852,82 @@
         <v>142</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>142</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>142</v>
       </c>
       <c r="G42" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>230</v>
-      </c>
       <c r="J42" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>142</v>
@@ -3933,16 +3936,16 @@
         <v>142</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>142</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>142</v>
@@ -3974,7 +3977,7 @@
         <v>145</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>146</v>
@@ -3983,7 +3986,7 @@
         <v>145</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>145</v>
@@ -4009,7 +4012,7 @@
         <v>145</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>146</v>
@@ -4029,37 +4032,37 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="H46" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -4079,13 +4082,13 @@
         <v>149</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>149</v>
+        <v>286</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>149</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I47" s="19" t="s">
         <v>149</v>
@@ -4099,37 +4102,37 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>231</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>233</v>
-      </c>
       <c r="C48" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4149,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G49" s="19">
         <v>4</v>
@@ -4184,7 +4187,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" s="19">
         <v>6</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>
@@ -4219,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="19">
         <v>0</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\User\Documents\GitHub\rocketry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91BEB8EB-6C03-4B3E-99B9-E57EEEC3207A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF849A60-2E18-499B-A805-06C2FE2AC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="90" windowWidth="20010" windowHeight="20235" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="18885" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2167,6 +2167,9 @@
       </c>
       <c r="P9" s="17">
         <v>45191</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>45223</v>
       </c>
       <c r="R9" t="s">
         <v>79</v>
@@ -2434,10 +2437,10 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3545,34 +3548,44 @@
         <v>219</v>
       </c>
       <c r="B32" s="19">
+        <f t="shared" ref="B32:H32" si="0">SUM(B33:B36)</f>
         <v>2</v>
       </c>
       <c r="C32" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D32" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E32" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="19">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G32" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H32" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I32" s="19">
+        <f>SUM(I33:I36)</f>
         <v>1</v>
       </c>
       <c r="J32" s="19">
-        <v>3</v>
+        <f t="shared" ref="J32:K32" si="1">SUM(J33:J36)</f>
+        <v>1</v>
       </c>
       <c r="K32" s="19">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3674,10 +3687,10 @@
         <v>1</v>
       </c>
       <c r="J35" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3720,34 +3733,44 @@
         <v>220</v>
       </c>
       <c r="B37" s="19">
+        <f>SUM(B38:B39)</f>
         <v>1</v>
       </c>
       <c r="C37" s="19">
+        <f t="shared" ref="C37:K37" si="2">SUM(C38:C39)</f>
         <v>1</v>
       </c>
       <c r="D37" s="19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="E37" s="19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F37" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="19">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H37" s="19">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I37" s="19">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J37" s="19">
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="K37" s="19">
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3779,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" s="19">
         <v>1</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF849A60-2E18-499B-A805-06C2FE2AC6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F71C0-7D39-439F-8EB6-76C260986256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="18885" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
@@ -2437,10 +2437,10 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3614,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="19">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="19">
         <v>1</v>
@@ -3869,7 +3869,7 @@
         <v>243</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>142</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338F71C0-7D39-439F-8EB6-76C260986256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B24D6-58C6-4C98-8EF1-EC633561FDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="18885" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="288">
   <si>
     <t>Name</t>
   </si>
@@ -618,9 +618,6 @@
     <t>FLABOB</t>
   </si>
   <si>
-    <t>Winston Chung, Machine Shop, Makerspace</t>
-  </si>
-  <si>
     <t>Solid Motors</t>
   </si>
   <si>
@@ -898,6 +895,12 @@
   </si>
   <si>
     <t>FAR, ROC</t>
+  </si>
+  <si>
+    <t>Machine Shop, Makerspace</t>
+  </si>
+  <si>
+    <t>Winston Chung **Needs Update**</t>
   </si>
 </sst>
 </file>
@@ -1732,10 +1735,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="23" t="s">
         <v>199</v>
-      </c>
-      <c r="W2" s="23" t="s">
-        <v>200</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1814,22 +1817,22 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H4" s="17">
         <v>45198</v>
@@ -1870,10 +1873,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1885,10 +1888,10 @@
         <v>116</v>
       </c>
       <c r="F5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>263</v>
       </c>
       <c r="H5" s="17">
         <v>45176</v>
@@ -1921,10 +1924,10 @@
         <v>45187</v>
       </c>
       <c r="R5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T5" s="17">
         <v>45169</v>
@@ -1935,10 +1938,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1950,10 +1953,10 @@
         <v>116</v>
       </c>
       <c r="F6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>260</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="H6" s="17">
         <v>45211</v>
@@ -1986,10 +1989,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T6" s="17">
         <v>45169</v>
@@ -2095,10 +2098,10 @@
         <v>45201</v>
       </c>
       <c r="R8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="T8" s="17">
         <v>45202</v>
@@ -2195,7 +2198,7 @@
         <v>84</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L10" s="17">
         <v>45191</v>
@@ -2437,10 +2440,10 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,13 +2472,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>125</v>
@@ -2507,10 +2510,10 @@
         <v>42</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>157</v>
@@ -2609,7 +2612,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>51</v>
@@ -2644,13 +2647,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>250</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>251</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>59</v>
@@ -2749,13 +2752,13 @@
         <v>155</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>172</v>
@@ -2767,7 +2770,7 @@
         <v>189</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>184</v>
@@ -2778,25 +2781,25 @@
         <v>152</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E10" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>254</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>181</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>190</v>
@@ -2810,7 +2813,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>142</v>
@@ -2822,10 +2825,10 @@
         <v>142</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>142</v>
@@ -2837,15 +2840,15 @@
         <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>142</v>
@@ -2863,24 +2866,24 @@
         <v>145</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="J12" s="19" t="s">
-        <v>282</v>
-      </c>
       <c r="K12" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>143</v>
@@ -2889,7 +2892,7 @@
         <v>143</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>143</v>
@@ -2904,18 +2907,18 @@
         <v>143</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="J13" s="19" t="s">
         <v>173</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>144</v>
@@ -2950,7 +2953,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>142</v>
@@ -2985,7 +2988,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>142</v>
@@ -2994,7 +2997,7 @@
         <v>142</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>142</v>
@@ -3032,10 +3035,10 @@
         <v>142</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>174</v>
@@ -3047,7 +3050,7 @@
         <v>142</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>142</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>146</v>
@@ -3090,7 +3093,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>145</v>
@@ -3125,7 +3128,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>146</v>
@@ -3160,7 +3163,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>146</v>
@@ -3195,7 +3198,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>145</v>
@@ -3230,10 +3233,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>145</v>
@@ -3248,28 +3251,28 @@
         <v>145</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>145</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>145</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>216</v>
-      </c>
       <c r="C24" s="19" t="s">
         <v>145</v>
       </c>
@@ -3277,30 +3280,30 @@
         <v>145</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>146</v>
@@ -3321,21 +3324,21 @@
         <v>146</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>145</v>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>146</v>
@@ -3405,7 +3408,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>145</v>
@@ -3499,7 +3502,7 @@
         <v>145</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>179</v>
@@ -3510,10 +3513,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>146</v>
@@ -3528,24 +3531,24 @@
         <v>146</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B32" s="19">
         <f t="shared" ref="B32:H32" si="0">SUM(B33:B36)</f>
@@ -3590,7 +3593,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B33" s="19">
         <v>1</v>
@@ -3625,7 +3628,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B34" s="19">
         <v>0</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B37" s="19">
         <f>SUM(B38:B39)</f>
@@ -3845,51 +3848,51 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>244</v>
-      </c>
       <c r="H40" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J40" s="19" t="s">
         <v>142</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>180</v>
@@ -3898,13 +3901,13 @@
         <v>142</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J41" s="19" t="s">
         <v>180</v>
@@ -3915,42 +3918,42 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>142</v>
       </c>
       <c r="G42" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>229</v>
-      </c>
       <c r="J42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>142</v>
@@ -3959,16 +3962,16 @@
         <v>142</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>142</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>142</v>
@@ -4009,7 +4012,7 @@
         <v>145</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J44" s="19" t="s">
         <v>145</v>
@@ -4064,10 +4067,10 @@
         <v>187</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>142</v>
@@ -4079,7 +4082,7 @@
         <v>170</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>180</v>
@@ -4105,7 +4108,7 @@
         <v>149</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>149</v>
@@ -4125,37 +4128,37 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>232</v>
-      </c>
       <c r="C48" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4230,7 +4233,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164B24D6-58C6-4C98-8EF1-EC633561FDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C1A527-1BF3-4878-B651-38ED0F8AE446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="38700" windowHeight="18885" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="20145" yWindow="3315" windowWidth="26505" windowHeight="10875" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -1564,8 +1564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C1A527-1BF3-4878-B651-38ED0F8AE446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4093F4-AC2E-4934-8FB6-45647B934EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20145" yWindow="3315" windowWidth="26505" windowHeight="10875" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="1110" yWindow="180" windowWidth="21120" windowHeight="20325" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -309,15 +309,6 @@
     <t xml:space="preserve">ucscrocketclub@gmail.com </t>
   </si>
   <si>
-    <t>Tela Favaloro</t>
-  </si>
-  <si>
-    <t>tfavalor@ucsc.edu</t>
-  </si>
-  <si>
-    <t>Sue Carter</t>
-  </si>
-  <si>
     <t>UC San Diego</t>
   </si>
   <si>
@@ -901,6 +892,48 @@
   </si>
   <si>
     <t>Winston Chung **Needs Update**</t>
+  </si>
+  <si>
+    <t>Qingyuan Cao</t>
+  </si>
+  <si>
+    <t>qcao10@ucsc.edu</t>
+  </si>
+  <si>
+    <t>Nick Kouatli</t>
+  </si>
+  <si>
+    <t>nkouatli@ucsc.edu</t>
+  </si>
+  <si>
+    <t>Jennifer Yeager</t>
+  </si>
+  <si>
+    <t>RTUCSC</t>
+  </si>
+  <si>
+    <t>NASA Student Launch</t>
+  </si>
+  <si>
+    <t>RSO (eng.)</t>
+  </si>
+  <si>
+    <t>USLI, TVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dedicated Storage, basement of eng.1 </t>
+  </si>
+  <si>
+    <t>Kinda</t>
+  </si>
+  <si>
+    <t>Yes, Competition Mentor</t>
+  </si>
+  <si>
+    <t>FAR, Snow Ranch, TCC, Misfit Flats</t>
+  </si>
+  <si>
+    <t>Fleet Services</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -1131,6 +1164,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1564,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G13"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -1620,7 +1654,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>5</v>
@@ -1676,7 +1710,7 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -1688,7 +1722,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>18</v>
@@ -1735,10 +1769,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1749,7 +1783,7 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>41</v>
@@ -1761,7 +1795,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>27</v>
@@ -1817,22 +1851,22 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H4" s="17">
         <v>45198</v>
@@ -1873,10 +1907,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1885,13 +1919,13 @@
         <v>51</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H5" s="17">
         <v>45176</v>
@@ -1924,10 +1958,10 @@
         <v>45187</v>
       </c>
       <c r="R5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="T5" s="17">
         <v>45169</v>
@@ -1938,10 +1972,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1950,13 +1984,13 @@
         <v>51</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H6" s="17">
         <v>45211</v>
@@ -1989,10 +2023,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="T6" s="17">
         <v>45169</v>
@@ -2006,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
         <v>57</v>
@@ -2015,7 +2049,7 @@
         <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2030,10 +2064,10 @@
         <v>45204</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L7" s="17">
         <v>45189</v>
@@ -2059,7 +2093,7 @@
         <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>
@@ -2068,7 +2102,7 @@
         <v>65</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2089,7 +2123,7 @@
         <v>69</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P8" s="17">
         <v>45195</v>
@@ -2098,10 +2132,10 @@
         <v>45201</v>
       </c>
       <c r="R8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T8" s="17">
         <v>45202</v>
@@ -2110,10 +2144,10 @@
         <v>45203</v>
       </c>
       <c r="V8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="W8" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="X8" s="17">
         <v>45195</v>
@@ -2127,7 +2161,7 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" t="s">
         <v>71</v>
@@ -2136,7 +2170,7 @@
         <v>72</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F9" t="s">
         <v>73</v>
@@ -2186,7 +2220,7 @@
         <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>82</v>
@@ -2198,7 +2232,7 @@
         <v>84</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L10" s="17">
         <v>45191</v>
@@ -2224,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
         <v>88</v>
@@ -2233,46 +2267,58 @@
         <v>89</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="17">
+        <v>45244</v>
+      </c>
+      <c r="I11" s="17">
+        <v>45245</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>91</v>
+        <v>288</v>
       </c>
       <c r="L11" s="17">
-        <v>45169</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="R11" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" s="17">
-        <v>45187</v>
-      </c>
+        <v>45239</v>
+      </c>
+      <c r="M11" s="24">
+        <v>45245</v>
+      </c>
+      <c r="N11" t="s">
+        <v>289</v>
+      </c>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="H12" s="17">
         <v>45187</v>
@@ -2281,10 +2327,10 @@
         <v>45190</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L12" s="17">
         <v>45180</v>
@@ -2293,10 +2339,10 @@
         <v>45182</v>
       </c>
       <c r="N12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P12" s="17">
         <v>45180</v>
@@ -2307,25 +2353,25 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="17">
         <v>45187</v>
@@ -2334,10 +2380,10 @@
         <v>45196</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L13" s="17">
         <v>45180</v>
@@ -2346,10 +2392,10 @@
         <v>45182</v>
       </c>
       <c r="N13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P13" s="17">
         <v>45180</v>
@@ -2385,48 +2431,48 @@
     <hyperlink ref="D11" r:id="rId18" display="mailto:ucscrocketclub@gmail.com" xr:uid="{10BB4B2B-D929-4826-B98B-889C499CC866}"/>
     <hyperlink ref="D12" r:id="rId19" xr:uid="{11EC2470-A929-4439-9740-A7AB71963888}"/>
     <hyperlink ref="D13" r:id="rId20" xr:uid="{C655801D-1B9D-49BB-B423-47F67EB67AF0}"/>
-    <hyperlink ref="K11" r:id="rId21" xr:uid="{D296C8B1-B4DC-466A-996A-F1D22B4F8D06}"/>
-    <hyperlink ref="K5" r:id="rId22" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
-    <hyperlink ref="S5" r:id="rId23" xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
-    <hyperlink ref="O5" r:id="rId24" xr:uid="{7A0DD70F-C5D4-48C1-9663-180F546AFAF1}"/>
-    <hyperlink ref="G12" r:id="rId25" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
-    <hyperlink ref="G8" r:id="rId26" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
-    <hyperlink ref="O10" r:id="rId27" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
-    <hyperlink ref="K9" r:id="rId28" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
-    <hyperlink ref="G9" r:id="rId29" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
-    <hyperlink ref="G13" r:id="rId30" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
-    <hyperlink ref="K13" r:id="rId31" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
-    <hyperlink ref="K12" r:id="rId32" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
-    <hyperlink ref="O12" r:id="rId33" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
-    <hyperlink ref="G7" r:id="rId34" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
-    <hyperlink ref="S7" r:id="rId35" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
-    <hyperlink ref="O9" r:id="rId36" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
-    <hyperlink ref="S9" r:id="rId37" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
-    <hyperlink ref="K7" r:id="rId38" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
-    <hyperlink ref="E2" r:id="rId39" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
-    <hyperlink ref="E3" r:id="rId40" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
-    <hyperlink ref="E4" r:id="rId41" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
-    <hyperlink ref="E5" r:id="rId42" xr:uid="{F2AE074E-2173-4259-A7D2-851003DE826E}"/>
-    <hyperlink ref="E7" r:id="rId43" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
-    <hyperlink ref="E8" r:id="rId44" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
-    <hyperlink ref="E9" r:id="rId45" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
-    <hyperlink ref="E11" r:id="rId46" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
-    <hyperlink ref="E12" r:id="rId47" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
-    <hyperlink ref="E13" r:id="rId48" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
-    <hyperlink ref="O8" r:id="rId49" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
-    <hyperlink ref="W8" r:id="rId50" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
-    <hyperlink ref="O13" r:id="rId51" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
-    <hyperlink ref="W2" r:id="rId52" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
-    <hyperlink ref="K10" r:id="rId53" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
-    <hyperlink ref="G4" r:id="rId54" xr:uid="{AC806780-9930-4D5A-90A1-B6776DE010F1}"/>
-    <hyperlink ref="D6" r:id="rId55" xr:uid="{63D9B215-71F0-41D1-B390-B5E84D3AB6F7}"/>
-    <hyperlink ref="E6" r:id="rId56" xr:uid="{75A5AC05-D2F0-42DE-B22A-7BF6FFDD8BA3}"/>
-    <hyperlink ref="G6" r:id="rId57" xr:uid="{D47C2868-7BED-405F-967B-8FC9B1D7F53A}"/>
-    <hyperlink ref="G5" r:id="rId58" xr:uid="{181822E4-72DD-4002-BFEA-D7DE855D17FF}"/>
-    <hyperlink ref="K6" r:id="rId59" xr:uid="{F58A1DE0-A631-4B3F-B15F-08AA6B19C023}"/>
-    <hyperlink ref="O6" r:id="rId60" xr:uid="{4F094DC1-7253-482C-9FB1-24C5D6FBC779}"/>
-    <hyperlink ref="S6" r:id="rId61" xr:uid="{78D873E5-0B34-442C-8D45-7E07BDEDC8C5}"/>
-    <hyperlink ref="S8" r:id="rId62" xr:uid="{B2C000C9-37C0-4B5D-8331-8CC695827563}"/>
+    <hyperlink ref="K5" r:id="rId21" xr:uid="{5B6A3EA0-9B2B-44FC-A502-FA543EBE7ACB}"/>
+    <hyperlink ref="S5" r:id="rId22" xr:uid="{CB6FCB60-6503-431B-BC85-F37C1F1E2030}"/>
+    <hyperlink ref="O5" r:id="rId23" xr:uid="{7A0DD70F-C5D4-48C1-9663-180F546AFAF1}"/>
+    <hyperlink ref="G12" r:id="rId24" xr:uid="{C07A0D52-B906-4BB2-9926-C5F8EC5514CF}"/>
+    <hyperlink ref="G8" r:id="rId25" xr:uid="{7D878F06-E104-4D0D-9C52-C66729B9B8FC}"/>
+    <hyperlink ref="O10" r:id="rId26" xr:uid="{1C97A062-424F-4069-A6EF-2A8C177AA38B}"/>
+    <hyperlink ref="K9" r:id="rId27" xr:uid="{A15E9969-437F-4341-9BEE-DF6F7C0D0D95}"/>
+    <hyperlink ref="G9" r:id="rId28" xr:uid="{16A9594B-CDCA-438E-8D51-AAF7E4C4E5EF}"/>
+    <hyperlink ref="G13" r:id="rId29" xr:uid="{84D63E01-C5AE-4325-87B0-8A47CE1A0DF5}"/>
+    <hyperlink ref="K13" r:id="rId30" xr:uid="{972F73D0-93DB-4705-B74F-CCF63D6D67A6}"/>
+    <hyperlink ref="K12" r:id="rId31" xr:uid="{8F95CDBA-8B4A-4B38-BD22-411D072F4675}"/>
+    <hyperlink ref="O12" r:id="rId32" xr:uid="{C41ACF24-7F67-47C7-A26F-9225471495FC}"/>
+    <hyperlink ref="G7" r:id="rId33" xr:uid="{43A6BF63-38E1-4B1F-AD7C-E7A6671211AE}"/>
+    <hyperlink ref="S7" r:id="rId34" xr:uid="{62E526E6-A15F-4201-B09B-CD1FDFBC005A}"/>
+    <hyperlink ref="O9" r:id="rId35" xr:uid="{611B6338-9EB5-4EA2-B8C0-E5C0A1AE4CFA}"/>
+    <hyperlink ref="S9" r:id="rId36" xr:uid="{6288DF9C-3D4D-46C2-BB14-75E39372C4C9}"/>
+    <hyperlink ref="K7" r:id="rId37" display="ckolodziej@ehs.ucla.edu" xr:uid="{22D864A6-E714-4A03-8B74-1B0693715DB1}"/>
+    <hyperlink ref="E2" r:id="rId38" xr:uid="{F34B3277-5159-4F06-A4FD-E74D54366BF3}"/>
+    <hyperlink ref="E3" r:id="rId39" xr:uid="{970B2663-B501-46F7-AA83-1CC9E42990B9}"/>
+    <hyperlink ref="E4" r:id="rId40" xr:uid="{289CAC90-5D63-41DB-B264-10BCD401731D}"/>
+    <hyperlink ref="E5" r:id="rId41" xr:uid="{F2AE074E-2173-4259-A7D2-851003DE826E}"/>
+    <hyperlink ref="E7" r:id="rId42" xr:uid="{064C6FEE-EA73-49C0-9AE3-A6FE35FFB6AC}"/>
+    <hyperlink ref="E8" r:id="rId43" xr:uid="{D696098D-BCDF-49F6-9582-28EA4D4AA436}"/>
+    <hyperlink ref="E9" r:id="rId44" xr:uid="{5CEE51FB-DD92-4880-BE5F-15CA6D7AE09B}"/>
+    <hyperlink ref="E11" r:id="rId45" xr:uid="{88809F39-E946-4788-A400-EE4F57CAD373}"/>
+    <hyperlink ref="E12" r:id="rId46" xr:uid="{30D18917-D588-4D40-84AA-D98BC9E5EF28}"/>
+    <hyperlink ref="E13" r:id="rId47" xr:uid="{349AC60F-B3C4-4E76-9788-74F1753CD461}"/>
+    <hyperlink ref="O8" r:id="rId48" xr:uid="{3A6AB0AA-A9C8-4A88-9679-41D2FD799D6D}"/>
+    <hyperlink ref="W8" r:id="rId49" xr:uid="{C63BEBF9-AAA3-4C09-B8BF-3DF45569CD80}"/>
+    <hyperlink ref="O13" r:id="rId50" xr:uid="{A8FACD67-BC3D-4181-9EFD-B3AC70B57649}"/>
+    <hyperlink ref="W2" r:id="rId51" xr:uid="{F19B5EA0-26E1-449C-A475-E1782CC39616}"/>
+    <hyperlink ref="K10" r:id="rId52" xr:uid="{9AAFA359-373E-4388-9237-CF4759BDBA21}"/>
+    <hyperlink ref="G4" r:id="rId53" xr:uid="{AC806780-9930-4D5A-90A1-B6776DE010F1}"/>
+    <hyperlink ref="D6" r:id="rId54" xr:uid="{63D9B215-71F0-41D1-B390-B5E84D3AB6F7}"/>
+    <hyperlink ref="E6" r:id="rId55" xr:uid="{75A5AC05-D2F0-42DE-B22A-7BF6FFDD8BA3}"/>
+    <hyperlink ref="G6" r:id="rId56" xr:uid="{D47C2868-7BED-405F-967B-8FC9B1D7F53A}"/>
+    <hyperlink ref="G5" r:id="rId57" xr:uid="{181822E4-72DD-4002-BFEA-D7DE855D17FF}"/>
+    <hyperlink ref="K6" r:id="rId58" xr:uid="{F58A1DE0-A631-4B3F-B15F-08AA6B19C023}"/>
+    <hyperlink ref="O6" r:id="rId59" xr:uid="{4F094DC1-7253-482C-9FB1-24C5D6FBC779}"/>
+    <hyperlink ref="S6" r:id="rId60" xr:uid="{78D873E5-0B34-442C-8D45-7E07BDEDC8C5}"/>
+    <hyperlink ref="S8" r:id="rId61" xr:uid="{B2C000C9-37C0-4B5D-8331-8CC695827563}"/>
+    <hyperlink ref="G11" r:id="rId62" xr:uid="{DBB99218-36A1-4D2F-890B-725224166B80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2437,13 +2483,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CB405A-D6D3-4F37-BE57-5F4314EE51FD}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,13 +2503,14 @@
     <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" customWidth="1"/>
+    <col min="11" max="11" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="37.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>40</v>
@@ -2472,66 +2519,72 @@
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" s="19" t="s">
         <v>70</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2560,59 +2613,63 @@
         <v>71</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="F4" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="H4" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H4" s="20" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>137</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>51</v>
@@ -2624,19 +2681,20 @@
         <v>58</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="20" t="s">
-        <v>94</v>
-      </c>
+      <c r="J5" s="20"/>
       <c r="K5" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2647,68 +2705,74 @@
         <v>27</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>59</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I6" s="19" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B8" s="19">
         <v>80</v>
@@ -2735,820 +2799,890 @@
         <v>50</v>
       </c>
       <c r="J8" s="19">
+        <v>40</v>
+      </c>
+      <c r="K8" s="19">
         <v>60</v>
       </c>
-      <c r="K8" s="19">
+      <c r="L8" s="19">
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="D10" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L10" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="K11" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="E16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I16" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="J16" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="I24" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J11" t="s">
-        <v>280</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>287</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="J24" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L27" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="B29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="J14" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>127</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>212</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>211</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J20" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J21" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>213</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="J30" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>215</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>237</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I28" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="I31" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="J31" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>218</v>
       </c>
       <c r="B32" s="19">
         <f t="shared" ref="B32:H32" si="0">SUM(B33:B36)</f>
@@ -3583,17 +3717,20 @@
         <v>1</v>
       </c>
       <c r="J32" s="19">
-        <f t="shared" ref="J32:K32" si="1">SUM(J33:J36)</f>
         <v>1</v>
       </c>
       <c r="K32" s="19">
+        <f t="shared" ref="K32:L32" si="1">SUM(K33:K36)</f>
+        <v>1</v>
+      </c>
+      <c r="L32" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B33" s="19">
         <v>1</v>
@@ -3620,15 +3757,18 @@
         <v>1</v>
       </c>
       <c r="J33" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L33" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B34" s="19">
         <v>0</v>
@@ -3660,10 +3800,13 @@
       <c r="K34" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B35" s="19">
         <v>1</v>
@@ -3690,15 +3833,18 @@
         <v>0</v>
       </c>
       <c r="J35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B36" s="19">
         <v>0</v>
@@ -3730,17 +3876,20 @@
       <c r="K36" s="19">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B37" s="19">
         <f>SUM(B38:B39)</f>
         <v>1</v>
       </c>
       <c r="C37" s="19">
-        <f t="shared" ref="C37:K37" si="2">SUM(C38:C39)</f>
+        <f t="shared" ref="C37:L37" si="2">SUM(C38:C39)</f>
         <v>1</v>
       </c>
       <c r="D37" s="19">
@@ -3768,402 +3917,428 @@
         <v>1</v>
       </c>
       <c r="J37" s="19">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K37" s="19">
+      <c r="L37" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="19">
+        <v>1</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1</v>
+      </c>
+      <c r="F38" s="19">
+        <v>0</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="19">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19">
+        <v>2</v>
+      </c>
+      <c r="L38" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="19">
+        <v>0</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="19">
+        <v>0</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0</v>
+      </c>
+      <c r="F39" s="19">
+        <v>0</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1</v>
+      </c>
+      <c r="H39" s="19">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
+        <v>0</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19">
+        <v>0</v>
+      </c>
+      <c r="L39" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="19">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="19">
-        <v>1</v>
-      </c>
-      <c r="E38" s="19">
-        <v>1</v>
-      </c>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>1</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19">
-        <v>1</v>
-      </c>
-      <c r="J38" s="19">
-        <v>2</v>
-      </c>
-      <c r="K38" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="19">
-        <v>0</v>
-      </c>
-      <c r="C39" s="19">
-        <v>0</v>
-      </c>
-      <c r="D39" s="19">
-        <v>0</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="19">
-        <v>0</v>
-      </c>
-      <c r="G39" s="19">
-        <v>1</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0</v>
-      </c>
-      <c r="I39" s="19">
-        <v>0</v>
-      </c>
-      <c r="J39" s="19">
-        <v>0</v>
-      </c>
-      <c r="K39" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="J40" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>241</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="19" t="s">
+      <c r="B45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="K47" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="L47" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="E41" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>223</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="19" t="s">
+      <c r="E48" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="J42" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="K42" s="19" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>240</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K46" s="19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="J47" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>230</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="I48" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B49" s="19">
         <v>4</v>
@@ -4190,15 +4365,18 @@
         <v>2</v>
       </c>
       <c r="J49" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K49" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="L49" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50" s="19">
         <v>4</v>
@@ -4230,10 +4408,13 @@
       <c r="K50" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>
@@ -4260,14 +4441,17 @@
         <v>0</v>
       </c>
       <c r="J51" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="19">
         <v>0</v>
       </c>
+      <c r="L51" s="19">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:K51">
+  <conditionalFormatting sqref="A1:L51">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="**Needs Update**">
       <formula>NOT(ISERROR(SEARCH("**Needs Update**",A1)))</formula>
     </cfRule>
@@ -4286,9 +4470,9 @@
     <hyperlink ref="D5" r:id="rId11" xr:uid="{A649114B-92F5-4C5A-9C9A-E931516097A2}"/>
     <hyperlink ref="I4" r:id="rId12" xr:uid="{1E731822-5132-4919-B64C-0E8CB2DF8DDD}"/>
     <hyperlink ref="I5" r:id="rId13" xr:uid="{4BD48FC1-1D2A-4300-8A6F-C8B628AC5C86}"/>
-    <hyperlink ref="J5" r:id="rId14" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
-    <hyperlink ref="K5" r:id="rId15" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
-    <hyperlink ref="K4" r:id="rId16" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
+    <hyperlink ref="K5" r:id="rId14" xr:uid="{ED0D34A0-D3BD-4C77-BFAD-94D9A9590CDB}"/>
+    <hyperlink ref="L5" r:id="rId15" xr:uid="{6E09A40F-5EB9-4B61-8E8D-355BBFB92BA4}"/>
+    <hyperlink ref="L4" r:id="rId16" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
     <hyperlink ref="F4" r:id="rId17" xr:uid="{6652E533-19FE-455A-8F1B-6E845F0A6D9E}"/>
     <hyperlink ref="F5" r:id="rId18" xr:uid="{779E50B1-CDC9-44F8-8467-9E3AB3C4136B}"/>
   </hyperlinks>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4093F4-AC2E-4934-8FB6-45647B934EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731ECF7-C52D-4F20-BCFE-15988E76CFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="180" windowWidth="21120" windowHeight="20325" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="301">
   <si>
     <t>Name</t>
   </si>
@@ -558,9 +558,6 @@
     <t>Students for the Exploration and Development of Space</t>
   </si>
   <si>
-    <t>Aditya Shah</t>
-  </si>
-  <si>
     <t>DSO</t>
   </si>
   <si>
@@ -579,12 +576,6 @@
     <t>Makerspace</t>
   </si>
   <si>
-    <t>Pheonix, Hermes, Osiris, Daedulus, NMP</t>
-  </si>
-  <si>
-    <t>Competitions - FAR DPF, Spaceport America</t>
-  </si>
-  <si>
     <t>Mojave Test Facility (UCLA Licence Agreement)</t>
   </si>
   <si>
@@ -934,6 +925,21 @@
   </si>
   <si>
     <t>Fleet Services</t>
+  </si>
+  <si>
+    <t>Aaditya Shivadey</t>
+  </si>
+  <si>
+    <t>Competitions - FAR DPF, Spaceport America, FAR 51025</t>
+  </si>
+  <si>
+    <t>Pheonix, Hermes, Osiris, Daedulus</t>
+  </si>
+  <si>
+    <t>EBU-1</t>
+  </si>
+  <si>
+    <t>Argonia Cup</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4EE226-344F-430F-A900-8ADC8B9B0EAC}">
   <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
@@ -1769,10 +1775,10 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="W2" s="23" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="X2" s="3">
         <v>45202</v>
@@ -1851,22 +1857,22 @@
         <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H4" s="17">
         <v>45198</v>
@@ -1907,10 +1913,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
         <v>50</v>
@@ -1922,10 +1928,10 @@
         <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H5" s="17">
         <v>45176</v>
@@ -1958,10 +1964,10 @@
         <v>45187</v>
       </c>
       <c r="R5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T5" s="17">
         <v>45169</v>
@@ -1972,10 +1978,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -1987,10 +1993,10 @@
         <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H6" s="17">
         <v>45211</v>
@@ -2023,10 +2029,10 @@
         <v>45187</v>
       </c>
       <c r="R6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="T6" s="17">
         <v>45169</v>
@@ -2132,10 +2138,10 @@
         <v>45201</v>
       </c>
       <c r="R8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="S8" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="T8" s="17">
         <v>45202</v>
@@ -2232,7 +2238,7 @@
         <v>84</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L10" s="17">
         <v>45191</v>
@@ -2270,10 +2276,10 @@
         <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H11" s="17">
         <v>45244</v>
@@ -2282,10 +2288,10 @@
         <v>45245</v>
       </c>
       <c r="J11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L11" s="17">
         <v>45239</v>
@@ -2294,7 +2300,7 @@
         <v>45245</v>
       </c>
       <c r="N11" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="T11" s="17"/>
     </row>
@@ -2486,10 +2492,10 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2519,13 +2525,13 @@
         <v>41</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>122</v>
@@ -2537,7 +2543,7 @@
         <v>107</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K1" s="19" t="s">
         <v>104</v>
@@ -2560,10 +2566,10 @@
         <v>42</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>154</v>
@@ -2650,7 +2656,9 @@
       <c r="I4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="20"/>
+      <c r="J4" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="K4" s="19" t="s">
         <v>118</v>
       </c>
@@ -2669,7 +2677,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>51</v>
@@ -2686,7 +2694,9 @@
       <c r="I5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="20"/>
+      <c r="J5" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="K5" s="20" t="s">
         <v>91</v>
       </c>
@@ -2705,13 +2715,13 @@
         <v>27</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>59</v>
@@ -2723,13 +2733,13 @@
         <v>73</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>92</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>173</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2743,7 +2753,7 @@
         <v>135</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>155</v>
@@ -2755,13 +2765,13 @@
         <v>135</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>135</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>135</v>
@@ -2802,7 +2812,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="19">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="L8" s="19">
         <v>160</v>
@@ -2819,13 +2829,13 @@
         <v>152</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>169</v>
@@ -2834,16 +2844,16 @@
         <v>164</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2851,42 +2861,42 @@
         <v>149</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>180</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>139</v>
@@ -2898,10 +2908,10 @@
         <v>139</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>139</v>
@@ -2913,18 +2923,18 @@
         <v>139</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K11" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>139</v>
@@ -2942,27 +2952,27 @@
         <v>142</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J12" s="19" t="s">
         <v>142</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>140</v>
@@ -2971,7 +2981,7 @@
         <v>140</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>140</v>
@@ -2980,27 +2990,27 @@
         <v>140</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>170</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>141</v>
@@ -3024,7 +3034,7 @@
         <v>165</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J14" s="19" t="s">
         <v>142</v>
@@ -3038,7 +3048,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>139</v>
@@ -3056,7 +3066,7 @@
         <v>139</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>166</v>
@@ -3076,7 +3086,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>139</v>
@@ -3085,7 +3095,7 @@
         <v>139</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>139</v>
@@ -3100,7 +3110,7 @@
         <v>139</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J16" s="19" t="s">
         <v>142</v>
@@ -3126,10 +3136,10 @@
         <v>139</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>171</v>
@@ -3144,7 +3154,7 @@
         <v>142</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>139</v>
@@ -3152,7 +3162,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>143</v>
@@ -3190,7 +3200,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>142</v>
@@ -3228,7 +3238,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>143</v>
@@ -3266,7 +3276,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>143</v>
@@ -3304,7 +3314,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>142</v>
@@ -3316,7 +3326,7 @@
         <v>142</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F22" s="19" t="s">
         <v>142</v>
@@ -3342,10 +3352,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>142</v>
@@ -3360,13 +3370,13 @@
         <v>142</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>277</v>
+        <v>143</v>
       </c>
       <c r="H23" s="19" t="s">
         <v>142</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>143</v>
@@ -3375,15 +3385,15 @@
         <v>142</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>142</v>
@@ -3392,33 +3402,33 @@
         <v>142</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J24" s="19" t="s">
         <v>143</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>143</v>
@@ -3439,24 +3449,24 @@
         <v>143</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>142</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>142</v>
@@ -3494,7 +3504,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>143</v>
@@ -3532,7 +3542,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B28" s="19" t="s">
         <v>142</v>
@@ -3597,7 +3607,7 @@
         <v>143</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>142</v>
@@ -3632,13 +3642,13 @@
         <v>142</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>142</v>
@@ -3646,10 +3656,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31" s="19" t="s">
         <v>143</v>
@@ -3664,25 +3674,27 @@
         <v>143</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="J31" s="19"/>
+        <v>274</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="K31" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B32" s="19">
         <f t="shared" ref="B32:H32" si="0">SUM(B33:B36)</f>
@@ -3721,16 +3733,16 @@
       </c>
       <c r="K32" s="19">
         <f t="shared" ref="K32:L32" si="1">SUM(K33:K36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B33" s="19">
         <v>1</v>
@@ -3768,7 +3780,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B34" s="19">
         <v>0</v>
@@ -3801,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3836,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="19">
         <v>0</v>
@@ -3882,7 +3894,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B37" s="19">
         <f>SUM(B38:B39)</f>
@@ -3921,7 +3933,7 @@
       </c>
       <c r="K37" s="19">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L37" s="19">
         <f t="shared" si="2"/>
@@ -3960,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="19">
         <v>1</v>
@@ -4006,115 +4018,121 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="K40" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L40" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="I40" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>139</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>139</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="J41" s="19"/>
+        <v>220</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="K41" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="J42" s="19"/>
+      <c r="J42" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="K42" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B43" s="19" t="s">
         <v>139</v>
@@ -4123,16 +4141,16 @@
         <v>139</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F43" s="19" t="s">
         <v>139</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>139</v>
@@ -4140,7 +4158,9 @@
       <c r="I43" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="J43" s="19"/>
+      <c r="J43" s="19" t="s">
+        <v>139</v>
+      </c>
       <c r="K43" s="19" t="s">
         <v>139</v>
       </c>
@@ -4174,9 +4194,11 @@
         <v>142</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="J44" s="19"/>
+        <v>190</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>143</v>
+      </c>
       <c r="K44" s="19" t="s">
         <v>142</v>
       </c>
@@ -4227,37 +4249,37 @@
         <v>158</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F46" s="19" t="s">
         <v>139</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>167</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J46" s="19" t="s">
         <v>142</v>
       </c>
       <c r="K46" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -4277,7 +4299,7 @@
         <v>146</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>146</v>
@@ -4289,7 +4311,7 @@
         <v>146</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K47" s="19" t="s">
         <v>146</v>
@@ -4300,40 +4322,40 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -4371,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -4406,15 +4428,15 @@
         <v>1</v>
       </c>
       <c r="K50" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L50" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B51" s="19">
         <v>0</v>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4731ECF7-C52D-4F20-BCFE-15988E76CFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C99423-8CDD-4F88-B456-B9B2FC9466AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="3405" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="10950" yWindow="1080" windowWidth="38640" windowHeight="19275" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -912,9 +912,6 @@
     <t>USLI, TVC</t>
   </si>
   <si>
-    <t xml:space="preserve">Dedicated Storage, basement of eng.1 </t>
-  </si>
-  <si>
     <t>Kinda</t>
   </si>
   <si>
@@ -940,6 +937,15 @@
   </si>
   <si>
     <t>Argonia Cup</t>
+  </si>
+  <si>
+    <t>https://www.ucscrocketry.org/</t>
+  </si>
+  <si>
+    <t>rockets@ucsc.edu</t>
+  </si>
+  <si>
+    <t>Baskin Engineering Rm BE49, Engineering 2 Rm 585</t>
   </si>
 </sst>
 </file>
@@ -2492,10 +2498,10 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="A38" activeCellId="1" sqref="A35:XFD35 A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,8 +2662,8 @@
       <c r="I4" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="J4" s="19" t="s">
-        <v>274</v>
+      <c r="J4" s="20" t="s">
+        <v>300</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>118</v>
@@ -2694,8 +2700,8 @@
       <c r="I5" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="19" t="s">
-        <v>274</v>
+      <c r="J5" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>91</v>
@@ -2739,7 +2745,7 @@
         <v>92</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2853,7 +2859,7 @@
         <v>227</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2879,7 +2885,7 @@
         <v>177</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I10" s="19" t="s">
         <v>184</v>
@@ -2891,7 +2897,7 @@
         <v>174</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2923,10 +2929,10 @@
         <v>139</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>274</v>
@@ -3607,7 +3613,7 @@
         <v>143</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K29" s="19" t="s">
         <v>142</v>
@@ -3645,7 +3651,7 @@
         <v>188</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>175</v>
@@ -4311,7 +4317,7 @@
         <v>146</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K47" s="19" t="s">
         <v>146</v>
@@ -4349,7 +4355,7 @@
         <v>225</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K48" s="19" t="s">
         <v>225</v>
@@ -4497,6 +4503,8 @@
     <hyperlink ref="L4" r:id="rId16" xr:uid="{ED2DC8CB-068B-4EF3-9F5A-1D909FBDD420}"/>
     <hyperlink ref="F4" r:id="rId17" xr:uid="{6652E533-19FE-455A-8F1B-6E845F0A6D9E}"/>
     <hyperlink ref="F5" r:id="rId18" xr:uid="{779E50B1-CDC9-44F8-8467-9E3AB3C4136B}"/>
+    <hyperlink ref="J4" r:id="rId19" xr:uid="{6F2423BF-2BE2-45AA-BF61-3088A4F5BD22}"/>
+    <hyperlink ref="J5" r:id="rId20" xr:uid="{2BCC43BD-938C-407B-8B8D-93AE1C21358F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/UC_HPR.xlsx
+++ b/UC_HPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\Documents\GitHub\rocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C99423-8CDD-4F88-B456-B9B2FC9466AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EAD554-8F82-4807-BD87-248E33B117A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10950" yWindow="1080" windowWidth="38640" windowHeight="19275" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
+    <workbookView xWindow="9750" yWindow="2715" windowWidth="23295" windowHeight="15600" activeTab="1" xr2:uid="{AB955B87-7ADA-41D3-A18C-FBC04B1C6374}"/>
   </bookViews>
   <sheets>
     <sheet name="Contacts" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="305">
   <si>
     <t>Name</t>
   </si>
@@ -946,6 +946,12 @@
   </si>
   <si>
     <t>Baskin Engineering Rm BE49, Engineering 2 Rm 585</t>
+  </si>
+  <si>
+    <t>Asa Garner</t>
+  </si>
+  <si>
+    <t>Personal cars/Fleet Services</t>
   </si>
 </sst>
 </file>
@@ -1312,9 +1318,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1352,7 +1358,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1458,7 +1464,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1600,7 +1606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2498,10 +2504,10 @@
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A38" activeCellId="1" sqref="A35:XFD35 A38:XFD38"/>
+      <selection pane="bottomRight" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>18</v>
+        <v>303</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>27</v>
@@ -2812,7 +2818,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="19">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="J8" s="19">
         <v>40</v>
@@ -3230,7 +3236,7 @@
         <v>142</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J19" s="19" t="s">
         <v>142</v>
@@ -3382,7 +3388,7 @@
         <v>142</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>143</v>
@@ -3458,7 +3464,7 @@
         <v>274</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="J25" s="19" t="s">
         <v>142</v>
@@ -3704,7 +3710,7 @@
       </c>
       <c r="B32" s="19">
         <f t="shared" ref="B32:H32" si="0">SUM(B33:B36)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="19">
         <f t="shared" si="0"/>
@@ -3732,7 +3738,7 @@
       </c>
       <c r="I32" s="19">
         <f>SUM(I33:I36)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="19">
         <v>1</v>
@@ -3751,7 +3757,7 @@
         <v>214</v>
       </c>
       <c r="B33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="19">
         <v>0</v>
@@ -3772,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="19">
         <v>1</v>
@@ -4352,7 +4358,7 @@
         <v>225</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>225</v>
+        <v>304</v>
       </c>
       <c r="J48" s="19" t="s">
         <v>294</v>
@@ -4466,7 +4472,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="19">
         <v>1</v>
